--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_555.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_555.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32253-d1474313-Reviews-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>222</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Motel-6-Newport-Beach.h2823542.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_555.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_555.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="740">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,2112 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/07/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r580167290-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>32253</t>
+  </si>
+  <si>
+    <t>1474313</t>
+  </si>
+  <si>
+    <t>580167290</t>
+  </si>
+  <si>
+    <t>05/14/2018</t>
+  </si>
+  <si>
+    <t>Better than the average Motel 6</t>
+  </si>
+  <si>
+    <t>Our room had been recently renovated and was in great shape. Platform king bed with a firm mattress. Everything worked. Good free wifi (not free at some Motel 6s). Room at the back of the complex was very quiet even though the motel is right by the freeway. Some airplane noise from nearby John Wayne Airport. Ten minute drive to the beach.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Motel6NewportBeachGM, General Manager at Motel 6 Newport Beach, responded to this reviewResponded May 15, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 15, 2018</t>
+  </si>
+  <si>
+    <t>Our room had been recently renovated and was in great shape. Platform king bed with a firm mattress. Everything worked. Good free wifi (not free at some Motel 6s). Room at the back of the complex was very quiet even though the motel is right by the freeway. Some airplane noise from nearby John Wayne Airport. Ten minute drive to the beach.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r576944471-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>576944471</t>
+  </si>
+  <si>
+    <t>04/30/2018</t>
+  </si>
+  <si>
+    <t>Horrible</t>
+  </si>
+  <si>
+    <t>As soon  as we opened the door it smelled moldy. The linoleum on the floor was warped horribly like maybe the room had flooded at some point. The bedspreads had multiple burn holes from cigarettes and numerous sewn patches. The check in staff was friendly.  I'm giving it 2 stars for being close to beach and catching the fairy to Catalina Island but I won't be back. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Motel6NewportBeachGM, Manager at Motel 6 Newport Beach, responded to this reviewResponded May 1, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 1, 2018</t>
+  </si>
+  <si>
+    <t>As soon  as we opened the door it smelled moldy. The linoleum on the floor was warped horribly like maybe the room had flooded at some point. The bedspreads had multiple burn holes from cigarettes and numerous sewn patches. The check in staff was friendly.  I'm giving it 2 stars for being close to beach and catching the fairy to Catalina Island but I won't be back. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r575463880-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>575463880</t>
+  </si>
+  <si>
+    <t>04/24/2018</t>
+  </si>
+  <si>
+    <t>Nice location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicely located right off the freeway and a quick 10 minute drive to the beach and shopping is 5 minutes away. Rooms are reasonably priced and sized. We just needed a place to lay our heads not hang out and relax by the pool and this was it. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r528509988-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>528509988</t>
+  </si>
+  <si>
+    <t>09/30/2017</t>
+  </si>
+  <si>
+    <t>Motel 6</t>
+  </si>
+  <si>
+    <t>Well located near the highway 55, Close to places for quick morning coffee,Big room, places to park the car on site,not far from Newport Beach,Quiet place.Sometimes the front desk team to serious !</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r513918157-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>513918157</t>
+  </si>
+  <si>
+    <t>08/16/2017</t>
+  </si>
+  <si>
+    <t>Not A Bad Place</t>
+  </si>
+  <si>
+    <t>The two men at the desk were very accommodating.  The online reservation (made weeks in advance) was honored just as it was requested - first floor, handicap access, two beds.  No luxury here.  Just a basic, clean room that looked to be renovated not long before.  About a 30" TV, refrigerator, and microwave were in the room.  Pool is on the premises.  The a/c worked just fine.  Bed linens could have been much softer - maybe I'm super-sensitive but the scratchy sheets kept me awake!  This is an ok place for a short stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Motel6NewportBeachGM, Manager at Motel 6 Newport Beach, responded to this reviewResponded August 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 18, 2017</t>
+  </si>
+  <si>
+    <t>The two men at the desk were very accommodating.  The online reservation (made weeks in advance) was honored just as it was requested - first floor, handicap access, two beds.  No luxury here.  Just a basic, clean room that looked to be renovated not long before.  About a 30" TV, refrigerator, and microwave were in the room.  Pool is on the premises.  The a/c worked just fine.  Bed linens could have been much softer - maybe I'm super-sensitive but the scratchy sheets kept me awake!  This is an ok place for a short stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r506575716-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>506575716</t>
+  </si>
+  <si>
+    <t>07/28/2017</t>
+  </si>
+  <si>
+    <t>Clean room, questionable location</t>
+  </si>
+  <si>
+    <t>I recently stayed at Motel 6 Newport Beach and was pleased with the price and the condition of the room. It was clean, AC worked great with no annoying vibrations, squeaks or noises. I did however wish there had been an electrical plug in for the bathroom area. There was no plug in near a mirror for drying my hair. I did question the location and did not venture out after dark.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r473603275-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>473603275</t>
+  </si>
+  <si>
+    <t>04/08/2017</t>
+  </si>
+  <si>
+    <t>Quiet and comfortable stay</t>
+  </si>
+  <si>
+    <t>Chose to stay here after a long day on the road. It wouldn't usually be our first choice, but we were pleasantly surprised (I also checked out the Ali Baba Motel next door first, that place was a dump!). We asked for a room on the top floor to avoid any upstairs neighbour noise. I was a little concerned that the noise from the freeway would be loud, but the clerk gave us a room right at the back of the hotel, and with the air conditioning on we couldn't hear the freeway at all. Others have complained about noisy air con, ours was fine. The room was clean and the beds and pillows comfortable. Oh, and it's right next door to a great pizza joint - Napa Valley Pizza.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Chose to stay here after a long day on the road. It wouldn't usually be our first choice, but we were pleasantly surprised (I also checked out the Ali Baba Motel next door first, that place was a dump!). We asked for a room on the top floor to avoid any upstairs neighbour noise. I was a little concerned that the noise from the freeway would be loud, but the clerk gave us a room right at the back of the hotel, and with the air conditioning on we couldn't hear the freeway at all. Others have complained about noisy air con, ours was fine. The room was clean and the beds and pillows comfortable. Oh, and it's right next door to a great pizza joint - Napa Valley Pizza.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r468997995-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>468997995</t>
+  </si>
+  <si>
+    <t>03/20/2017</t>
+  </si>
+  <si>
+    <t>Beautiful</t>
+  </si>
+  <si>
+    <t>We drove from Cleveland, OH to CA along Route 66/40. We stayed at a Motel 6 every stop along the way. Every one of them was updated. But, this one was our favorite. (Not on Route 66 - a relative lives nearby!). The gentleman at the desk said he'd upgrade us at no charge. Maybe that's why the room was bigger, the bathroom was bigger, there was a mini fridge and microwave, and there was a closet instead of a rack near the bathroom to hang things. Next time we visit our relatives, we're staying here again!</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r461991062-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>461991062</t>
+  </si>
+  <si>
+    <t>02/22/2017</t>
+  </si>
+  <si>
+    <t>NEVER   A G A I N</t>
+  </si>
+  <si>
+    <t>First night was fine.  2nd night roof leaked and they moved me to ground floor.   At 1AM the SMOKE ALARM went off and the fire bell just outside my door(no fire).   Continued off and on for one hour.  FINALLY GOT TO SLEEP ABOUT 3AM after calling front desk.   Desk person said a technician was coming.  Came back 3PM for a nap.....A G A I N the smoke alarm and fire bell!!!!    Went to desk and DEMANDED to be moved, which they did. They acted like.....why do you want to change room??Of course, all I got was sorry about the fire alarm....NO discount or even comp night for 1 night of lost sleep.Will NEVER stay at a Motel 6 again.   This low class treatment will make me MORE than willing to spend $125 as opposed to $82.......$82 should have been $49.95!!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team  at Motel 6 Newport Beach, responded to this reviewResponded February 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 23, 2017</t>
+  </si>
+  <si>
+    <t>First night was fine.  2nd night roof leaked and they moved me to ground floor.   At 1AM the SMOKE ALARM went off and the fire bell just outside my door(no fire).   Continued off and on for one hour.  FINALLY GOT TO SLEEP ABOUT 3AM after calling front desk.   Desk person said a technician was coming.  Came back 3PM for a nap.....A G A I N the smoke alarm and fire bell!!!!    Went to desk and DEMANDED to be moved, which they did. They acted like.....why do you want to change room??Of course, all I got was sorry about the fire alarm....NO discount or even comp night for 1 night of lost sleep.Will NEVER stay at a Motel 6 again.   This low class treatment will make me MORE than willing to spend $125 as opposed to $82.......$82 should have been $49.95!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r437644664-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>437644664</t>
+  </si>
+  <si>
+    <t>11/15/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loud aircon </t>
+  </si>
+  <si>
+    <t>We had a terrible spending our night in this motel. We complained about the loud sound of their aircon once we turned it on. The sound can be heard in the entrance, that 's how loud it was!!! The manager was nice to check on it but he was not able to fix it and he said he will send the maintenance. The maintenance came in but he said he cannot do anything about it. We have to put it in fan mode so it will not sound too loud.  And they cannot transfer us to another room because he said they're fully booked. So we're not able to get a good rest!MoreShow less</t>
+  </si>
+  <si>
+    <t>We had a terrible spending our night in this motel. We complained about the loud sound of their aircon once we turned it on. The sound can be heard in the entrance, that 's how loud it was!!! The manager was nice to check on it but he was not able to fix it and he said he will send the maintenance. The maintenance came in but he said he cannot do anything about it. We have to put it in fan mode so it will not sound too loud.  And they cannot transfer us to another room because he said they're fully booked. So we're not able to get a good rest!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r426528640-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>426528640</t>
+  </si>
+  <si>
+    <t>10/09/2016</t>
+  </si>
+  <si>
+    <t>Well....I slept...</t>
+  </si>
+  <si>
+    <t>We needed a spot to crash for one night near Huntington Beach. The hotel had availability and accepted the AAA discount so we went with it. However, the room smelled weird...like stale and cheap cleaning products. I would avoid staying here again if I could. MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team Member at Motel 6 Newport Beach, responded to this reviewResponded October 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 10, 2016</t>
+  </si>
+  <si>
+    <t>We needed a spot to crash for one night near Huntington Beach. The hotel had availability and accepted the AAA discount so we went with it. However, the room smelled weird...like stale and cheap cleaning products. I would avoid staying here again if I could. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r420346335-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>420346335</t>
+  </si>
+  <si>
+    <t>09/19/2016</t>
+  </si>
+  <si>
+    <t>Bare bones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This place was in an excellent location, clean room, and nice pool.  Vending machines with old candy.  No comfortable place to sit in the room, no towel racks or place to put anything during our 6 night stay.  </t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r411467316-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>411467316</t>
+  </si>
+  <si>
+    <t>08/27/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pleasantly surprised </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Safe parking, clean upgraded rooms. Best Motel 6 we have ever stayed in. The location works for hitting the beach with a short drive and works well to head back towards Orange County. Easy to get in and out. Close to "the triangle" restaurants and movie theatre. </t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r404100276-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>404100276</t>
+  </si>
+  <si>
+    <t>08/11/2016</t>
+  </si>
+  <si>
+    <t>Meh</t>
+  </si>
+  <si>
+    <t>Me and my girls wanted to have a fun GNO so we booked a night here. First there is no carpet. Second, we wanted to hook up our laptop to the TV so we could watch Netflix &amp; we werent able to. Beds were kind of scary. My friends bed had period blood on it or something! Seemed kind of sketchy. Only cool part was probably the elevated pool.</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r401587615-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>401587615</t>
+  </si>
+  <si>
+    <t>08/05/2016</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This hotel is very nice and clean. The staff were very friendly. It is a prime location to easily get to Huntington Beach as well as many great eateries. Room has been renovated and very nice, elegant touch to it. Rey glad I Picked here. If you are on the fence to stay here or not, just do it!!! You will NOT be disappointed. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r385312180-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>385312180</t>
+  </si>
+  <si>
+    <t>06/23/2016</t>
+  </si>
+  <si>
+    <t>great motel - easy drive to Huntington Beach</t>
+  </si>
+  <si>
+    <t>The room was really big and the beds were very comfortable! The TV had loads of channels to choose from. The room and motel halls, etc were clean. There was a lovely little swimming pool which we didn't expect. The man who checked us in and another who checked us out were very friendly and offered free coffee. With the motel situated just off the motorway, driving to Huntington or Newport Beach was easy. Really good motel - I'd highly recommend.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r372088285-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>372088285</t>
+  </si>
+  <si>
+    <t>05/11/2016</t>
+  </si>
+  <si>
+    <t>RIP OFF ALERT charged for 2 rooms on 1 night stay</t>
+  </si>
+  <si>
+    <t>Beware booking online here. They are a straight out thiefs. I had reserved 1 room online and had 1 confirmation # for 1 guestWhen I checked in I was told I made 2 reservations. I explained to the clerk I only reserved 1 room an only needed 1 room for 1 person reservation.They charged for 1 room at 3pm when I checked in.They charged for the second room at 10pm said it was a no call no show fee.I reported to credit card company this fraud.This motel 6 fought this claim 3 times with my credit card company an won.I dont know how you can sleep at night stealing from people. I would not recommend staying here. You could be charged for additional rooms and charged as a NO SHOW?BUYER BEWARE online FRAUD.MoreShow less</t>
+  </si>
+  <si>
+    <t>Beware booking online here. They are a straight out thiefs. I had reserved 1 room online and had 1 confirmation # for 1 guestWhen I checked in I was told I made 2 reservations. I explained to the clerk I only reserved 1 room an only needed 1 room for 1 person reservation.They charged for 1 room at 3pm when I checked in.They charged for the second room at 10pm said it was a no call no show fee.I reported to credit card company this fraud.This motel 6 fought this claim 3 times with my credit card company an won.I dont know how you can sleep at night stealing from people. I would not recommend staying here. You could be charged for additional rooms and charged as a NO SHOW?BUYER BEWARE online FRAUD.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r358173086-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>358173086</t>
+  </si>
+  <si>
+    <t>03/24/2016</t>
+  </si>
+  <si>
+    <t>Throw your preconceived notion of Motel 6 aside...</t>
+  </si>
+  <si>
+    <t>Yeah, when I think of Motel 6, images of those Breaking Bad roadside hotels come to mind.  This was not it, to our pleasant surprise. The accommodations were mostly new.  It seems that they probably remodeled the place not long ago.  The sleep was comfy, and it's fairly quiet. The only negative is with the towels, which appeared to be somewhat unclean. Otherwise I would give it a 5, given it's good value for being one of the cheapest hotels in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Sahil P, Public Relations Manager at Motel 6 Newport Beach, responded to this reviewResponded March 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 29, 2016</t>
+  </si>
+  <si>
+    <t>Yeah, when I think of Motel 6, images of those Breaking Bad roadside hotels come to mind.  This was not it, to our pleasant surprise. The accommodations were mostly new.  It seems that they probably remodeled the place not long ago.  The sleep was comfy, and it's fairly quiet. The only negative is with the towels, which appeared to be somewhat unclean. Otherwise I would give it a 5, given it's good value for being one of the cheapest hotels in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r351355345-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>351355345</t>
+  </si>
+  <si>
+    <t>02/27/2016</t>
+  </si>
+  <si>
+    <t>Clean, simple lodging.</t>
+  </si>
+  <si>
+    <t>Very simple, but everything you need to crash while spending a few days in the area. The room was clean and check in was a quick and pleasant experience. The motel is close to Starbucks and a variety of places to eat, not to mention close proximity to the beach. I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Sahil P, Public Relations Manager at Motel 6 Newport Beach, responded to this reviewResponded February 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 29, 2016</t>
+  </si>
+  <si>
+    <t>Very simple, but everything you need to crash while spending a few days in the area. The room was clean and check in was a quick and pleasant experience. The motel is close to Starbucks and a variety of places to eat, not to mention close proximity to the beach. I would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r350779717-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>350779717</t>
+  </si>
+  <si>
+    <t>02/25/2016</t>
+  </si>
+  <si>
+    <t>Bad Place for Family!!!</t>
+  </si>
+  <si>
+    <t>I watched at the office that the manager was very rude to minority people! The employee treated the minority people no respect at all!!! Room was cleaned but smelly and room was not securely locked afterwards, which was a little concerning.  The night went on the next door and the hallway got louder and VERY much louder and went on well into the early hours of the morning.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>I watched at the office that the manager was very rude to minority people! The employee treated the minority people no respect at all!!! Room was cleaned but smelly and room was not securely locked afterwards, which was a little concerning.  The night went on the next door and the hallway got louder and VERY much louder and went on well into the early hours of the morning.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r350755720-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>350755720</t>
+  </si>
+  <si>
+    <t>Good value :)</t>
+  </si>
+  <si>
+    <t>If you're looking for a quick hotel that's clean in Costamesa /Newport area this is good.  The staff was very nice and helpful Fixing my reservation for me which had the wrong bed size.  The parking is free and convenient, free wifi, pool, laundry facility's Convenient location. Would stay here again MoreShow less</t>
+  </si>
+  <si>
+    <t>If you're looking for a quick hotel that's clean in Costamesa /Newport area this is good.  The staff was very nice and helpful Fixing my reservation for me which had the wrong bed size.  The parking is free and convenient, free wifi, pool, laundry facility's Convenient location. Would stay here again More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r345911897-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>345911897</t>
+  </si>
+  <si>
+    <t>02/08/2016</t>
+  </si>
+  <si>
+    <t>Perfect</t>
+  </si>
+  <si>
+    <t>We always use mitel 6 no matter where we go. I love the ease of reserving online and if we have to change dates customer service is always friendly and empathic. We are going to ventura in a week and I have no worrys because motel 6 is known well for clean and comfortable rooms.MoreShow less</t>
+  </si>
+  <si>
+    <t>Sahil P, Public Relations Manager at Motel 6 Newport Beach, responded to this reviewResponded February 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 22, 2016</t>
+  </si>
+  <si>
+    <t>We always use mitel 6 no matter where we go. I love the ease of reserving online and if we have to change dates customer service is always friendly and empathic. We are going to ventura in a week and I have no worrys because motel 6 is known well for clean and comfortable rooms.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r341788238-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>341788238</t>
+  </si>
+  <si>
+    <t>01/21/2016</t>
+  </si>
+  <si>
+    <t>Outstanding renovated upscale vintage/classic motel.</t>
+  </si>
+  <si>
+    <t>Oh my goodness, this hotel would be a 4 star hotel if it had a restaurant which is outstanding star rating according to AAA. I have been in the hotel business for over 25 years. I've consulted for marketing for 2 to 5 star hotels to get them the most business for the money people pay. This hotel is right up there with the quality I expect of my hotels. I do the black light test everywhere I stay. I was very impressed, not one mark except for the TV remote and the phone. To management, just have housekeeping wipe that with their cleaning towel every time they clean the room and that will do the trick. The outside is what you would expect at any motor lodge classic/vintage properties. The upkeep is outstanding, new landscaping, very clean paint job throughout. The room, the design is outstanding, presentation is very upscale and modern looking no short cuts on the upgrade here, to the vanities to the bathrooms, the closet (wow an actual closet in a motel 6). Bathroom was tub/shower combo, with the curved shower curtain, even quality inn hotels don't do that. Great job. Tilton at check in was great and everything has been great.MoreShow less</t>
+  </si>
+  <si>
+    <t>Sahil P, Public Relations Manager at Motel 6 Newport Beach, responded to this reviewResponded January 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 23, 2016</t>
+  </si>
+  <si>
+    <t>Oh my goodness, this hotel would be a 4 star hotel if it had a restaurant which is outstanding star rating according to AAA. I have been in the hotel business for over 25 years. I've consulted for marketing for 2 to 5 star hotels to get them the most business for the money people pay. This hotel is right up there with the quality I expect of my hotels. I do the black light test everywhere I stay. I was very impressed, not one mark except for the TV remote and the phone. To management, just have housekeeping wipe that with their cleaning towel every time they clean the room and that will do the trick. The outside is what you would expect at any motor lodge classic/vintage properties. The upkeep is outstanding, new landscaping, very clean paint job throughout. The room, the design is outstanding, presentation is very upscale and modern looking no short cuts on the upgrade here, to the vanities to the bathrooms, the closet (wow an actual closet in a motel 6). Bathroom was tub/shower combo, with the curved shower curtain, even quality inn hotels don't do that. Great job. Tilton at check in was great and everything has been great.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r337736346-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>337736346</t>
+  </si>
+  <si>
+    <t>01/05/2016</t>
+  </si>
+  <si>
+    <t>Cramped, Creepy, Criminal Activity</t>
+  </si>
+  <si>
+    <t>I was very busy moving out of my home less than a week prior to Christmas in order to have my wood floors refinished. I needed something close to home and that allowed pets. I booked this hotel sight unseen based upon photos and high favorable reviews on both tripadvisor and Expedia.com. Upon check-in the desk personnel were initially very dismissive/unresponsive. The maid was still in the room, it smelled of bug spray, but was clean aside from the hairs I saw on the mattress cover underneath the fitted sheet. The room was barely bigger than the full size bed. There were sketchy people both in the parking structure and in front of the hotel. My 3rd night there I was awakened by the smell of marijuana smoke. When I reported it to the desk clerk, I was told I could check out right then, or could have a free upgrade the next day. As it was after 11pm at the time, I promptly checked out the next morning. Never, ever, again!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Sahil P, Public Relations Manager at Motel 6 Newport Beach, responded to this reviewResponded January 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 17, 2016</t>
+  </si>
+  <si>
+    <t>I was very busy moving out of my home less than a week prior to Christmas in order to have my wood floors refinished. I needed something close to home and that allowed pets. I booked this hotel sight unseen based upon photos and high favorable reviews on both tripadvisor and Expedia.com. Upon check-in the desk personnel were initially very dismissive/unresponsive. The maid was still in the room, it smelled of bug spray, but was clean aside from the hairs I saw on the mattress cover underneath the fitted sheet. The room was barely bigger than the full size bed. There were sketchy people both in the parking structure and in front of the hotel. My 3rd night there I was awakened by the smell of marijuana smoke. When I reported it to the desk clerk, I was told I could check out right then, or could have a free upgrade the next day. As it was after 11pm at the time, I promptly checked out the next morning. Never, ever, again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r331997289-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>331997289</t>
+  </si>
+  <si>
+    <t>12/11/2015</t>
+  </si>
+  <si>
+    <t>Basic but clean.</t>
+  </si>
+  <si>
+    <t>Room was clean, quite basic and does not feel homely but was perfect for what we were looking for. If you are looking for luxury then this is not suitable. Secure free parking facilities, we did not use the pool so cannot comment on that aspect. Well placed for exploring costa mesa and newport beach area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Sahil P, Public Relations Manager at Motel 6 Newport Beach, responded to this reviewResponded January 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 3, 2016</t>
+  </si>
+  <si>
+    <t>Room was clean, quite basic and does not feel homely but was perfect for what we were looking for. If you are looking for luxury then this is not suitable. Secure free parking facilities, we did not use the pool so cannot comment on that aspect. Well placed for exploring costa mesa and newport beach area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r315615241-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>315615241</t>
+  </si>
+  <si>
+    <t>10/02/2015</t>
+  </si>
+  <si>
+    <t>Neat, Smart and Inexpensive</t>
+  </si>
+  <si>
+    <t>Like most Motel 6 properties, this one has been remodeled and is very neat, clean and sporty, if certainly spartan and simple.  Everything was in great working order, the pool area was nice and, like all Motel 6 properties, they allow pets for free.  It's in a pretty good location, not far from key area attractions.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r311833365-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>311833365</t>
+  </si>
+  <si>
+    <t>09/19/2015</t>
+  </si>
+  <si>
+    <t>Terrrible!! Dirty rooms! Expensive for no reason!!</t>
+  </si>
+  <si>
+    <t>Terrible! I paid over $189 plus $25 key which they didnt return at check out! The room was dirty had bugs in the room found bugs in the bed, the office staff was rude and wouldnt change the room after a complaint the night manager didnt stop people from knock on my door at strange hours, i was bugged for drugs 3 times and i had my kids with me. i thought i heard gun fire 6 times. we were going to stay for a week but decided to leave and go somewheres else this is the worst motel 6 ever i will never come here again!!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>6Team, brand expericened team member at Motel 6 Newport Beach, responded to this reviewResponded September 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 23, 2015</t>
+  </si>
+  <si>
+    <t>Terrible! I paid over $189 plus $25 key which they didnt return at check out! The room was dirty had bugs in the room found bugs in the bed, the office staff was rude and wouldnt change the room after a complaint the night manager didnt stop people from knock on my door at strange hours, i was bugged for drugs 3 times and i had my kids with me. i thought i heard gun fire 6 times. we were going to stay for a week but decided to leave and go somewheres else this is the worst motel 6 ever i will never come here again!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r299251236-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>299251236</t>
+  </si>
+  <si>
+    <t>08/14/2015</t>
+  </si>
+  <si>
+    <t>NICE &amp; EXPENSIVE</t>
+  </si>
+  <si>
+    <t>Had stayed here several times in the past. On this date was for the OC fair. The room was $145.00.  However it was Saturday, and middle of Summer, in a primo-resort location. The room was large, in the back #311. all re-done. Faux wood floors, raised sink in bathroom, accent lighting. Nothing at all wrong with the place. The only thing I did not like was the inflated price.</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r298140715-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>298140715</t>
+  </si>
+  <si>
+    <t>08/11/2015</t>
+  </si>
+  <si>
+    <t>A cut above the usual Motel 6 hotel</t>
+  </si>
+  <si>
+    <t>The rooms are,such more spacious than other Motel 6 hotels - updated, good beds, etc. However, if you have any special needs make sure you call several times before and ask them to tell YOU what they have reserved for you.  I had confirmed a wheelchair accessible room, gone 2 days ahead to preview it, was told it was all ready for us AND guess what?  Upon arrival to move into my prepaid w/chair accessible room, they had given it away!  The other rooms had no access for a wh/chair and they didn't even have a shower chair to put in the tub.  The bathrooms were too small for a wheelchair to fit into, and although they put an plastic poolside chair in the  tub, there was no way to transfer into it.  MAKE SURE YOU CONSTANTLY MONITOR YOUR SPECIAL RESERVATION.  Also, I had made this reservation months ago and luckily had the original email on my iPhone because they wanted to charge me $29 more than my confirmed reservation.  Once I showed it to them and had them call central reservations who verified my price quote, did I get my contracted price.  Buyer beware...MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, brand expericened team member at Motel 6 Newport Beach, responded to this reviewResponded August 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 14, 2015</t>
+  </si>
+  <si>
+    <t>The rooms are,such more spacious than other Motel 6 hotels - updated, good beds, etc. However, if you have any special needs make sure you call several times before and ask them to tell YOU what they have reserved for you.  I had confirmed a wheelchair accessible room, gone 2 days ahead to preview it, was told it was all ready for us AND guess what?  Upon arrival to move into my prepaid w/chair accessible room, they had given it away!  The other rooms had no access for a wh/chair and they didn't even have a shower chair to put in the tub.  The bathrooms were too small for a wheelchair to fit into, and although they put an plastic poolside chair in the  tub, there was no way to transfer into it.  MAKE SURE YOU CONSTANTLY MONITOR YOUR SPECIAL RESERVATION.  Also, I had made this reservation months ago and luckily had the original email on my iPhone because they wanted to charge me $29 more than my confirmed reservation.  Once I showed it to them and had them call central reservations who verified my price quote, did I get my contracted price.  Buyer beware...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r295471393-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>295471393</t>
+  </si>
+  <si>
+    <t>08/03/2015</t>
+  </si>
+  <si>
+    <t>Nice experince</t>
+  </si>
+  <si>
+    <t>Rooms were clean, smelled good. Large tub. Clean parking area. They had doggie poop bags available for people that had brought their dogs. Silent air conditioner. Comfortable king size bed. WII and TV worked great..</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r281955114-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>281955114</t>
+  </si>
+  <si>
+    <t>06/21/2015</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>The parking is to small the attention on the Custumers is too poor and the location on this hotel is noisy a lot. The personal client the room sometime left the room not completely clean. In term the security is complete non onlyOn night and sometime are see.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r277368609-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>277368609</t>
+  </si>
+  <si>
+    <t>06/02/2015</t>
+  </si>
+  <si>
+    <t>Uh…mazing!!</t>
+  </si>
+  <si>
+    <t>Guess I haven't been to a Motel 6 in a while or this one just wowed me based on past, very past experiences.  I booked this hotel for one night in order not to drive home after an all day concert in Newport Beach.  I called before heading to the concert and was assured my room would be waiting for me whenever I got there - and it was.  The location is great in terms of shopping, hotels and restaurants. Our room was on the third floor (over the underground garage).  While the furnishings were minimalistic, there was slight Miami Beach feel due to the art deco touches.  To my surprise the carpet was gone (thank you J****) and replaced with wood-like laminate.  A king bed with two side tables (no dresser), a central table with 2 chairs and a television mounted on the wall completed the decor.  There was a small refrigerator with a separate freezer and a microwave.  The room was large.  The bathroom had a shower/tub with art deco on the wall in bright yellow that held the towels.  The sink was a modern, top-mounted, bowl.  While I would't want to stay in a dorm-like situation for too many days, for a night or 2 this was doable.  I commented to the clerk, upon leaving, that I had obviously been away too long.  I hope this is the trend in most Motel 6's but, have a feeling...Guess I haven't been to a Motel 6 in a while or this one just wowed me based on past, very past experiences.  I booked this hotel for one night in order not to drive home after an all day concert in Newport Beach.  I called before heading to the concert and was assured my room would be waiting for me whenever I got there - and it was.  The location is great in terms of shopping, hotels and restaurants. Our room was on the third floor (over the underground garage).  While the furnishings were minimalistic, there was slight Miami Beach feel due to the art deco touches.  To my surprise the carpet was gone (thank you J****) and replaced with wood-like laminate.  A king bed with two side tables (no dresser), a central table with 2 chairs and a television mounted on the wall completed the decor.  There was a small refrigerator with a separate freezer and a microwave.  The room was large.  The bathroom had a shower/tub with art deco on the wall in bright yellow that held the towels.  The sink was a modern, top-mounted, bowl.  While I would't want to stay in a dorm-like situation for too many days, for a night or 2 this was doable.  I commented to the clerk, upon leaving, that I had obviously been away too long.  I hope this is the trend in most Motel 6's but, have a feeling this was the Orange County (OC) version - trendy.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Guess I haven't been to a Motel 6 in a while or this one just wowed me based on past, very past experiences.  I booked this hotel for one night in order not to drive home after an all day concert in Newport Beach.  I called before heading to the concert and was assured my room would be waiting for me whenever I got there - and it was.  The location is great in terms of shopping, hotels and restaurants. Our room was on the third floor (over the underground garage).  While the furnishings were minimalistic, there was slight Miami Beach feel due to the art deco touches.  To my surprise the carpet was gone (thank you J****) and replaced with wood-like laminate.  A king bed with two side tables (no dresser), a central table with 2 chairs and a television mounted on the wall completed the decor.  There was a small refrigerator with a separate freezer and a microwave.  The room was large.  The bathroom had a shower/tub with art deco on the wall in bright yellow that held the towels.  The sink was a modern, top-mounted, bowl.  While I would't want to stay in a dorm-like situation for too many days, for a night or 2 this was doable.  I commented to the clerk, upon leaving, that I had obviously been away too long.  I hope this is the trend in most Motel 6's but, have a feeling...Guess I haven't been to a Motel 6 in a while or this one just wowed me based on past, very past experiences.  I booked this hotel for one night in order not to drive home after an all day concert in Newport Beach.  I called before heading to the concert and was assured my room would be waiting for me whenever I got there - and it was.  The location is great in terms of shopping, hotels and restaurants. Our room was on the third floor (over the underground garage).  While the furnishings were minimalistic, there was slight Miami Beach feel due to the art deco touches.  To my surprise the carpet was gone (thank you J****) and replaced with wood-like laminate.  A king bed with two side tables (no dresser), a central table with 2 chairs and a television mounted on the wall completed the decor.  There was a small refrigerator with a separate freezer and a microwave.  The room was large.  The bathroom had a shower/tub with art deco on the wall in bright yellow that held the towels.  The sink was a modern, top-mounted, bowl.  While I would't want to stay in a dorm-like situation for too many days, for a night or 2 this was doable.  I commented to the clerk, upon leaving, that I had obviously been away too long.  I hope this is the trend in most Motel 6's but, have a feeling this was the Orange County (OC) version - trendy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r276560912-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>276560912</t>
+  </si>
+  <si>
+    <t>06/01/2015</t>
+  </si>
+  <si>
+    <t>Nice place for the money.</t>
+  </si>
+  <si>
+    <t>Decent location and price.  Room was nice size and clean.  Fridge and nice flat screen with decent selection.  Great laundry room facilities.  Mattress was on the hard side and was a bit uncomfortable.  Also, water coming out of the tap was foul smelling and tasting-bring your own bottled water.   Only coffee service in the AM.  Wall are not sound proof so expect not to sleep before midnight.Overall, the clean room and the price made up for the shortfalls.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r255980288-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>255980288</t>
+  </si>
+  <si>
+    <t>02/23/2015</t>
+  </si>
+  <si>
+    <t>Sleeping in an ashtray</t>
+  </si>
+  <si>
+    <t>I booked a non smoking room but due to a snafu with my credit card (not Motel 6 fault) the card could not be charged. I called ahead to let them know I would pay with another card upon arrival ASAP.When I arrived they told me they had cancelled the reservation but they found me another room (for which I was grateful). However, upon entering the room, I gagged at the overwhelming stink of stale cigarette smoke. My parents were smokers so I grew up in a heavy smoke environment. I was in Vegas recently (perhaps the last place where public indoor smoking is accepted) and this room was much worse than even the smokiest casinos. I turned on the A/C, opened the door and windows and tried to air the room out but it didn't help much.I had no choice but to sleep in the room (I was on a business trip and I needed to get some rest for a very busy day) but it was a most unpleasant stay. Being woken up at 5 am by loud guests talking and laughing outside my door was another problem but paled in comparison to the cigarette smoke.More than 24 hours after check out my clothes still reek of cigarette smoke.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>Motel6NewportBeachGM, General Manager at Motel 6 Newport Beach, responded to this reviewResponded February 25, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 25, 2015</t>
+  </si>
+  <si>
+    <t>I booked a non smoking room but due to a snafu with my credit card (not Motel 6 fault) the card could not be charged. I called ahead to let them know I would pay with another card upon arrival ASAP.When I arrived they told me they had cancelled the reservation but they found me another room (for which I was grateful). However, upon entering the room, I gagged at the overwhelming stink of stale cigarette smoke. My parents were smokers so I grew up in a heavy smoke environment. I was in Vegas recently (perhaps the last place where public indoor smoking is accepted) and this room was much worse than even the smokiest casinos. I turned on the A/C, opened the door and windows and tried to air the room out but it didn't help much.I had no choice but to sleep in the room (I was on a business trip and I needed to get some rest for a very busy day) but it was a most unpleasant stay. Being woken up at 5 am by loud guests talking and laughing outside my door was another problem but paled in comparison to the cigarette smoke.More than 24 hours after check out my clothes still reek of cigarette smoke.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r248307862-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>248307862</t>
+  </si>
+  <si>
+    <t>01/08/2015</t>
+  </si>
+  <si>
+    <t>Great value!</t>
+  </si>
+  <si>
+    <t>We stayed in the hotel for just one night in our way up to Santa Monica from San Diego. The rooms were clean and very spacious - for the amount we paid I was very impressed. It's not that close to Newport but was a short taxi ride to get there which was fine. The staff were extremely helpful. We really enjoyed our stay here and it's well worth the small amount of money you pay!</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r247483254-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>247483254</t>
+  </si>
+  <si>
+    <t>01/04/2015</t>
+  </si>
+  <si>
+    <t>5 out of 5</t>
+  </si>
+  <si>
+    <t>Upgraded our room for free, HUGE room, super clean, basic but brilliant! Comfortable nights sleep in a spotless environment. The staff and manager were super friendly, we had a great stay and felt very welcome. I can't recommend the place enough! Best wishes from the UK!</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r239578076-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>239578076</t>
+  </si>
+  <si>
+    <t>11/12/2014</t>
+  </si>
+  <si>
+    <t>A million times better than we ever thought we would get at a motel</t>
+  </si>
+  <si>
+    <t>We arrived at motel six thinking we'd get a room a shower, some cockroaches and a parking space and that'd be it... We were very wrong.. We got the friendliest staff we could ask for, a huge room with a king sized bed and a large bathroom and a parking space. The hotel (better than motel style rooms) was in walking distance of two 'dive bars' which is where the locals go and an excellent pizzeria, a little bit further walking and you can get to triangle square (strange oxymoron I know) where there are a lot of sports bars and restaurants (more pricey than the dive bars and pizzeria) these were nice and we spent a while there during our stay. This motel was an excellent base the only minor issue was having to stay on one side of the room for the wifi to work but that was no big deal as we were quite some distance from the repeater.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>We arrived at motel six thinking we'd get a room a shower, some cockroaches and a parking space and that'd be it... We were very wrong.. We got the friendliest staff we could ask for, a huge room with a king sized bed and a large bathroom and a parking space. The hotel (better than motel style rooms) was in walking distance of two 'dive bars' which is where the locals go and an excellent pizzeria, a little bit further walking and you can get to triangle square (strange oxymoron I know) where there are a lot of sports bars and restaurants (more pricey than the dive bars and pizzeria) these were nice and we spent a while there during our stay. This motel was an excellent base the only minor issue was having to stay on one side of the room for the wifi to work but that was no big deal as we were quite some distance from the repeater.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r239575852-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>239575852</t>
+  </si>
+  <si>
+    <t>Great stay &amp; friendly staff</t>
+  </si>
+  <si>
+    <t>My boyfriend and I stayed here in November and on arrival, we were upgraded to a king size room free of charge. The room was big, clean and had a fridge/freezer, microwave, flat screen tv &amp; plenty of sockets to plug in electrical devices. The car park was free and there were always plenty of spaces to choose from. There was also a small pool and seating area around it. The room was cleaned every day &amp; in the 5 nights we stayed there, it was spotless. 
+The staff were extremely helpful and accommodating. They lent us an iron free of charge, gave us plenty of information about the area and also called the Hollywood Motel 6 on our behalf to reserve a parking space, as we were travelling there a few days later. They also gave us their business card and the name of the Hollywood Motel 6's manager incase we experienced any problems. 
+The Motel is situated just off the freeway and is in an area with plenty of other hotels. There is a big supermarket a short walk away and a place called 'Triangle Square' about a mile away that has bars, restaurants, a cinema and shops. 
+We would definitely stay here again. We didn't experience any problems at all and really enjoyed our stay. We stayed in 6 hotels during our West Coast road trip and this was one of the best (I would say the...My boyfriend and I stayed here in November and on arrival, we were upgraded to a king size room free of charge. The room was big, clean and had a fridge/freezer, microwave, flat screen tv &amp; plenty of sockets to plug in electrical devices. The car park was free and there were always plenty of spaces to choose from. There was also a small pool and seating area around it. The room was cleaned every day &amp; in the 5 nights we stayed there, it was spotless. The staff were extremely helpful and accommodating. They lent us an iron free of charge, gave us plenty of information about the area and also called the Hollywood Motel 6 on our behalf to reserve a parking space, as we were travelling there a few days later. They also gave us their business card and the name of the Hollywood Motel 6's manager incase we experienced any problems. The Motel is situated just off the freeway and is in an area with plenty of other hotels. There is a big supermarket a short walk away and a place called 'Triangle Square' about a mile away that has bars, restaurants, a cinema and shops. We would definitely stay here again. We didn't experience any problems at all and really enjoyed our stay. We stayed in 6 hotels during our West Coast road trip and this was one of the best (I would say the hotel room itself was to the same standard as the rooms in The Stratosphere, Las Vegas, where we stayed at the start of our trip). The only glitch was the wifi wasn't reliable in our room, but we stayed in 309, which is right at the back of the motel, so that was to be expected.Overall great experience and fantastic staff - highly recommended - especially for the price! MoreShow less</t>
+  </si>
+  <si>
+    <t>My boyfriend and I stayed here in November and on arrival, we were upgraded to a king size room free of charge. The room was big, clean and had a fridge/freezer, microwave, flat screen tv &amp; plenty of sockets to plug in electrical devices. The car park was free and there were always plenty of spaces to choose from. There was also a small pool and seating area around it. The room was cleaned every day &amp; in the 5 nights we stayed there, it was spotless. 
+The staff were extremely helpful and accommodating. They lent us an iron free of charge, gave us plenty of information about the area and also called the Hollywood Motel 6 on our behalf to reserve a parking space, as we were travelling there a few days later. They also gave us their business card and the name of the Hollywood Motel 6's manager incase we experienced any problems. 
+The Motel is situated just off the freeway and is in an area with plenty of other hotels. There is a big supermarket a short walk away and a place called 'Triangle Square' about a mile away that has bars, restaurants, a cinema and shops. 
+We would definitely stay here again. We didn't experience any problems at all and really enjoyed our stay. We stayed in 6 hotels during our West Coast road trip and this was one of the best (I would say the...My boyfriend and I stayed here in November and on arrival, we were upgraded to a king size room free of charge. The room was big, clean and had a fridge/freezer, microwave, flat screen tv &amp; plenty of sockets to plug in electrical devices. The car park was free and there were always plenty of spaces to choose from. There was also a small pool and seating area around it. The room was cleaned every day &amp; in the 5 nights we stayed there, it was spotless. The staff were extremely helpful and accommodating. They lent us an iron free of charge, gave us plenty of information about the area and also called the Hollywood Motel 6 on our behalf to reserve a parking space, as we were travelling there a few days later. They also gave us their business card and the name of the Hollywood Motel 6's manager incase we experienced any problems. The Motel is situated just off the freeway and is in an area with plenty of other hotels. There is a big supermarket a short walk away and a place called 'Triangle Square' about a mile away that has bars, restaurants, a cinema and shops. We would definitely stay here again. We didn't experience any problems at all and really enjoyed our stay. We stayed in 6 hotels during our West Coast road trip and this was one of the best (I would say the hotel room itself was to the same standard as the rooms in The Stratosphere, Las Vegas, where we stayed at the start of our trip). The only glitch was the wifi wasn't reliable in our room, but we stayed in 309, which is right at the back of the motel, so that was to be expected.Overall great experience and fantastic staff - highly recommended - especially for the price! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r238212450-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>238212450</t>
+  </si>
+  <si>
+    <t>11/04/2014</t>
+  </si>
+  <si>
+    <t>Well run Motel 6</t>
+  </si>
+  <si>
+    <t>We encountered very friendly staff at this motel. Our room was nicely designed, clean and not very noisy. The beds were comfortable and WiFi worked. The price for the night was reasonable. Nothing to complain, I would visit this motel anytime again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r229238436-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>229238436</t>
+  </si>
+  <si>
+    <t>09/16/2014</t>
+  </si>
+  <si>
+    <t>A place to sleep</t>
+  </si>
+  <si>
+    <t>The room was updated, pool was nice and clean, hot tub relaxing. Area is somewhat sketchy, but close to freeway for easy convenience. The owner was nice, until it was time to check out and did not want anyone hanging around past check-out time.</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r229005635-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>229005635</t>
+  </si>
+  <si>
+    <t>09/15/2014</t>
+  </si>
+  <si>
+    <t>Vacation</t>
+  </si>
+  <si>
+    <t>Rooms were very nice Baki at front desk extremly nice as well as knowlegeable of hotel.  Rooms were clean I just had an issue that when housekeeping serviced your room they trash behind and didnt supply your towels back. I had to go to front desk to get them. Other than that I have no complaints. I would stay here again</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r228006849-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>228006849</t>
+  </si>
+  <si>
+    <t>09/09/2014</t>
+  </si>
+  <si>
+    <t>Inexpensive place to rest our heads</t>
+  </si>
+  <si>
+    <t>We've stayed here twice now for DR appointments. At the end of August &amp; the beginning of September. We had enough clean towels. Sure it can be noisey as the windows are not double paned. It's nice to have coffee &amp; danish in the morning. I did leave a necklace my 2nd visit &amp; they called about it. Hopefully it will still be around when/if we return! Make sure you bring Everything else you need as there are NO extras here.Phone did not work at all &amp; wasn't replaced or repaired by next visit either. Cable guide was outdated by 2nd stay. Pillows were on the small flimsy side. Paper machine outside didn't work properly causing several lost coins. They could have done better about outside upkeep; cig butts, matches &amp; trash.MoreShow less</t>
+  </si>
+  <si>
+    <t>We've stayed here twice now for DR appointments. At the end of August &amp; the beginning of September. We had enough clean towels. Sure it can be noisey as the windows are not double paned. It's nice to have coffee &amp; danish in the morning. I did leave a necklace my 2nd visit &amp; they called about it. Hopefully it will still be around when/if we return! Make sure you bring Everything else you need as there are NO extras here.Phone did not work at all &amp; wasn't replaced or repaired by next visit either. Cable guide was outdated by 2nd stay. Pillows were on the small flimsy side. Paper machine outside didn't work properly causing several lost coins. They could have done better about outside upkeep; cig butts, matches &amp; trash.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r220425030-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>220425030</t>
+  </si>
+  <si>
+    <t>08/08/2014</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>It's a nice and cheap motel.Very well positioned: few miles from Disneyland, Huntington, laguna beach and beaches.Rooms are clean.Parking is open air or covered.Nice and professional staff.The only problem is that there's no hair dryer in the rooms.</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r220358593-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>220358593</t>
+  </si>
+  <si>
+    <t>08/07/2014</t>
+  </si>
+  <si>
+    <t>Shame on everyone that gave place a good rating</t>
+  </si>
+  <si>
+    <t>I checked in and immediately turned around. This place was a crack house for hookers and low lives. Please do not go to this place,I really was scared. The room looked like a jail cell. Do not believe any other review. I would challenge anyone to disagree with assessment.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r211949052-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>211949052</t>
+  </si>
+  <si>
+    <t>06/24/2014</t>
+  </si>
+  <si>
+    <t>Great one-nighter</t>
+  </si>
+  <si>
+    <t>We needed a place to stay for a friends birthday bash in Newport Beach. The price couldn't be beat for the location and quality of this motel. Close enough the the bars... Our Uber ride was only $12 to get to Baja Sharkeez. The modern bright decor and "wood" floors is a nice change from the usual drab, icky, gag-inducing comforters and carpet of most motels. I had no idea that the rooms had a mini fridge with a microwave (plus a snack machine around the way). What a nice surprise! They only have enough parking space for 1 car per room (especially when fully booked) but additional cars can park literally around the corner. No parking restrictions. The staff was very pleasant upon check-in and also kind when they had to tell us to quiet down at 3:00 am (so sorry!). This place is great if you're looking for a decent place to stay in the Newport/Costa Mesa area. Just be aware that this may be a popular place for a crash pad for partiers like me and my friends. When I pulled up I saw another group pre-gaming in their room as well. Like other reviewers said, ask for a "quiet room." ;)MoreShow less</t>
+  </si>
+  <si>
+    <t>We needed a place to stay for a friends birthday bash in Newport Beach. The price couldn't be beat for the location and quality of this motel. Close enough the the bars... Our Uber ride was only $12 to get to Baja Sharkeez. The modern bright decor and "wood" floors is a nice change from the usual drab, icky, gag-inducing comforters and carpet of most motels. I had no idea that the rooms had a mini fridge with a microwave (plus a snack machine around the way). What a nice surprise! They only have enough parking space for 1 car per room (especially when fully booked) but additional cars can park literally around the corner. No parking restrictions. The staff was very pleasant upon check-in and also kind when they had to tell us to quiet down at 3:00 am (so sorry!). This place is great if you're looking for a decent place to stay in the Newport/Costa Mesa area. Just be aware that this may be a popular place for a crash pad for partiers like me and my friends. When I pulled up I saw another group pre-gaming in their room as well. Like other reviewers said, ask for a "quiet room." ;)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r206901880-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>206901880</t>
+  </si>
+  <si>
+    <t>05/24/2014</t>
+  </si>
+  <si>
+    <t>Can't beat it for the price.</t>
+  </si>
+  <si>
+    <t>We stayed for 3 nights and was satisfied with our room for the price we paid. Easy access right next to freeway which sound wise was not a problem for us at all. The hallway could have been cleaned a little better but the room was clean. Daughter was a little concerned about "sketchy" area but once in room was comfortable. The front desk was very nice and when we requested an extra pillow gave us one immediately. Did not use the pool because by time we returned from our activities it was closed. Front desk informed me on check in it closed at 9:30. They do not have any breakfast items but I'm ok about that for price. Plenty of places in area to eat. Could have used a couple more towels but not a deal breaker. For only $60 this was a deal with such a close proximity to the beach areas.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed for 3 nights and was satisfied with our room for the price we paid. Easy access right next to freeway which sound wise was not a problem for us at all. The hallway could have been cleaned a little better but the room was clean. Daughter was a little concerned about "sketchy" area but once in room was comfortable. The front desk was very nice and when we requested an extra pillow gave us one immediately. Did not use the pool because by time we returned from our activities it was closed. Front desk informed me on check in it closed at 9:30. They do not have any breakfast items but I'm ok about that for price. Plenty of places in area to eat. Could have used a couple more towels but not a deal breaker. For only $60 this was a deal with such a close proximity to the beach areas.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r205304222-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>205304222</t>
+  </si>
+  <si>
+    <t>05/13/2014</t>
+  </si>
+  <si>
+    <t>It is what It is</t>
+  </si>
+  <si>
+    <t>A no frills budget friendly one nighter for when you are on the road. Don't expect much of a welcome from the manager or if you are from overseas to be able to pay with a travel card. Rooms are fine, basic but adequate. Not really anymore you can say.</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r204585064-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>204585064</t>
+  </si>
+  <si>
+    <t>05/08/2014</t>
+  </si>
+  <si>
+    <t>Worth the price</t>
+  </si>
+  <si>
+    <t>A friend &amp; I stayed in room 120 from 4/30-5/6/14 at a cost of $421.  Pros: Clean spacious rooms with 2 double beds, good closet size, good size fridge, no noise, no nasty carpets as it has wood floors, felt safe at this location, close to freeway, 24 donut shop next door.. Cons:  there are no dressers to put your clothes in,  the SHARP TV was horrible as all shows looked like bad bootleg movies, towels were limited and were VERY small and rough to the skin, toilet didnt flush so good, Wifi was not very consistent. rooms do not have hair dryers but the front desk will loan you one if you bring it right back (we kept ours all week), parking can be challenging if you get in late, you will have to park further away and walk to room, the printer in the lobby was not working during the entire wee of our visit.
+Overall: it was a good deal for the price paid, especially if you aren't really spending much time in the room.  I was impressed by the decent size of the room and the size of the fridge.  Housekeeping did a good job and cleaning the room during our stay.  The neighborhood looks a little sketchy but had no problems, especially walking over to the 24 donut shop in the middle of the night!   I would return to this Motel 6 in the future....A friend &amp; I stayed in room 120 from 4/30-5/6/14 at a cost of $421.  Pros: Clean spacious rooms with 2 double beds, good closet size, good size fridge, no noise, no nasty carpets as it has wood floors, felt safe at this location, close to freeway, 24 donut shop next door.. Cons:  there are no dressers to put your clothes in,  the SHARP TV was horrible as all shows looked like bad bootleg movies, towels were limited and were VERY small and rough to the skin, toilet didnt flush so good, Wifi was not very consistent. rooms do not have hair dryers but the front desk will loan you one if you bring it right back (we kept ours all week), parking can be challenging if you get in late, you will have to park further away and walk to room, the printer in the lobby was not working during the entire wee of our visit.Overall: it was a good deal for the price paid, especially if you aren't really spending much time in the room.  I was impressed by the decent size of the room and the size of the fridge.  Housekeeping did a good job and cleaning the room during our stay.  The neighborhood looks a little sketchy but had no problems, especially walking over to the 24 donut shop in the middle of the night!   I would return to this Motel 6 in the future. Good deal and worth the price!MoreShow less</t>
+  </si>
+  <si>
+    <t>A friend &amp; I stayed in room 120 from 4/30-5/6/14 at a cost of $421.  Pros: Clean spacious rooms with 2 double beds, good closet size, good size fridge, no noise, no nasty carpets as it has wood floors, felt safe at this location, close to freeway, 24 donut shop next door.. Cons:  there are no dressers to put your clothes in,  the SHARP TV was horrible as all shows looked like bad bootleg movies, towels were limited and were VERY small and rough to the skin, toilet didnt flush so good, Wifi was not very consistent. rooms do not have hair dryers but the front desk will loan you one if you bring it right back (we kept ours all week), parking can be challenging if you get in late, you will have to park further away and walk to room, the printer in the lobby was not working during the entire wee of our visit.
+Overall: it was a good deal for the price paid, especially if you aren't really spending much time in the room.  I was impressed by the decent size of the room and the size of the fridge.  Housekeeping did a good job and cleaning the room during our stay.  The neighborhood looks a little sketchy but had no problems, especially walking over to the 24 donut shop in the middle of the night!   I would return to this Motel 6 in the future....A friend &amp; I stayed in room 120 from 4/30-5/6/14 at a cost of $421.  Pros: Clean spacious rooms with 2 double beds, good closet size, good size fridge, no noise, no nasty carpets as it has wood floors, felt safe at this location, close to freeway, 24 donut shop next door.. Cons:  there are no dressers to put your clothes in,  the SHARP TV was horrible as all shows looked like bad bootleg movies, towels were limited and were VERY small and rough to the skin, toilet didnt flush so good, Wifi was not very consistent. rooms do not have hair dryers but the front desk will loan you one if you bring it right back (we kept ours all week), parking can be challenging if you get in late, you will have to park further away and walk to room, the printer in the lobby was not working during the entire wee of our visit.Overall: it was a good deal for the price paid, especially if you aren't really spending much time in the room.  I was impressed by the decent size of the room and the size of the fridge.  Housekeeping did a good job and cleaning the room during our stay.  The neighborhood looks a little sketchy but had no problems, especially walking over to the 24 donut shop in the middle of the night!   I would return to this Motel 6 in the future. Good deal and worth the price!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r201578873-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>201578873</t>
+  </si>
+  <si>
+    <t>04/17/2014</t>
+  </si>
+  <si>
+    <t>Hotel was recently remodeled and exceeded expectations for motel 6. Staff was accommodating and friendly. Only complaint would be noisey because the walls between the rooms are poorly sound insulated.We will come back to this motel 6 it is a good value and pet friendly</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r200421834-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>200421834</t>
+  </si>
+  <si>
+    <t>04/08/2014</t>
+  </si>
+  <si>
+    <t>Upgraded Rooms.....Downgraded Staff</t>
+  </si>
+  <si>
+    <t>The rooms are nice but the staff is absolutely terrible.  They treat you like you are an inmate and will act like they are owed something for letting you stay there.  Too bad the rooms got upgraded but the staff was not.  I will never ever stay there again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r196705167-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>196705167</t>
+  </si>
+  <si>
+    <t>03/08/2014</t>
+  </si>
+  <si>
+    <t>Last resort, noisy.</t>
+  </si>
+  <si>
+    <t>Check in was easy but clark was not very friendly. It was late so just hitting the sack for the night was important. The room was like an echo chamber. Vinyl floors were peeling up, internet did NOT work, very noisy neighbours on all sides. The bed was comfy. No clock radio, poor lighting, Bed light did not work, bath nice but spartan. Noisy all night. Woken up several times, even with ear plugs. Won't do that again.</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r193124389-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>193124389</t>
+  </si>
+  <si>
+    <t>02/04/2014</t>
+  </si>
+  <si>
+    <t>Good Enough</t>
+  </si>
+  <si>
+    <t>I stayed here for one night before the Surf City Marathon.Room was clean. Very basic , but clean.  There was free WIFI, but slow and would disconnect many times. The room was good for the price especially since I just needed close place to crash before the race.If you're looking for a cheap place to stay this may be the place for you.</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r193076474-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>193076474</t>
+  </si>
+  <si>
+    <t>Room 403 is tiny</t>
+  </si>
+  <si>
+    <t>Room 403 is tiny but surprisingly quiet, considering it is directly above the office and right out on the main street.  I could hear people knocking on the door of the adjacent rooms early in the morning, but I was awake already.  Didn't use the WiFi.  I would say this property is about in the 40th percentile of Motel 6's.  Accor runs a decent hotel chain.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r190999141-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>190999141</t>
+  </si>
+  <si>
+    <t>01/15/2014</t>
+  </si>
+  <si>
+    <t>Nothing Special</t>
+  </si>
+  <si>
+    <t>It's what you would expect from a Motel 6...not too much. A very basic motel. Bring your own shampoo and hair dryer as the only thing they provide is bar soap and towels. There wasn't even any tissues. According to the other reviews, the back rooms are quieter. I wouldn't know. I had a room up front, and you can definitely hear the traffic going by. The walls are thin and the area looked rather suspect, but nobody broke into my car or anything. The wi-fi was annoying because you had to reconnect to it about every 5 minutes. The bed was extremely uncomfortable. Good place to stay if you're just looking for some place cheap.MoreShow less</t>
+  </si>
+  <si>
+    <t>It's what you would expect from a Motel 6...not too much. A very basic motel. Bring your own shampoo and hair dryer as the only thing they provide is bar soap and towels. There wasn't even any tissues. According to the other reviews, the back rooms are quieter. I wouldn't know. I had a room up front, and you can definitely hear the traffic going by. The walls are thin and the area looked rather suspect, but nobody broke into my car or anything. The wi-fi was annoying because you had to reconnect to it about every 5 minutes. The bed was extremely uncomfortable. Good place to stay if you're just looking for some place cheap.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r182606260-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>182606260</t>
+  </si>
+  <si>
+    <t>10/27/2013</t>
+  </si>
+  <si>
+    <t>Good hotel</t>
+  </si>
+  <si>
+    <t>Very well ocated, this remodelled Hotel 6 is very good. The ambiance is very modern and by changing the carpets to solid floors, they have given a good step towards cleaner, healthier hotel rooms. The beds are very confortable, wi-fi works great, service was amiable. Very good hotel indeed.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>Motel6, Public Relations Manager at Motel 6 Newport Beach, responded to this reviewResponded October 30, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 30, 2013</t>
+  </si>
+  <si>
+    <t>Very well ocated, this remodelled Hotel 6 is very good. The ambiance is very modern and by changing the carpets to solid floors, they have given a good step towards cleaner, healthier hotel rooms. The beds are very confortable, wi-fi works great, service was amiable. Very good hotel indeed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r178984130-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>178984130</t>
+  </si>
+  <si>
+    <t>09/28/2013</t>
+  </si>
+  <si>
+    <t>Extended Stay Visit and it's exactly what I expected...</t>
+  </si>
+  <si>
+    <t>And that's because I took the time to really read everyone's reviews and it is just that - a nice, basic hotel.  Down in the area for an extended 8 day trip - trying to save some money for this unexpected trip.  I travel for work and am in hotels 3-5 nights a month so I knew this was going to be an experience because of the price.  I was staying alone for this period of time too so safety was a concern.  Please read if you want a real objective truth.
+Check In - Mack was so friendly and helped me get an even cheaper rate than I booked on-line. He let me go look at the room before I signed on the dotted line to ensure I felt safe. 
+Room TIP: If you want the quietest rooms, ask for the rooms above the underground parking lot that's inside the buildings.  The doors to these few rooms don't expose you to the outside parking lot that you see in most the pictures.
+Room: No nonsense bare bones kind of room.  The hard wood floors were nice, it was clean, there were towels for two, mini fridge with little freezer, microwave, two full size beds that were actually comfortable, a table, free wi-fi that wasn't the fastest but it worked.  The TV was a nice flat screen with two HBO channels that helped me kill time.
+What you need to...And that's because I took the time to really read everyone's reviews and it is just that - a nice, basic hotel.  Down in the area for an extended 8 day trip - trying to save some money for this unexpected trip.  I travel for work and am in hotels 3-5 nights a month so I knew this was going to be an experience because of the price.  I was staying alone for this period of time too so safety was a concern.  Please read if you want a real objective truth.Check In - Mack was so friendly and helped me get an even cheaper rate than I booked on-line. He let me go look at the room before I signed on the dotted line to ensure I felt safe. Room TIP: If you want the quietest rooms, ask for the rooms above the underground parking lot that's inside the buildings.  The doors to these few rooms don't expose you to the outside parking lot that you see in most the pictures.Room: No nonsense bare bones kind of room.  The hard wood floors were nice, it was clean, there were towels for two, mini fridge with little freezer, microwave, two full size beds that were actually comfortable, a table, free wi-fi that wasn't the fastest but it worked.  The TV was a nice flat screen with two HBO channels that helped me kill time.What you need to bring: Additional towels, soap, hair dryer.Room downside: The mini fridge was a tad loud and the air conditioning wall unit I had to rig sometimes to not shake.  Again - not bad at all - just a heads up.Another thought: I brought my own pillows and towels for this stay.  Unfortunately, I wasn't smart enough to bring colored towels or pillowcase so my pillow case and one towel was swapped out because it was off white colored and matched what was already in the room.  It wasn't their fault how could they know - just a tip to think about.Food: There's vending machines and ice and laundry.  A cute pizza place literally next door with a nice bar and good food.  Location:This location is 10 minutes to get to the pier and park to enjoy the beach all day.  Easy on and off the freeway, it doesn't look like it's in the best neighborhood from the front. However, I had plenty of down time to drive around and quite frankly the neighborhood is real cute and nice all behind the row of hotels where this hotel is located.Would I go back? Absolutely yes.  The price is unbeatable for the area.  It's a clean hotel, very nice helpful customer service, I had no issues being solo for 8 days.  I'm writing the review to share my really positive experience.  I even got a thank you back from Motel 6 from Mack when I filled out a survey after my stay - I liked that touch.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>And that's because I took the time to really read everyone's reviews and it is just that - a nice, basic hotel.  Down in the area for an extended 8 day trip - trying to save some money for this unexpected trip.  I travel for work and am in hotels 3-5 nights a month so I knew this was going to be an experience because of the price.  I was staying alone for this period of time too so safety was a concern.  Please read if you want a real objective truth.
+Check In - Mack was so friendly and helped me get an even cheaper rate than I booked on-line. He let me go look at the room before I signed on the dotted line to ensure I felt safe. 
+Room TIP: If you want the quietest rooms, ask for the rooms above the underground parking lot that's inside the buildings.  The doors to these few rooms don't expose you to the outside parking lot that you see in most the pictures.
+Room: No nonsense bare bones kind of room.  The hard wood floors were nice, it was clean, there were towels for two, mini fridge with little freezer, microwave, two full size beds that were actually comfortable, a table, free wi-fi that wasn't the fastest but it worked.  The TV was a nice flat screen with two HBO channels that helped me kill time.
+What you need to...And that's because I took the time to really read everyone's reviews and it is just that - a nice, basic hotel.  Down in the area for an extended 8 day trip - trying to save some money for this unexpected trip.  I travel for work and am in hotels 3-5 nights a month so I knew this was going to be an experience because of the price.  I was staying alone for this period of time too so safety was a concern.  Please read if you want a real objective truth.Check In - Mack was so friendly and helped me get an even cheaper rate than I booked on-line. He let me go look at the room before I signed on the dotted line to ensure I felt safe. Room TIP: If you want the quietest rooms, ask for the rooms above the underground parking lot that's inside the buildings.  The doors to these few rooms don't expose you to the outside parking lot that you see in most the pictures.Room: No nonsense bare bones kind of room.  The hard wood floors were nice, it was clean, there were towels for two, mini fridge with little freezer, microwave, two full size beds that were actually comfortable, a table, free wi-fi that wasn't the fastest but it worked.  The TV was a nice flat screen with two HBO channels that helped me kill time.What you need to bring: Additional towels, soap, hair dryer.Room downside: The mini fridge was a tad loud and the air conditioning wall unit I had to rig sometimes to not shake.  Again - not bad at all - just a heads up.Another thought: I brought my own pillows and towels for this stay.  Unfortunately, I wasn't smart enough to bring colored towels or pillowcase so my pillow case and one towel was swapped out because it was off white colored and matched what was already in the room.  It wasn't their fault how could they know - just a tip to think about.Food: There's vending machines and ice and laundry.  A cute pizza place literally next door with a nice bar and good food.  Location:This location is 10 minutes to get to the pier and park to enjoy the beach all day.  Easy on and off the freeway, it doesn't look like it's in the best neighborhood from the front. However, I had plenty of down time to drive around and quite frankly the neighborhood is real cute and nice all behind the row of hotels where this hotel is located.Would I go back? Absolutely yes.  The price is unbeatable for the area.  It's a clean hotel, very nice helpful customer service, I had no issues being solo for 8 days.  I'm writing the review to share my really positive experience.  I even got a thank you back from Motel 6 from Mack when I filled out a survey after my stay - I liked that touch.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r178958867-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>178958867</t>
+  </si>
+  <si>
+    <t>Surprisingly modern at a great price</t>
+  </si>
+  <si>
+    <t>Surprisingly modern, clean and friendly.  Great location not too far from the beach. Free parking and free wi-fi.  I wasn't expecting much, and was very pleasantly surprised with this motel.  I would definitely recommend it for a short stay (1 or 2 nights) when you're not looking for an expensive luxurious location but rather a modern, clean stop for an overnight.  If you're spending all day at the beach, or shopping at fashion island, you won't be in the room much anyway, and when you are, you will be comfortable enough for a great low price.</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r176352859-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>176352859</t>
+  </si>
+  <si>
+    <t>09/08/2013</t>
+  </si>
+  <si>
+    <t>Great Motel!</t>
+  </si>
+  <si>
+    <t>Stopped here when travelling with a friend past newport beach/huntington beach area. The motel was very good! Rooms were clean and very modern, beds actually fairly comfortable (for motels!). Staff were very helpful, we used the laundry machines whilst there too and also worked and cleaned fine. There is lots of space and pool was quite nice too, although slightly dirty in places this didn't really bother us. Overall this place is great value for a motel! Would definitely recommend.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r174541120-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>174541120</t>
+  </si>
+  <si>
+    <t>08/28/2013</t>
+  </si>
+  <si>
+    <t>A good place for a clean room and good location.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We were in town for a funeral and it was near the church and the family home, with a little work on my part, like taking a hot pot so we could make coffee, plus our own cups and soft drinks. I must say the bed was very comfortable, and the AC was quiet , sleeping was great! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r170917153-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>170917153</t>
+  </si>
+  <si>
+    <t>08/05/2013</t>
+  </si>
+  <si>
+    <t>Just what we were looking for.</t>
+  </si>
+  <si>
+    <t>We wanted a clean, comfortable, affordable place to stay in Costa Mesa for a couple of nights and this place fit the bill exactly!Rooms are minimalistic but big, beds are comfortable and the bathroom spacious and practical. There is only a simple coat rack to hang some clothes; I would have liked a chest with drawers to put some things away. Now, I kept most of my things in the suitcase on the floor, which was just OK.We asked for a room at the 3rd floor in the back, so we had no noise from the highway. But indeed the walls are paper thin. Our neighbor came to ask if we could turn the TV down a bit, because they had to get up early in the morning. So, be mindful of your neighbors with noise!Parking was convenient; because of the subterranean garage, our car was always cool. There is a laundry room, but the two machines were most of the time occupied and there is no machine for change. The receptionist is not very eager to give you change, so come prepared with quarters if you need to do some laundry.Location was good, with a supermarket and some small restaurants within walking distance.And last but not least: at reception there is a coffee machine, where you can get your daily dose!All in all, this place is good value for money!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>We wanted a clean, comfortable, affordable place to stay in Costa Mesa for a couple of nights and this place fit the bill exactly!Rooms are minimalistic but big, beds are comfortable and the bathroom spacious and practical. There is only a simple coat rack to hang some clothes; I would have liked a chest with drawers to put some things away. Now, I kept most of my things in the suitcase on the floor, which was just OK.We asked for a room at the 3rd floor in the back, so we had no noise from the highway. But indeed the walls are paper thin. Our neighbor came to ask if we could turn the TV down a bit, because they had to get up early in the morning. So, be mindful of your neighbors with noise!Parking was convenient; because of the subterranean garage, our car was always cool. There is a laundry room, but the two machines were most of the time occupied and there is no machine for change. The receptionist is not very eager to give you change, so come prepared with quarters if you need to do some laundry.Location was good, with a supermarket and some small restaurants within walking distance.And last but not least: at reception there is a coffee machine, where you can get your daily dose!All in all, this place is good value for money!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r163839943-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>163839943</t>
+  </si>
+  <si>
+    <t>06/12/2013</t>
+  </si>
+  <si>
+    <t>very clean, but a couple problems</t>
+  </si>
+  <si>
+    <t>the room wasn't a typical motel 6, it was very modern looking, clean good service. i was very surprised on how clean  the rooms were. However we ran into a couple problems. 1. We encountered many extremely slow internet connections during our 3 day stay. 2. Our room key did not work a total of two times and that means we had to walk all the way to the front office (which was quite a ways from our room) 3. the walls are paper thin and can hear people outside. If motel 6 fixes their internet problems and making sure room key works i will come back but i won't be coming back for a while.MoreShow less</t>
+  </si>
+  <si>
+    <t>the room wasn't a typical motel 6, it was very modern looking, clean good service. i was very surprised on how clean  the rooms were. However we ran into a couple problems. 1. We encountered many extremely slow internet connections during our 3 day stay. 2. Our room key did not work a total of two times and that means we had to walk all the way to the front office (which was quite a ways from our room) 3. the walls are paper thin and can hear people outside. If motel 6 fixes their internet problems and making sure room key works i will come back but i won't be coming back for a while.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r163826973-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>163826973</t>
+  </si>
+  <si>
+    <t>Pleasant, comfortable experience!</t>
+  </si>
+  <si>
+    <t>First of all, remember this is a Motel 6, so do not judge it or expect it to be something it isn't. No amenities - but good price :)  This particular Motel 6 is very clean, very comfortable, newly remodeled.  The person (I believe may be the manager) who helped me a couple of times pre-trip and was also there to check us in the afternoon of arrival, was extremely helpful and pleasant on the phone and was very friendly when we checked in.  Immediately offered anything we might need in the way of extra towels etc. We did not find any needs and our requests were all met pre-arrival.  It is also nice that this Motel 6 has fridge and microwave. The TV screen was good size and the beds were very comfortable. The traveler pics on this site look very true to life. The floor is not carpeted, but a material that looks a bit like hard wood floors. I like this very much because it is easier to expect a very clean floor surface upon arrival, and I traveled with my cat, and it is easy for me to sweep up any tracked litter before I left, so the room is left in good condition.  Our trip was a overnight mini-vacation and the property was very convenient to Newport Pier/Beach were we wanted to go, as well as to dining. It is also a very easy exit...First of all, remember this is a Motel 6, so do not judge it or expect it to be something it isn't. No amenities - but good price :)  This particular Motel 6 is very clean, very comfortable, newly remodeled.  The person (I believe may be the manager) who helped me a couple of times pre-trip and was also there to check us in the afternoon of arrival, was extremely helpful and pleasant on the phone and was very friendly when we checked in.  Immediately offered anything we might need in the way of extra towels etc. We did not find any needs and our requests were all met pre-arrival.  It is also nice that this Motel 6 has fridge and microwave. The TV screen was good size and the beds were very comfortable. The traveler pics on this site look very true to life. The floor is not carpeted, but a material that looks a bit like hard wood floors. I like this very much because it is easier to expect a very clean floor surface upon arrival, and I traveled with my cat, and it is easy for me to sweep up any tracked litter before I left, so the room is left in good condition.  Our trip was a overnight mini-vacation and the property was very convenient to Newport Pier/Beach were we wanted to go, as well as to dining. It is also a very easy exit off of Hwy 55. We decided to check out South Coast Plaza and the property sat equal distance between the Mall and the Beach so this was also a pleasant surprise.  All in all, I would recommend this Motel 6 to others desiring a similar visit to the Costa Mesa/Newport area. On additional pleasant surprise was the parking on site was very good and the property looked well maintained.MoreShow less</t>
+  </si>
+  <si>
+    <t>First of all, remember this is a Motel 6, so do not judge it or expect it to be something it isn't. No amenities - but good price :)  This particular Motel 6 is very clean, very comfortable, newly remodeled.  The person (I believe may be the manager) who helped me a couple of times pre-trip and was also there to check us in the afternoon of arrival, was extremely helpful and pleasant on the phone and was very friendly when we checked in.  Immediately offered anything we might need in the way of extra towels etc. We did not find any needs and our requests were all met pre-arrival.  It is also nice that this Motel 6 has fridge and microwave. The TV screen was good size and the beds were very comfortable. The traveler pics on this site look very true to life. The floor is not carpeted, but a material that looks a bit like hard wood floors. I like this very much because it is easier to expect a very clean floor surface upon arrival, and I traveled with my cat, and it is easy for me to sweep up any tracked litter before I left, so the room is left in good condition.  Our trip was a overnight mini-vacation and the property was very convenient to Newport Pier/Beach were we wanted to go, as well as to dining. It is also a very easy exit...First of all, remember this is a Motel 6, so do not judge it or expect it to be something it isn't. No amenities - but good price :)  This particular Motel 6 is very clean, very comfortable, newly remodeled.  The person (I believe may be the manager) who helped me a couple of times pre-trip and was also there to check us in the afternoon of arrival, was extremely helpful and pleasant on the phone and was very friendly when we checked in.  Immediately offered anything we might need in the way of extra towels etc. We did not find any needs and our requests were all met pre-arrival.  It is also nice that this Motel 6 has fridge and microwave. The TV screen was good size and the beds were very comfortable. The traveler pics on this site look very true to life. The floor is not carpeted, but a material that looks a bit like hard wood floors. I like this very much because it is easier to expect a very clean floor surface upon arrival, and I traveled with my cat, and it is easy for me to sweep up any tracked litter before I left, so the room is left in good condition.  Our trip was a overnight mini-vacation and the property was very convenient to Newport Pier/Beach were we wanted to go, as well as to dining. It is also a very easy exit off of Hwy 55. We decided to check out South Coast Plaza and the property sat equal distance between the Mall and the Beach so this was also a pleasant surprise.  All in all, I would recommend this Motel 6 to others desiring a similar visit to the Costa Mesa/Newport area. On additional pleasant surprise was the parking on site was very good and the property looked well maintained.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r161927363-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>161927363</t>
+  </si>
+  <si>
+    <t>05/26/2013</t>
+  </si>
+  <si>
+    <t>Above standard motel 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newly refurbed motel, about $10 dollar taxi ride into Newport beach area. Had to ask for more pillows. The fixtures and fitting are above standard for motel 6, overall a good base. For a great dinner try the blue water grill in Newport. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r158997163-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>158997163</t>
+  </si>
+  <si>
+    <t>04/27/2013</t>
+  </si>
+  <si>
+    <t>better than average</t>
+  </si>
+  <si>
+    <t>The property is located in a nice area. The rooms have been updated and seem more modern. I will say that its obvious that the work was done with limited funds by a cheap contractor, but at least they are trying. The price was the main reason I chose to stay there and I had low expectations. They exceeded those expectations and I will likely stay there again. The walls are paper thin, and as a result in the morning you can hear everything happening next door and outside. Luckily I had to wake up early.</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r158993612-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>158993612</t>
+  </si>
+  <si>
+    <t>Great nights sleep</t>
+  </si>
+  <si>
+    <t>Great price! This was a super short hotel stay for me - arrived in the middle of the night and left around 11am. The bed was super comfortable. The room was neat and tidy. The shower was average - was one of those tiny shower heads which shoots into your body not above your head. Free WIFI and space to park.  So close to the airport which was the reason for our stay. I'd stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r158987414-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>158987414</t>
+  </si>
+  <si>
+    <t>Friendly service and clean room</t>
+  </si>
+  <si>
+    <t>Didn't really know to expect when I booked this motel when I arrived I pleasantly surprised. Checking in went smoothly and we were upgraded to one of their newer 'European' style rooms which was clean and well maintained.The front desk manager Moe was very friendly and called in to check on us after we settled in to make sure that the room was up to far and that we didn't need anything else.I had booked 4 days, but I had to cut my trip short and leave early. Moe was extremely helpful and told me that he would refund me the unused days and within a couple of mins everything was taken care of.Great service from my personal experience, clean rooms, and close to 405 so you have easy access to the freeways.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>Didn't really know to expect when I booked this motel when I arrived I pleasantly surprised. Checking in went smoothly and we were upgraded to one of their newer 'European' style rooms which was clean and well maintained.The front desk manager Moe was very friendly and called in to check on us after we settled in to make sure that the room was up to far and that we didn't need anything else.I had booked 4 days, but I had to cut my trip short and leave early. Moe was extremely helpful and told me that he would refund me the unused days and within a couple of mins everything was taken care of.Great service from my personal experience, clean rooms, and close to 405 so you have easy access to the freeways.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r146435813-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>146435813</t>
+  </si>
+  <si>
+    <t>11/29/2012</t>
+  </si>
+  <si>
+    <t>Clean and budget-friendly.</t>
+  </si>
+  <si>
+    <t>Clean, big rooms. Budget-friendly. Helpful staff at the reception. Bad location, next to the freeway (noisy) and far away from everything, okay for 1- 2 nights. Extremely slow wifi, annoying when you're on vacation and want to check sights and restaurants.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r144687299-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>144687299</t>
+  </si>
+  <si>
+    <t>11/05/2012</t>
+  </si>
+  <si>
+    <t>Surprisingly Good</t>
+  </si>
+  <si>
+    <t>We stayed two nights across a weekend, in two separate rooms, and we were very pleasantly surprised!  The rooms were better than we expected for the cost, and having WiFi, pool, and access to a laundry room thrown in was also nice.  We got there right at check-in time, so our room wasn't ready, but a cleaning lady was quick to clean it up very well.  Staff was helpful and cheerful, and for a 'roadside motel' kind of place, it was very nice.  Definitely worth the low price!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r143252266-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>143252266</t>
+  </si>
+  <si>
+    <t>10/19/2012</t>
+  </si>
+  <si>
+    <t>Should have picked a better motel</t>
+  </si>
+  <si>
+    <t>My wife and I stayed there for two nights and were disappointed.  Our reservations were waiting and check-in was no problem.  However the first thing that greeted us in our room was no carpet on the floor.  The place was reasonably clean, but bare bones.  The big problem was a HORRIBLE smell from the bathroom.  It permeated the room and we had to close the bathroom door to escape it.  Really BAD.  It looked clean, but must have been plumbing like a bad seal between the toilet and the floor.  We complained and should have changed rooms, but it was late and we didn't.  We also had trouble with our room keys not working the second night.  I have to say the linens were clean and the beds were comfortable, but should have gone to the Ali Baba motel next door.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>My wife and I stayed there for two nights and were disappointed.  Our reservations were waiting and check-in was no problem.  However the first thing that greeted us in our room was no carpet on the floor.  The place was reasonably clean, but bare bones.  The big problem was a HORRIBLE smell from the bathroom.  It permeated the room and we had to close the bathroom door to escape it.  Really BAD.  It looked clean, but must have been plumbing like a bad seal between the toilet and the floor.  We complained and should have changed rooms, but it was late and we didn't.  We also had trouble with our room keys not working the second night.  I have to say the linens were clean and the beds were comfortable, but should have gone to the Ali Baba motel next door.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r142131939-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>142131939</t>
+  </si>
+  <si>
+    <t>10/06/2012</t>
+  </si>
+  <si>
+    <t>Great value for the money!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is the best motel 6 that I have seen! Very clean. It is in a quiet neighborhood. It is near the airport. It is very updated. Nice tv and bathroom. Linens were very nice. Front desk guy was patient when I had a problem with the key. The bad:Internet didn't work. Nothing is very close.  If the Internet worked I would highly recommend this place. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r142103458-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>142103458</t>
+  </si>
+  <si>
+    <t>10/05/2012</t>
+  </si>
+  <si>
+    <t>Wow! Motel 6 right up the street from where the Duke used to hang.</t>
+  </si>
+  <si>
+    <t>We drove up from Carlsbad for a Friday night family get together and rather than driving back that night we decided to stay close to Balboa/Newport/Lido Isle to take a walk down memory lane when we were kids vacationing on Balboa.  This Motel 6 is one of the refurbed in the way of European efficiency units at Paris CDG.  They have done a good job and the rooms are above average in size.  We found a French bistro just down the road in Newport and had brunch on the water overlooking Lido Isle back of Villa Nova on Sunday morning.  Pool, Jacuzzi, flat panel tv and wifi..walking distance to the Orange County Fairgrounds too.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>We drove up from Carlsbad for a Friday night family get together and rather than driving back that night we decided to stay close to Balboa/Newport/Lido Isle to take a walk down memory lane when we were kids vacationing on Balboa.  This Motel 6 is one of the refurbed in the way of European efficiency units at Paris CDG.  They have done a good job and the rooms are above average in size.  We found a French bistro just down the road in Newport and had brunch on the water overlooking Lido Isle back of Villa Nova on Sunday morning.  Pool, Jacuzzi, flat panel tv and wifi..walking distance to the Orange County Fairgrounds too.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r142074130-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>142074130</t>
+  </si>
+  <si>
+    <t>Not your usual Motel 6!</t>
+  </si>
+  <si>
+    <t>I found a great deal here via Orbitz. When I arrived, the very polished manager, MAC, offered me a free room upgrade as well. YAY! The newly remodeled hotel is very Euro-deco--loved the lines and colors-- and my room 341 was spacious...I could even do yoga. Everything was spotless.I had both a fridge and microwave.Then there were laundry facilities, underground parking (shade) and a pool with hot tub.Generally quiet at night, too. Strategic location for my class in Corona del Mar.Thanks, Mr. Mgr. MAC, for being so gracious. I would stay here again.</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r140891511-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>140891511</t>
+  </si>
+  <si>
+    <t>09/21/2012</t>
+  </si>
+  <si>
+    <t>Smelled like pee</t>
+  </si>
+  <si>
+    <t>Nicely decorated but it had a septic smell and the floor we coming up I'm sure from pet pee...it smelled like urine!! Was close to beach for price, and maybe it was just that certain room I got but it was horribly stinky!! Wifi is slow and hdmi didn't work, no shampoo or conditioner but did have mini fridge and microwave! Would not stay here again, I will pay $30 more for better hotel...but hey, this is the Motel 6 not the 4 seasons!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r139897267-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>139897267</t>
+  </si>
+  <si>
+    <t>09/10/2012</t>
+  </si>
+  <si>
+    <t>Watch your stuff</t>
+  </si>
+  <si>
+    <t>Though I thought the rooms were nice and clean, the pool was a mess and it seems like no one picks up after their dogs because the grounds had dog poo all over.No shampoo or conditioner as they said in earlier posts.  The real problem that I have is that when I got home, I realized I had left a bag of things that included my prescription glasses, a nice bracelet, and an unopened game for my DS.  When I called the hotel, the cleaning staff had not turned it in which is the same thing as stealing in my mind.  I'd watch your stuff closely because the next progression may be stealing out of your room while you're there.MoreShow less</t>
+  </si>
+  <si>
+    <t>Though I thought the rooms were nice and clean, the pool was a mess and it seems like no one picks up after their dogs because the grounds had dog poo all over.No shampoo or conditioner as they said in earlier posts.  The real problem that I have is that when I got home, I realized I had left a bag of things that included my prescription glasses, a nice bracelet, and an unopened game for my DS.  When I called the hotel, the cleaning staff had not turned it in which is the same thing as stealing in my mind.  I'd watch your stuff closely because the next progression may be stealing out of your room while you're there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r139306511-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>139306511</t>
+  </si>
+  <si>
+    <t>09/03/2012</t>
+  </si>
+  <si>
+    <t>Stark, austere, basic</t>
+  </si>
+  <si>
+    <t>We stayed here one night and left labor Day. No amenities - shampoo, coffemaker, dresser?. Wife felt she was in a prison cell. I though it was ok, bed was comfortable, flat screen tv. Would rather spend $20.00 more and get a dresser, coffee maker, and maybe a small breakfast.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r136324132-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>136324132</t>
+  </si>
+  <si>
+    <t>08/05/2012</t>
+  </si>
+  <si>
+    <t>For the price good place to stay</t>
+  </si>
+  <si>
+    <t>This was a good place to stay for the price, very clean and looks newly renovated. For a Motel 6 I was very surprised. It also has easy acess to Newport and Huntington Beach. I woud've rate it higher but the customer service was bad. Had some issues regarding the room and couldn't get anyone on the phone and when I did was blown off by the by front desk staff. The WYFY was terrible too.  Couldn't get online at all.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r136014715-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>136014715</t>
+  </si>
+  <si>
+    <t>08/01/2012</t>
+  </si>
+  <si>
+    <t>Modern For a motel</t>
+  </si>
+  <si>
+    <t>surprisingly clean and modern for a motel, did have a odd smell in room wasn't sure if it was cleaning spray or mould  if you do not have a car and want to travel to the beach and LA area i wouldn't suggest staying here as we discovered that LA was a 4 hour bus trip or a $110 shuttle ride! But otherwise its probably one of the nicest motels you could ever come across!</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r135851881-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>135851881</t>
+  </si>
+  <si>
+    <t>07/30/2012</t>
+  </si>
+  <si>
+    <t>Helpful and friendly staff, good location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wonderful stay, all staff were extremely helpful and friendly. Really good value compared to local hotels, and good location, only 10 mins from all local beaches and shops. Rooms were modern and clean with good facilities, microwave and fridge, air conditioning and free wifi, which has been invaluable. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r134587995-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>134587995</t>
+  </si>
+  <si>
+    <t>07/16/2012</t>
+  </si>
+  <si>
+    <t>Pleasant and better than expected</t>
+  </si>
+  <si>
+    <t>We stayed during the week so we didnt experience the loud noise that some revewers did. They have free wifi and cable with more than 5 channels, unlike big chain hotels. The room was very clean, the staff was very friendly and the location good. I like the modern look these rooms have.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r134487979-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>134487979</t>
+  </si>
+  <si>
+    <t>07/15/2012</t>
+  </si>
+  <si>
+    <t>Great!</t>
+  </si>
+  <si>
+    <t>Staff was very friendly! The rooms look awesome!!  The decor and the hardwood floors look great. Plus it was CLEAN!! I have stayed at a Motel 6 before and by far this is the best one. I usually do not like to stay at Motel 6 just because the ones I have stayed in before were not clean and comfortable. But I will definitely stay here again on my next visit.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r133142081-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>133142081</t>
+  </si>
+  <si>
+    <t>06/30/2012</t>
+  </si>
+  <si>
+    <t>Not great location but good value and very good rooms</t>
+  </si>
+  <si>
+    <t>Pleasently suprised with rooms. Buses were frequent enough if u planned ahead. Staff werent overly helpful but great price</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r129962634-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>129962634</t>
+  </si>
+  <si>
+    <t>05/14/2012</t>
+  </si>
+  <si>
+    <t>I know you are going to say why write about a motel 6</t>
+  </si>
+  <si>
+    <t>Ihave stayed in over 30 Motel ^ around America over the last 5 years and I would normally write a review about them but this one feel I need to.I travel to California about 4 times a year and stay in Newport Motel 6 all the time It is newly renovated to their new format with a modern interior flat screen TV, new bathrooms,very comfortable beds and a very good pool and spa complex.If you are in the area and want and very well priced place to stay central to all the surrounding shopping and beaches this is well worth the time and effort</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r128586384-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>128586384</t>
+  </si>
+  <si>
+    <t>04/25/2012</t>
+  </si>
+  <si>
+    <t>A little better than your "run of mill" Motel 6</t>
+  </si>
+  <si>
+    <t>Rooms seemed somehow cleaner because of the laminate floors in my room, and the decor was rather Euro-hotel, which is fine, since the room was extremely small, although with an effective use of the space. So, leave your bar bells or yoga mat in the trunk.  My own 6'5" frame realized that there is not a lot of room to stretch out.The sole minor complaint that I have is the crazy maze to my car from the 2 story room, which required me to walk around the lobby through a small garden and then up 2 flights of stairs, although I could actually see my car from my room's window directly below.  Great location; there's a smaller Stater Brothers grocery store nearby, and Beach Blvd with all of the shopping and restaurants is a few streets over.  Irvine biz center very close as is the John Wayne airport.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>Rooms seemed somehow cleaner because of the laminate floors in my room, and the decor was rather Euro-hotel, which is fine, since the room was extremely small, although with an effective use of the space. So, leave your bar bells or yoga mat in the trunk.  My own 6'5" frame realized that there is not a lot of room to stretch out.The sole minor complaint that I have is the crazy maze to my car from the 2 story room, which required me to walk around the lobby through a small garden and then up 2 flights of stairs, although I could actually see my car from my room's window directly below.  Great location; there's a smaller Stater Brothers grocery store nearby, and Beach Blvd with all of the shopping and restaurants is a few streets over.  Irvine biz center very close as is the John Wayne airport.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r128361956-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>128361956</t>
+  </si>
+  <si>
+    <t>04/22/2012</t>
+  </si>
+  <si>
+    <t>Surprised</t>
+  </si>
+  <si>
+    <t>We almost drove past this when we saw that it was located next to a cheesy hotel (Alibaba) that conjures up images of cheap, party motel. But the rooms where, as stated here, un-Motel 6 like: hip, with stylish fixtures, laminate floors and nice lighting. The staff were friendly enough, and we were happy to find a place where our dogs could stay without an exorbitant pet fee. The location is decent and convenient enough: I walked a few blocks to pick up some Thai food one night, and there's a sub/pizza place right next door. Bring your own shampoo and breakfast (I had to chuckle at one of the only negative reviews that harped on this!).MoreShow less</t>
+  </si>
+  <si>
+    <t>We almost drove past this when we saw that it was located next to a cheesy hotel (Alibaba) that conjures up images of cheap, party motel. But the rooms where, as stated here, un-Motel 6 like: hip, with stylish fixtures, laminate floors and nice lighting. The staff were friendly enough, and we were happy to find a place where our dogs could stay without an exorbitant pet fee. The location is decent and convenient enough: I walked a few blocks to pick up some Thai food one night, and there's a sub/pizza place right next door. Bring your own shampoo and breakfast (I had to chuckle at one of the only negative reviews that harped on this!).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r125009166-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>125009166</t>
+  </si>
+  <si>
+    <t>02/21/2012</t>
+  </si>
+  <si>
+    <t>Great hotel, loved our stay here</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only stayed here for 2 nights. We had our own hire car so the location was fine for us. It's not really close to anything walking distance but if you have a car it's great. The receptionist was so nice to us and really helpful, he gave us a 10% discount for being foreigners! The room was really spacious, massive comfy bed, TV with cable, little fridge, freezer and microwave which was handy. Laundry to use at the hotel aswell oh and a nice pool area (not that we used it). There were smoking and non smoking rooms. No negatives about this hotel. Great for the price. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r124908089-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>124908089</t>
+  </si>
+  <si>
+    <t>02/20/2012</t>
+  </si>
+  <si>
+    <t>Excellent Motel6</t>
+  </si>
+  <si>
+    <t>Motel6 Newport beach Costa Mesa features all new rooms in the design of a much more expensive high class hotel with double the charge$. You will notice the kindness of the staff in the lobby right from the start of your stay. Very helpfull assistance, if you have to get something done which you cannot accomplish alone. All the most beautiful beaches are within reach of a few minutes-ride. Fully recommended! Many recreational options, e.g. Disneyland or whatch the whales from Newport beachs fish trailors..</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r124561864-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>124561864</t>
+  </si>
+  <si>
+    <t>02/14/2012</t>
+  </si>
+  <si>
+    <t>Staff was horrible.</t>
+  </si>
+  <si>
+    <t>We have stayed at about 30 different motel six's and the staff at the Newport Blvd hotel was rude as hell. Our puppy had an accident and we requested new bedding, was just wanting bedding to make the bed myself. The staff member ranted and raved about us training our puppy and came back and forth to the room several times, then the manger called the room and then came back to the room to yell at me, and hand me a copy of the pet policy and told me that he was going to charge me for the bedding, it was a pug puppy so not as if it was a huge mess. We left early. Nice pool and hot tub, but was locked. Noisy at night was woken up at 3 am to porno noises in the next room. Family friendly???? Pet friendly???MoreShow less</t>
+  </si>
+  <si>
+    <t>We have stayed at about 30 different motel six's and the staff at the Newport Blvd hotel was rude as hell. Our puppy had an accident and we requested new bedding, was just wanting bedding to make the bed myself. The staff member ranted and raved about us training our puppy and came back and forth to the room several times, then the manger called the room and then came back to the room to yell at me, and hand me a copy of the pet policy and told me that he was going to charge me for the bedding, it was a pug puppy so not as if it was a huge mess. We left early. Nice pool and hot tub, but was locked. Noisy at night was woken up at 3 am to porno noises in the next room. Family friendly???? Pet friendly???More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r122123162-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>122123162</t>
+  </si>
+  <si>
+    <t>12/26/2011</t>
+  </si>
+  <si>
+    <t>We returned!</t>
+  </si>
+  <si>
+    <t>As I noted in my first review of this motel, laminate flooring makes this Motel 6 a cut above. You can tell it is clean. We use hand towels as "bed mats" to insure our feet are clean getting into bed.  At our last visit, we paid $55.00 for Christmas eve/day.  This is not a resort.  You are 2-3 miles from the beach.  The motel itself is clean (hallways, elevators, etc.).  Remember, this is a Motel 6 and some things are "quirky."  Room numbers are not traditional, we were in room 30x and it was on the 2nd floor, not 3rd.  We were upgraded to a king room with frige and micro wave (no additional charge).  Free parking. Well lit. Once again, we will return, although beds should be replaced!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>As I noted in my first review of this motel, laminate flooring makes this Motel 6 a cut above. You can tell it is clean. We use hand towels as "bed mats" to insure our feet are clean getting into bed.  At our last visit, we paid $55.00 for Christmas eve/day.  This is not a resort.  You are 2-3 miles from the beach.  The motel itself is clean (hallways, elevators, etc.).  Remember, this is a Motel 6 and some things are "quirky."  Room numbers are not traditional, we were in room 30x and it was on the 2nd floor, not 3rd.  We were upgraded to a king room with frige and micro wave (no additional charge).  Free parking. Well lit. Once again, we will return, although beds should be replaced!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r121996823-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>121996823</t>
+  </si>
+  <si>
+    <t>12/22/2011</t>
+  </si>
+  <si>
+    <t>Not your average Motel 6!!</t>
+  </si>
+  <si>
+    <t>Omg! Motel 6's anywhere else are so run down and dirty. In California it was sooooo nice! For the price it was a steal-we just needed a quick 2 day stay so it was perfect. Hard wood floors-loved it. Our own fridge--perfect we had cokes and food with us, Flat screen tv-great! Big mirror with vanity lights-wish I had that at my home! Plus the room was big and I liked how the sink was detached from the shower and toilet room. Other places have them together and while my fiancé showered I could put on my makeup. Only concern-no drawers?? Just a closet with a few hangers. But it was ok with us.bMoreShow less</t>
+  </si>
+  <si>
+    <t>Omg! Motel 6's anywhere else are so run down and dirty. In California it was sooooo nice! For the price it was a steal-we just needed a quick 2 day stay so it was perfect. Hard wood floors-loved it. Our own fridge--perfect we had cokes and food with us, Flat screen tv-great! Big mirror with vanity lights-wish I had that at my home! Plus the room was big and I liked how the sink was detached from the shower and toilet room. Other places have them together and while my fiancé showered I could put on my makeup. Only concern-no drawers?? Just a closet with a few hangers. But it was ok with us.bMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r121871931-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>121871931</t>
+  </si>
+  <si>
+    <t>12/18/2011</t>
+  </si>
+  <si>
+    <t>A 4 star Motel 6 is an oxymoron!</t>
+  </si>
+  <si>
+    <t>While looking for a more reasonable place to spend a night in OC, I saw the reviews for this Costa Mesa Motel 6.  The location was good and the reviews were encouraging. For the price, I had no problem with the decor of the room.  And actually, it was almost identical to the rooms in the Ibis chain in France.  The mattress was very good.  However there were no niceties, no extra blanket (in fact, no blanket at all!), and we could hear the showers and TVs in rooms next door and one floor above.  The outside temps were cool and we had to turn on the heater, then get up during the night and turn it off, then on again, etc.  While the room was clean, the exterior walkways were not, with many cigarette butts and over filled trash receptacles.  The garage and walkways need a major pressure washing.  So, as I reread the 4 star reviews, I have to wonder if they are legitimate reviews!  MoreShow less</t>
+  </si>
+  <si>
+    <t>While looking for a more reasonable place to spend a night in OC, I saw the reviews for this Costa Mesa Motel 6.  The location was good and the reviews were encouraging. For the price, I had no problem with the decor of the room.  And actually, it was almost identical to the rooms in the Ibis chain in France.  The mattress was very good.  However there were no niceties, no extra blanket (in fact, no blanket at all!), and we could hear the showers and TVs in rooms next door and one floor above.  The outside temps were cool and we had to turn on the heater, then get up during the night and turn it off, then on again, etc.  While the room was clean, the exterior walkways were not, with many cigarette butts and over filled trash receptacles.  The garage and walkways need a major pressure washing.  So, as I reread the 4 star reviews, I have to wonder if they are legitimate reviews!  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r121149546-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>121149546</t>
+  </si>
+  <si>
+    <t>11/28/2011</t>
+  </si>
+  <si>
+    <t>Great</t>
+  </si>
+  <si>
+    <t>Great price, great service, clean, modern room, great location.  Will definitely go back again.</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r121104805-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>121104805</t>
+  </si>
+  <si>
+    <t>11/27/2011</t>
+  </si>
+  <si>
+    <t>Overall satisfied, despite a few problems</t>
+  </si>
+  <si>
+    <t>Our family of 4 (2 parents, 8 and 11 year old children) stayed here over Thanksgiving while visiting extended family. Positives: The spiffy room decor was a welcome relief from that of some other places we've stayed at. Room was clean. We all really appreciated the hard surface flooring instead of carpeting. Also appreciated the fridge and microwave. Nice flat screen TV. Efficient heater, not too loud, as some can be. Convenient, safe location. We were able to park close to our room.Needs improvement: Bathrm toilet seat was not fully connected to toilet - should've been noticed by housekeeping and fixed by maintenance before offering rm. Evening front desk staff had a slight attitude when I called and asked about more bath towels - there were 4 of us in the room and only 2 bath towels. Strong cigarette smoke odor outside our rm even though our rm was non-smoking. Also, it'd be nice if the rooms had clock radios with alarms - hard to know what time it was. Mattresses were a tad bit on the hard side. Black out curtain didn't fully black out all the exterior nighttime light. I'd stay there again if we could get the same rate (under $60/night for 2 double beds, 2 adults, 2 children), unless we could find a place with an indoor heated pool. (This property's pool was outdoors.)MoreShow less</t>
+  </si>
+  <si>
+    <t>Our family of 4 (2 parents, 8 and 11 year old children) stayed here over Thanksgiving while visiting extended family. Positives: The spiffy room decor was a welcome relief from that of some other places we've stayed at. Room was clean. We all really appreciated the hard surface flooring instead of carpeting. Also appreciated the fridge and microwave. Nice flat screen TV. Efficient heater, not too loud, as some can be. Convenient, safe location. We were able to park close to our room.Needs improvement: Bathrm toilet seat was not fully connected to toilet - should've been noticed by housekeeping and fixed by maintenance before offering rm. Evening front desk staff had a slight attitude when I called and asked about more bath towels - there were 4 of us in the room and only 2 bath towels. Strong cigarette smoke odor outside our rm even though our rm was non-smoking. Also, it'd be nice if the rooms had clock radios with alarms - hard to know what time it was. Mattresses were a tad bit on the hard side. Black out curtain didn't fully black out all the exterior nighttime light. I'd stay there again if we could get the same rate (under $60/night for 2 double beds, 2 adults, 2 children), unless we could find a place with an indoor heated pool. (This property's pool was outdoors.)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r120760578-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>120760578</t>
+  </si>
+  <si>
+    <t>11/18/2011</t>
+  </si>
+  <si>
+    <t>A wonderful value and location.</t>
+  </si>
+  <si>
+    <t>The location of this hotel was great - close to Newport Beach, close to the freeways and close to food and stores. The value was excellent: the room was clean and stylishly remodeled and the manager on duty during my check-in was one of the nicest hotel managers I've encountered. He made us feel like we were checking in to a Hilton.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r119593017-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>119593017</t>
+  </si>
+  <si>
+    <t>10/22/2011</t>
+  </si>
+  <si>
+    <t>Very good motel!</t>
+  </si>
+  <si>
+    <t>Motel 6 in Costa Mesa is definitely one of the cheapest places to stay for what you get (I did my research!), and what you get is impressive. First off the owner and reception were most welcoming and upgraded me for $18 a week extra to a larger room at the back with King size bed (I'd originally booked the cheapest room available). They phoned up shortly after I'd settled to check everything was ok. The bed was huge and quite comfy, there is free wi-fi (which doesn't lose connection like some other hotels had that I'd stayed at). Fitments are modern and sleek with fridge, microwave, flatscreen TV and room under the bed to put your bags out of the way. I would have like a little more storage space for clothes as I was staying for long than a few days, however this is a small quibble and also the choice of channels on the TV was only about 30 cable channels and image quality not that great. Everything was clean and I love the bamboo floors rather than typical hotel carpeting. The motel had more than enough car parking space with underground parking towards the back (where I also safely chained by bike for a few days). An added unexpected bonus was the outdoor hot tub which was lovely and warm and small pool/sunbathing area. This a useful motel to stay at if you have a car...Motel 6 in Costa Mesa is definitely one of the cheapest places to stay for what you get (I did my research!), and what you get is impressive. First off the owner and reception were most welcoming and upgraded me for $18 a week extra to a larger room at the back with King size bed (I'd originally booked the cheapest room available). They phoned up shortly after I'd settled to check everything was ok. The bed was huge and quite comfy, there is free wi-fi (which doesn't lose connection like some other hotels had that I'd stayed at). Fitments are modern and sleek with fridge, microwave, flatscreen TV and room under the bed to put your bags out of the way. I would have like a little more storage space for clothes as I was staying for long than a few days, however this is a small quibble and also the choice of channels on the TV was only about 30 cable channels and image quality not that great. Everything was clean and I love the bamboo floors rather than typical hotel carpeting. The motel had more than enough car parking space with underground parking towards the back (where I also safely chained by bike for a few days). An added unexpected bonus was the outdoor hot tub which was lovely and warm and small pool/sunbathing area. This a useful motel to stay at if you have a car as it's just a 10-15 min drive to Newport beach, about 10 mins to Sears going north and pretty close to many other shopping stores such as K-Mart, TJ Maxx and Albertsons. I'm also into fitness walking and found a great trail going along upper Newport Harbour (2 mins drive up the road). All in all this is great value for money and I would definitely recommend it.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>Motel 6 in Costa Mesa is definitely one of the cheapest places to stay for what you get (I did my research!), and what you get is impressive. First off the owner and reception were most welcoming and upgraded me for $18 a week extra to a larger room at the back with King size bed (I'd originally booked the cheapest room available). They phoned up shortly after I'd settled to check everything was ok. The bed was huge and quite comfy, there is free wi-fi (which doesn't lose connection like some other hotels had that I'd stayed at). Fitments are modern and sleek with fridge, microwave, flatscreen TV and room under the bed to put your bags out of the way. I would have like a little more storage space for clothes as I was staying for long than a few days, however this is a small quibble and also the choice of channels on the TV was only about 30 cable channels and image quality not that great. Everything was clean and I love the bamboo floors rather than typical hotel carpeting. The motel had more than enough car parking space with underground parking towards the back (where I also safely chained by bike for a few days). An added unexpected bonus was the outdoor hot tub which was lovely and warm and small pool/sunbathing area. This a useful motel to stay at if you have a car...Motel 6 in Costa Mesa is definitely one of the cheapest places to stay for what you get (I did my research!), and what you get is impressive. First off the owner and reception were most welcoming and upgraded me for $18 a week extra to a larger room at the back with King size bed (I'd originally booked the cheapest room available). They phoned up shortly after I'd settled to check everything was ok. The bed was huge and quite comfy, there is free wi-fi (which doesn't lose connection like some other hotels had that I'd stayed at). Fitments are modern and sleek with fridge, microwave, flatscreen TV and room under the bed to put your bags out of the way. I would have like a little more storage space for clothes as I was staying for long than a few days, however this is a small quibble and also the choice of channels on the TV was only about 30 cable channels and image quality not that great. Everything was clean and I love the bamboo floors rather than typical hotel carpeting. The motel had more than enough car parking space with underground parking towards the back (where I also safely chained by bike for a few days). An added unexpected bonus was the outdoor hot tub which was lovely and warm and small pool/sunbathing area. This a useful motel to stay at if you have a car as it's just a 10-15 min drive to Newport beach, about 10 mins to Sears going north and pretty close to many other shopping stores such as K-Mart, TJ Maxx and Albertsons. I'm also into fitness walking and found a great trail going along upper Newport Harbour (2 mins drive up the road). All in all this is great value for money and I would definitely recommend it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r119313202-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>119313202</t>
+  </si>
+  <si>
+    <t>10/14/2011</t>
+  </si>
+  <si>
+    <t>Very GOOD place where to stay!</t>
+  </si>
+  <si>
+    <t>Place is really really good. It's been remodeled recently so everything is new and clean. Room are good designed, comfortable and of course clean. The only flaw with the room is some burns on the sheets and blankets, but I think the main fault is on the rudeness of the guests!! I wish all the motels would be like this one! The price is absolutely worth it for these standards (70$).</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r119001059-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>119001059</t>
+  </si>
+  <si>
+    <t>10/06/2011</t>
+  </si>
+  <si>
+    <t>Great Value</t>
+  </si>
+  <si>
+    <t>We stayed here during a weekend trip to visit friends in the area. We had stayed at a different Motel 6 recently so knew what to expect. The motel was very clean and everything had been recently remodeled. The rooms are very modern and sleek looking. The staff was very friendly and check in/out was a breeze. When we checked in they upgraded us to a King Room for free (which was nice because this gave us a nice view of the sunrise over the mountains from the room!) The beds are super comfortable and we slept so well while we were there (I dont ever remember hearing noise from surrounding rooms either) There was a microwave and mini fridge in the room but we didnt use these. They dont have hairdryers in the room which was a bit of an inconvenience. For the price of the motel it was a very comfortable, clean and quiet place to spend the weekend.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here during a weekend trip to visit friends in the area. We had stayed at a different Motel 6 recently so knew what to expect. The motel was very clean and everything had been recently remodeled. The rooms are very modern and sleek looking. The staff was very friendly and check in/out was a breeze. When we checked in they upgraded us to a King Room for free (which was nice because this gave us a nice view of the sunrise over the mountains from the room!) The beds are super comfortable and we slept so well while we were there (I dont ever remember hearing noise from surrounding rooms either) There was a microwave and mini fridge in the room but we didnt use these. They dont have hairdryers in the room which was a bit of an inconvenience. For the price of the motel it was a very comfortable, clean and quiet place to spend the weekend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r116060800-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>116060800</t>
+  </si>
+  <si>
+    <t>07/31/2011</t>
+  </si>
+  <si>
+    <t>Would NOT recommend</t>
+  </si>
+  <si>
+    <t>Biggest complaint is that the room smelled like smoke.  Requested non-smoking and room and room smelled like smoke from the vents in other room.  Bed sheet feel ichy, not sure if it is bed bugs or the generic laundry soap they use. Floor is filthy....make sure u wear a black pair of socks walking around the floor....white socks turned black. NO hair dryer, shampoo or conditioner...bring your own.  No tissue....had to go buy some.  Could have paid the same price at another "hotel" for all the above stuff including a free breakfast.  They say lobby has free coffee, but lobby does not open until 7:00am......who sleeps in that late!</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r113531342-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>113531342</t>
+  </si>
+  <si>
+    <t>06/14/2011</t>
+  </si>
+  <si>
+    <t>Stayed there 3 times</t>
+  </si>
+  <si>
+    <t>This has got to be the best hotel in the Motel 6 chain. The rooms have recently been renovated and they are spotlessly clean. The staff are very friendly and helpful. It's great value for money and not to far from the beaches.</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r112722665-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>112722665</t>
+  </si>
+  <si>
+    <t>06/11/2011</t>
+  </si>
+  <si>
+    <t>good value for the price</t>
+  </si>
+  <si>
+    <t>If you are looking for a place to overnight, and do not want to pay much, this is it. In a convenient location, with wireless internet and friendly receptionists.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r105161058-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>105161058</t>
+  </si>
+  <si>
+    <t>04/23/2011</t>
+  </si>
+  <si>
+    <t>Wonderful motel and great value</t>
+  </si>
+  <si>
+    <t>This is a newly renovated Motel 6 and is in a great location.  The staff was very friendly and helpful as well as accommodating.</t>
+  </si>
+  <si>
+    <t>April 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r104855767-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>104855767</t>
+  </si>
+  <si>
+    <t>04/20/2011</t>
+  </si>
+  <si>
+    <t>Motel 6 has gotten a great new remodel</t>
+  </si>
+  <si>
+    <t>I read other reviews of this Motel 6 and decided to try it...It is very nice indeed!  The   remodeled rooms are very modern/chic looking and I loved the "bamboo look" floors...so much nicer than carpeting. Check in was fine. The area is not the greatest but it is easy to get to the Orange Co. airport and Newport Beach from there.  It was a great value for the area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r103789402-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>103789402</t>
+  </si>
+  <si>
+    <t>04/12/2011</t>
+  </si>
+  <si>
+    <t>Great value; super clean; loved the room design; close to everything!</t>
+  </si>
+  <si>
+    <t>I picked this room because of the great reviews on Tripadvisor, and I was on a tight budget, but I was still a little wary because I had never stayed at a Motel 6 before.  It exceeded my expectations!  First of all, I loved the IKEA-like room with simple, sleek, clean-lined furniture.  The bed was super comfortable and the bedspread was a nice clean cotton coverlet.  Appreciated the cleanliness of the vinyl floors, as well as the micro/fridge combo.  Pool was next to parking lot but looked super clear and clean.  Felt safe there as a single traveler, although I did not walk around the neighborhood.  Only things I would mention if you book there: bring shampoo, a hairdryer, and definitely an alarm clock, since none of those is in the room.  Also, since pets are allowed, I occasionally heard a dog howling or barking.  But, all in all, I would highly recommend this hotel if you need to stay in the area.  It was about a 10 minute drive to the beach and close to a grocery store and other shopping.  Highly recommend!MoreShow less</t>
+  </si>
+  <si>
+    <t>I picked this room because of the great reviews on Tripadvisor, and I was on a tight budget, but I was still a little wary because I had never stayed at a Motel 6 before.  It exceeded my expectations!  First of all, I loved the IKEA-like room with simple, sleek, clean-lined furniture.  The bed was super comfortable and the bedspread was a nice clean cotton coverlet.  Appreciated the cleanliness of the vinyl floors, as well as the micro/fridge combo.  Pool was next to parking lot but looked super clear and clean.  Felt safe there as a single traveler, although I did not walk around the neighborhood.  Only things I would mention if you book there: bring shampoo, a hairdryer, and definitely an alarm clock, since none of those is in the room.  Also, since pets are allowed, I occasionally heard a dog howling or barking.  But, all in all, I would highly recommend this hotel if you need to stay in the area.  It was about a 10 minute drive to the beach and close to a grocery store and other shopping.  Highly recommend!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r98453145-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>98453145</t>
+  </si>
+  <si>
+    <t>02/28/2011</t>
+  </si>
+  <si>
+    <t>Great experience all around</t>
+  </si>
+  <si>
+    <t>Contemporary decor, clean room and bathroom, flat screen tv plus a little refrigerator and microwave ~ you get a lot for your money here.  The 2 managers were helpful, attentive and accommodating.  I would definitely stay here again.</t>
+  </si>
+  <si>
+    <t>February 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r96547050-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>96547050</t>
+  </si>
+  <si>
+    <t>02/13/2011</t>
+  </si>
+  <si>
+    <t>5 star in all aspects!</t>
+  </si>
+  <si>
+    <t>the value, cleanliness, friendliness and location were all 5 star! Mack made sure we were happy with the room by phoning up shortly after we checked in. the rooms were GREAT! Ikea furnished, nice big LCD TV, and the beds were ideal. Firm, slightly military in style but i slept like a rock. No carpet in the rooms just woodgrained tile floors, more motels ought to get that clue. this motel ought to be the flagship for Motel 6, its was immaculate..</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r96389074-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>96389074</t>
+  </si>
+  <si>
+    <t>02/12/2011</t>
+  </si>
+  <si>
+    <t>Clean, modern, stylish, will come back!</t>
+  </si>
+  <si>
+    <t>This was my second stay at the Motel 6 at Newport Blvd, I was again quite satisfied, a modern, stylish and clean place to stay with a good location for excursions to the L.A. area or just for beach chilling in OC.One thing is there to improve: The WiFi is quite slow, downloading 600 kbytes of e-mails took me about 2 minutes in the evening, an upgrade for the dsl connection would really be helpful. Will stay here again!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r88356282-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>88356282</t>
+  </si>
+  <si>
+    <t>11/27/2010</t>
+  </si>
+  <si>
+    <t>Clean, inexpensive</t>
+  </si>
+  <si>
+    <t>Laminate flooring makes this Motel 6 a cut above.  You can tell it is clean.  This is not a resort &amp; it is not 5 blocks from the beach as stated by another review. Parking lot pool is clean, kids will enjoy. Walls are thin &amp; you can hear your neighbors. We paid less than $70 over Thanksgiving weekend, a great rate.  Wi fi is $3.00 per day. Free parking.  Well lit. We will return.</t>
+  </si>
+  <si>
+    <t>November 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r86698259-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>86698259</t>
+  </si>
+  <si>
+    <t>11/10/2010</t>
+  </si>
+  <si>
+    <t>GREAT!!!!</t>
+  </si>
+  <si>
+    <t>I thought being a Motel 6 this would not be an awesome choice but as we were on a budget it was the logical choice.I love the fact that it is near the freeway and a 15 minute drive from Disney Land!!! It was perfect for our needs. The beach is only 5 blocks away and shopping in this area is Awesome!!!The rooms were so fresh and clean and the hotel area is very safe!!!The staff were great people so friendly.I would say that the next time I go to California I will be staying here.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r73945986-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>73945986</t>
+  </si>
+  <si>
+    <t>08/05/2010</t>
+  </si>
+  <si>
+    <t>Great value near pricey Newport Beach area.</t>
+  </si>
+  <si>
+    <t>I chose this motel for my five-night stay due to the price and because it is within walking distance of a family member's house. I wasn't expecting much, but I was pleasantly surprised to find a clean and simple room, newly remodeled in a modern style, with a big-screen t.v. Don't expect lots of "amenities" -- this is a comfortable place to sleep at a budget price in a very pricey area. However, there was a fridge/microwave in the room, which I didn't expect. The floors are not carpeted, I'm happy to say - hard floors, maybe Pergo type. (Motel carpeting is something I try not to think about. Ick.) I saw underground parking towards the back of the motel, but I didn't use it or ask about it. The young desk employee who checked me in was casual but friendly. For the rest of my stay the owner was in the office, and he was a sweet and kind man who made me feel like every customer is important to him. The only bad thing I can say about the service is that the morning coffee was dreadful -- not a huge surprise. (Never fear, espresso drinkers, Starbucks are in abundance in Newport.)
+As far as location goes, it's a mixed bag. It's probably not ideal for most travelers (although it was perfect for me.) It's on the frontage road of the 55 Freeway, and it wasn't a quiet...I chose this motel for my five-night stay due to the price and because it is within walking distance of a family member's house. I wasn't expecting much, but I was pleasantly surprised to find a clean and simple room, newly remodeled in a modern style, with a big-screen t.v. Don't expect lots of "amenities" -- this is a comfortable place to sleep at a budget price in a very pricey area. However, there was a fridge/microwave in the room, which I didn't expect. The floors are not carpeted, I'm happy to say - hard floors, maybe Pergo type. (Motel carpeting is something I try not to think about. Ick.) I saw underground parking towards the back of the motel, but I didn't use it or ask about it. The young desk employee who checked me in was casual but friendly. For the rest of my stay the owner was in the office, and he was a sweet and kind man who made me feel like every customer is important to him. The only bad thing I can say about the service is that the morning coffee was dreadful -- not a huge surprise. (Never fear, espresso drinkers, Starbucks are in abundance in Newport.)As far as location goes, it's a mixed bag. It's probably not ideal for most travelers (although it was perfect for me.) It's on the frontage road of the 55 Freeway, and it wasn't a quiet place to stay. (I just turn on the fan of the heat/cool unit for white noise.) The immediate neighborhood along the freeway is far from fancy, and as a solo female traveler I didn't feel comfortable walking around at night. A small grocery store is just a block away, but no restaurant nearby, so there isn't much reason to walk around at night. The motel itself and the parking area were fine and felt safe. There is nothing pretty to look at here - no view, no gardens, etc. This is not the place to stay if you're looking for a beach vacation or resort area.On the other hand, if you don't mind driving you are within about five minutes of plenty of restaurants, shopping, etc. And you can be down at Newport Beach nearly that fast, with all kinds of food and fun. Ten minutes away is the Fashion Island center, if one is interested in more upscale food and retail, or movie theaters. Behind the motel is a pretty residential area, fine for a walk or a run, and a little further is the Newport Back Bay which has a few trails and a visitor's center for the nature reserve. (If you are traveling with kids who need a distraction, the visitor's center has nature activities and walks just for kids.) The Santa Ana/Orange County airport is maybe 15 min. away if you are flying.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2009</t>
+  </si>
+  <si>
+    <t>I chose this motel for my five-night stay due to the price and because it is within walking distance of a family member's house. I wasn't expecting much, but I was pleasantly surprised to find a clean and simple room, newly remodeled in a modern style, with a big-screen t.v. Don't expect lots of "amenities" -- this is a comfortable place to sleep at a budget price in a very pricey area. However, there was a fridge/microwave in the room, which I didn't expect. The floors are not carpeted, I'm happy to say - hard floors, maybe Pergo type. (Motel carpeting is something I try not to think about. Ick.) I saw underground parking towards the back of the motel, but I didn't use it or ask about it. The young desk employee who checked me in was casual but friendly. For the rest of my stay the owner was in the office, and he was a sweet and kind man who made me feel like every customer is important to him. The only bad thing I can say about the service is that the morning coffee was dreadful -- not a huge surprise. (Never fear, espresso drinkers, Starbucks are in abundance in Newport.)
+As far as location goes, it's a mixed bag. It's probably not ideal for most travelers (although it was perfect for me.) It's on the frontage road of the 55 Freeway, and it wasn't a quiet...I chose this motel for my five-night stay due to the price and because it is within walking distance of a family member's house. I wasn't expecting much, but I was pleasantly surprised to find a clean and simple room, newly remodeled in a modern style, with a big-screen t.v. Don't expect lots of "amenities" -- this is a comfortable place to sleep at a budget price in a very pricey area. However, there was a fridge/microwave in the room, which I didn't expect. The floors are not carpeted, I'm happy to say - hard floors, maybe Pergo type. (Motel carpeting is something I try not to think about. Ick.) I saw underground parking towards the back of the motel, but I didn't use it or ask about it. The young desk employee who checked me in was casual but friendly. For the rest of my stay the owner was in the office, and he was a sweet and kind man who made me feel like every customer is important to him. The only bad thing I can say about the service is that the morning coffee was dreadful -- not a huge surprise. (Never fear, espresso drinkers, Starbucks are in abundance in Newport.)As far as location goes, it's a mixed bag. It's probably not ideal for most travelers (although it was perfect for me.) It's on the frontage road of the 55 Freeway, and it wasn't a quiet place to stay. (I just turn on the fan of the heat/cool unit for white noise.) The immediate neighborhood along the freeway is far from fancy, and as a solo female traveler I didn't feel comfortable walking around at night. A small grocery store is just a block away, but no restaurant nearby, so there isn't much reason to walk around at night. The motel itself and the parking area were fine and felt safe. There is nothing pretty to look at here - no view, no gardens, etc. This is not the place to stay if you're looking for a beach vacation or resort area.On the other hand, if you don't mind driving you are within about five minutes of plenty of restaurants, shopping, etc. And you can be down at Newport Beach nearly that fast, with all kinds of food and fun. Ten minutes away is the Fashion Island center, if one is interested in more upscale food and retail, or movie theaters. Behind the motel is a pretty residential area, fine for a walk or a run, and a little further is the Newport Back Bay which has a few trails and a visitor's center for the nature reserve. (If you are traveling with kids who need a distraction, the visitor's center has nature activities and walks just for kids.) The Santa Ana/Orange County airport is maybe 15 min. away if you are flying.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r62145051-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>62145051</t>
+  </si>
+  <si>
+    <t>04/22/2010</t>
+  </si>
+  <si>
+    <t>modern, thrifty option for sleep</t>
+  </si>
+  <si>
+    <t>This Motel 6 is modern and convenient with many fine shopping and eating options within driving distance.  I appreciated the digital, flat screen tv and the large King sized bed. However, I prefer carpeting on the floor and interior corridor facing rooms. I saw nothing unsafe about the neighborhood or the facility, as suggested by someone else, and the clerk was very friendly and helpful.  The free WiFi was very good and the room had a fridge.  However, you have to ask for more than minimum towells and the only toiletries were two small soap bars--not a problem for me and the owner has to scrimp somewhere to offer a low price.  Room layout did not permit sitting at built-in table while watching tv.  Hotwire gave me this for $10 off the $60 normal cost.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2010</t>
+  </si>
+  <si>
+    <t>This Motel 6 is modern and convenient with many fine shopping and eating options within driving distance.  I appreciated the digital, flat screen tv and the large King sized bed. However, I prefer carpeting on the floor and interior corridor facing rooms. I saw nothing unsafe about the neighborhood or the facility, as suggested by someone else, and the clerk was very friendly and helpful.  The free WiFi was very good and the room had a fridge.  However, you have to ask for more than minimum towells and the only toiletries were two small soap bars--not a problem for me and the owner has to scrimp somewhere to offer a low price.  Room layout did not permit sitting at built-in table while watching tv.  Hotwire gave me this for $10 off the $60 normal cost.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r61997953-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>61997953</t>
+  </si>
+  <si>
+    <t>04/20/2010</t>
+  </si>
+  <si>
+    <t>Pretty cool for a Motel 6</t>
+  </si>
+  <si>
+    <t>The rooms here are new and look very modern like you would see in a trendy hotel. Hardwood floors, modern bed and furniture. It was a shock walking into the room not knowing what to expect.I paid around 75$ with tax for one night on a walk up rate which was a little steep for a Motel 6, but this is Newport.</t>
+  </si>
+  <si>
+    <t>February 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r59033369-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>59033369</t>
+  </si>
+  <si>
+    <t>03/20/2010</t>
+  </si>
+  <si>
+    <t>awesome for motel 6</t>
+  </si>
+  <si>
+    <t>This motel  used to be a hole in the wall for yearsHowever since becoming a motel 6 and being completely redone it is the nicest motel 6 by far. You dont get many extras but the rooms are clean new nice with bigscreen tv free internet  hbo and the parking is great and the location is great. I think it is family owned  The owner is very friendly and kool.The next night i stayed at the crowne plaza in irvine and I found myself wishing i had stayed at this motel 6 againthis motel will do very well as a motel 6 very smart owner and the rooms are designed very very wisely and maximize space with plenty of electrical outlets which most hotels are missing. this was designed with the understanding that people are going to travel with a laptop blue tooth and cell phone that are all going to require an outlet to charge.it beats crawling around on the floor at most motels and unplugging lamps to use the outlet.  speaking of lamps they have wall fixtures and this is so smart because all a lamp ever does in a motel is take up the space on the nightstands and its just silly.this is the best value in the area and is surprisingly comfy and enjoyableMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2010</t>
+  </si>
+  <si>
+    <t>This motel  used to be a hole in the wall for yearsHowever since becoming a motel 6 and being completely redone it is the nicest motel 6 by far. You dont get many extras but the rooms are clean new nice with bigscreen tv free internet  hbo and the parking is great and the location is great. I think it is family owned  The owner is very friendly and kool.The next night i stayed at the crowne plaza in irvine and I found myself wishing i had stayed at this motel 6 againthis motel will do very well as a motel 6 very smart owner and the rooms are designed very very wisely and maximize space with plenty of electrical outlets which most hotels are missing. this was designed with the understanding that people are going to travel with a laptop blue tooth and cell phone that are all going to require an outlet to charge.it beats crawling around on the floor at most motels and unplugging lamps to use the outlet.  speaking of lamps they have wall fixtures and this is so smart because all a lamp ever does in a motel is take up the space on the nightstands and its just silly.this is the best value in the area and is surprisingly comfy and enjoyableMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r40508344-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>40508344</t>
+  </si>
+  <si>
+    <t>09/09/2009</t>
+  </si>
+  <si>
+    <t>almost cool - has potential</t>
+  </si>
+  <si>
+    <t>we actually changed a reservation to go check out this hotel for the modern look.   its definitely modern, no carpet (woohoo!!!!) nice colorful touches - streamline and basic.  its clean because its new.  it was not finished  however....no flooring (wood or carpet) in hallway - literally it was cement.  and believe me when i say this - there are no "extras".  the soap is about the size of a breath mint, the towels are for ken and barbie...even the toilet tissue was SO THIN it was laughable! there is no shampoo, kleenex, clock  or hair dryer - be warned!  but overall, Mack the manager was great - great location and definitely modern, which we loved.   if they finish what they started, it will be a great orange county find if they add a few more amenties and keep the pricing the same.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2009</t>
+  </si>
+  <si>
+    <t>we actually changed a reservation to go check out this hotel for the modern look.   its definitely modern, no carpet (woohoo!!!!) nice colorful touches - streamline and basic.  its clean because its new.  it was not finished  however....no flooring (wood or carpet) in hallway - literally it was cement.  and believe me when i say this - there are no "extras".  the soap is about the size of a breath mint, the towels are for ken and barbie...even the toilet tissue was SO THIN it was laughable! there is no shampoo, kleenex, clock  or hair dryer - be warned!  but overall, Mack the manager was great - great location and definitely modern, which we loved.   if they finish what they started, it will be a great orange county find if they add a few more amenties and keep the pricing the same.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2754,7154 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O5" t="s">
+        <v>78</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>84</v>
+      </c>
+      <c r="O6" t="s">
+        <v>85</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>4</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>86</v>
+      </c>
+      <c r="X6" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>94</v>
+      </c>
+      <c r="O7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" t="s">
+        <v>97</v>
+      </c>
+      <c r="K8" t="s">
+        <v>98</v>
+      </c>
+      <c r="L8" t="s">
+        <v>99</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>100</v>
+      </c>
+      <c r="O8" t="s">
+        <v>63</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>103</v>
+      </c>
+      <c r="J9" t="s">
+        <v>104</v>
+      </c>
+      <c r="K9" t="s">
+        <v>105</v>
+      </c>
+      <c r="L9" t="s">
+        <v>106</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>107</v>
+      </c>
+      <c r="O9" t="s">
+        <v>63</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>109</v>
+      </c>
+      <c r="J10" t="s">
+        <v>110</v>
+      </c>
+      <c r="K10" t="s">
+        <v>111</v>
+      </c>
+      <c r="L10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>113</v>
+      </c>
+      <c r="O10" t="s">
+        <v>114</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>115</v>
+      </c>
+      <c r="X10" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>118</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>119</v>
+      </c>
+      <c r="J11" t="s">
+        <v>120</v>
+      </c>
+      <c r="K11" t="s">
+        <v>121</v>
+      </c>
+      <c r="L11" t="s">
+        <v>122</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>124</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>125</v>
+      </c>
+      <c r="J12" t="s">
+        <v>126</v>
+      </c>
+      <c r="K12" t="s">
+        <v>127</v>
+      </c>
+      <c r="L12" t="s">
+        <v>128</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>129</v>
+      </c>
+      <c r="O12" t="s">
+        <v>63</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>130</v>
+      </c>
+      <c r="X12" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>133</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>134</v>
+      </c>
+      <c r="J13" t="s">
+        <v>135</v>
+      </c>
+      <c r="K13" t="s">
+        <v>136</v>
+      </c>
+      <c r="L13" t="s">
+        <v>137</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>138</v>
+      </c>
+      <c r="O13" t="s">
+        <v>63</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>139</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>140</v>
+      </c>
+      <c r="J14" t="s">
+        <v>141</v>
+      </c>
+      <c r="K14" t="s">
+        <v>142</v>
+      </c>
+      <c r="L14" t="s">
+        <v>143</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>144</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>145</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>146</v>
+      </c>
+      <c r="J15" t="s">
+        <v>147</v>
+      </c>
+      <c r="K15" t="s">
+        <v>148</v>
+      </c>
+      <c r="L15" t="s">
+        <v>149</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>150</v>
+      </c>
+      <c r="O15" t="s">
+        <v>85</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>151</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>152</v>
+      </c>
+      <c r="J16" t="s">
+        <v>153</v>
+      </c>
+      <c r="K16" t="s">
+        <v>154</v>
+      </c>
+      <c r="L16" t="s">
+        <v>155</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>144</v>
+      </c>
+      <c r="O16" t="s">
+        <v>85</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>156</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>157</v>
+      </c>
+      <c r="J17" t="s">
+        <v>158</v>
+      </c>
+      <c r="K17" t="s">
+        <v>159</v>
+      </c>
+      <c r="L17" t="s">
+        <v>160</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>161</v>
+      </c>
+      <c r="O17" t="s">
+        <v>85</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>162</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>163</v>
+      </c>
+      <c r="J18" t="s">
+        <v>164</v>
+      </c>
+      <c r="K18" t="s">
+        <v>165</v>
+      </c>
+      <c r="L18" t="s">
+        <v>166</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>168</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>169</v>
+      </c>
+      <c r="J19" t="s">
+        <v>170</v>
+      </c>
+      <c r="K19" t="s">
+        <v>171</v>
+      </c>
+      <c r="L19" t="s">
+        <v>172</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>173</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>3</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>174</v>
+      </c>
+      <c r="X19" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>177</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>178</v>
+      </c>
+      <c r="J20" t="s">
+        <v>179</v>
+      </c>
+      <c r="K20" t="s">
+        <v>180</v>
+      </c>
+      <c r="L20" t="s">
+        <v>181</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>182</v>
+      </c>
+      <c r="O20" t="s">
+        <v>114</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>183</v>
+      </c>
+      <c r="X20" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>186</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>187</v>
+      </c>
+      <c r="J21" t="s">
+        <v>188</v>
+      </c>
+      <c r="K21" t="s">
+        <v>189</v>
+      </c>
+      <c r="L21" t="s">
+        <v>190</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>191</v>
+      </c>
+      <c r="O21" t="s">
+        <v>63</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="n">
+        <v>2</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>183</v>
+      </c>
+      <c r="X21" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>193</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>194</v>
+      </c>
+      <c r="J22" t="s">
+        <v>188</v>
+      </c>
+      <c r="K22" t="s">
+        <v>195</v>
+      </c>
+      <c r="L22" t="s">
+        <v>196</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>182</v>
+      </c>
+      <c r="O22" t="s">
+        <v>114</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>183</v>
+      </c>
+      <c r="X22" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>198</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>199</v>
+      </c>
+      <c r="J23" t="s">
+        <v>200</v>
+      </c>
+      <c r="K23" t="s">
+        <v>201</v>
+      </c>
+      <c r="L23" t="s">
+        <v>202</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>191</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>203</v>
+      </c>
+      <c r="X23" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>206</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>207</v>
+      </c>
+      <c r="J24" t="s">
+        <v>208</v>
+      </c>
+      <c r="K24" t="s">
+        <v>209</v>
+      </c>
+      <c r="L24" t="s">
+        <v>210</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>191</v>
+      </c>
+      <c r="O24" t="s">
+        <v>114</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>211</v>
+      </c>
+      <c r="X24" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>214</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>215</v>
+      </c>
+      <c r="J25" t="s">
+        <v>216</v>
+      </c>
+      <c r="K25" t="s">
+        <v>217</v>
+      </c>
+      <c r="L25" t="s">
+        <v>218</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>219</v>
+      </c>
+      <c r="O25" t="s">
+        <v>114</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="n">
+        <v>1</v>
+      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>1</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>220</v>
+      </c>
+      <c r="X25" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>223</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>224</v>
+      </c>
+      <c r="J26" t="s">
+        <v>225</v>
+      </c>
+      <c r="K26" t="s">
+        <v>226</v>
+      </c>
+      <c r="L26" t="s">
+        <v>227</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>150</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>4</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>228</v>
+      </c>
+      <c r="X26" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>231</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>232</v>
+      </c>
+      <c r="J27" t="s">
+        <v>233</v>
+      </c>
+      <c r="K27" t="s">
+        <v>234</v>
+      </c>
+      <c r="L27" t="s">
+        <v>235</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>150</v>
+      </c>
+      <c r="O27" t="s">
+        <v>114</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>236</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>237</v>
+      </c>
+      <c r="J28" t="s">
+        <v>238</v>
+      </c>
+      <c r="K28" t="s">
+        <v>239</v>
+      </c>
+      <c r="L28" t="s">
+        <v>240</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>241</v>
+      </c>
+      <c r="O28" t="s">
+        <v>63</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="n">
+        <v>1</v>
+      </c>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>242</v>
+      </c>
+      <c r="X28" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>245</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>246</v>
+      </c>
+      <c r="J29" t="s">
+        <v>247</v>
+      </c>
+      <c r="K29" t="s">
+        <v>248</v>
+      </c>
+      <c r="L29" t="s">
+        <v>249</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>250</v>
+      </c>
+      <c r="O29" t="s">
+        <v>85</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>3</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>251</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>252</v>
+      </c>
+      <c r="J30" t="s">
+        <v>253</v>
+      </c>
+      <c r="K30" t="s">
+        <v>254</v>
+      </c>
+      <c r="L30" t="s">
+        <v>255</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="s">
+        <v>250</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="n">
+        <v>3</v>
+      </c>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>2</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>2</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>256</v>
+      </c>
+      <c r="X30" t="s">
+        <v>257</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>259</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>260</v>
+      </c>
+      <c r="J31" t="s">
+        <v>261</v>
+      </c>
+      <c r="K31" t="s">
+        <v>262</v>
+      </c>
+      <c r="L31" t="s">
+        <v>263</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>250</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>264</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>265</v>
+      </c>
+      <c r="J32" t="s">
+        <v>266</v>
+      </c>
+      <c r="K32" t="s">
+        <v>267</v>
+      </c>
+      <c r="L32" t="s">
+        <v>268</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2</v>
+      </c>
+      <c r="N32" t="s"/>
+      <c r="O32" t="s"/>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>269</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>270</v>
+      </c>
+      <c r="J33" t="s">
+        <v>271</v>
+      </c>
+      <c r="K33" t="s">
+        <v>272</v>
+      </c>
+      <c r="L33" t="s">
+        <v>273</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>274</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>276</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>277</v>
+      </c>
+      <c r="J34" t="s">
+        <v>278</v>
+      </c>
+      <c r="K34" t="s">
+        <v>279</v>
+      </c>
+      <c r="L34" t="s">
+        <v>280</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>274</v>
+      </c>
+      <c r="O34" t="s">
+        <v>114</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>281</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>282</v>
+      </c>
+      <c r="J35" t="s">
+        <v>283</v>
+      </c>
+      <c r="K35" t="s">
+        <v>284</v>
+      </c>
+      <c r="L35" t="s">
+        <v>285</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>286</v>
+      </c>
+      <c r="O35" t="s">
+        <v>78</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="n">
+        <v>1</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>1</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>287</v>
+      </c>
+      <c r="X35" t="s">
+        <v>288</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>290</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>291</v>
+      </c>
+      <c r="J36" t="s">
+        <v>292</v>
+      </c>
+      <c r="K36" t="s">
+        <v>293</v>
+      </c>
+      <c r="L36" t="s">
+        <v>294</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>295</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>296</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>297</v>
+      </c>
+      <c r="J37" t="s">
+        <v>298</v>
+      </c>
+      <c r="K37" t="s">
+        <v>299</v>
+      </c>
+      <c r="L37" t="s">
+        <v>300</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>301</v>
+      </c>
+      <c r="O37" t="s">
+        <v>85</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>302</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>303</v>
+      </c>
+      <c r="J38" t="s">
+        <v>304</v>
+      </c>
+      <c r="K38" t="s">
+        <v>305</v>
+      </c>
+      <c r="L38" t="s">
+        <v>306</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>307</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>309</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>310</v>
+      </c>
+      <c r="J39" t="s">
+        <v>304</v>
+      </c>
+      <c r="K39" t="s">
+        <v>311</v>
+      </c>
+      <c r="L39" t="s">
+        <v>312</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>307</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>314</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>315</v>
+      </c>
+      <c r="J40" t="s">
+        <v>316</v>
+      </c>
+      <c r="K40" t="s">
+        <v>317</v>
+      </c>
+      <c r="L40" t="s">
+        <v>318</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>307</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="n">
+        <v>3</v>
+      </c>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>3</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>319</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>320</v>
+      </c>
+      <c r="J41" t="s">
+        <v>321</v>
+      </c>
+      <c r="K41" t="s">
+        <v>322</v>
+      </c>
+      <c r="L41" t="s">
+        <v>323</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>324</v>
+      </c>
+      <c r="O41" t="s">
+        <v>63</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="n">
+        <v>3</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>325</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>326</v>
+      </c>
+      <c r="J42" t="s">
+        <v>327</v>
+      </c>
+      <c r="K42" t="s">
+        <v>328</v>
+      </c>
+      <c r="L42" t="s">
+        <v>329</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>330</v>
+      </c>
+      <c r="O42" t="s">
+        <v>85</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>331</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>332</v>
+      </c>
+      <c r="J43" t="s">
+        <v>333</v>
+      </c>
+      <c r="K43" t="s">
+        <v>334</v>
+      </c>
+      <c r="L43" t="s">
+        <v>335</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="s">
+        <v>330</v>
+      </c>
+      <c r="O43" t="s">
+        <v>78</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="n">
+        <v>3</v>
+      </c>
+      <c r="S43" t="n">
+        <v>3</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>3</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>337</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>338</v>
+      </c>
+      <c r="J44" t="s">
+        <v>339</v>
+      </c>
+      <c r="K44" t="s">
+        <v>340</v>
+      </c>
+      <c r="L44" t="s">
+        <v>341</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>342</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>343</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>344</v>
+      </c>
+      <c r="J45" t="s">
+        <v>345</v>
+      </c>
+      <c r="K45" t="s">
+        <v>346</v>
+      </c>
+      <c r="L45" t="s">
+        <v>347</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
+        <v>342</v>
+      </c>
+      <c r="O45" t="s">
+        <v>63</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>348</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>349</v>
+      </c>
+      <c r="J46" t="s">
+        <v>350</v>
+      </c>
+      <c r="K46" t="s">
+        <v>351</v>
+      </c>
+      <c r="L46" t="s">
+        <v>352</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>324</v>
+      </c>
+      <c r="O46" t="s">
+        <v>85</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>354</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>355</v>
+      </c>
+      <c r="J47" t="s">
+        <v>356</v>
+      </c>
+      <c r="K47" t="s">
+        <v>357</v>
+      </c>
+      <c r="L47" t="s">
+        <v>358</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s"/>
+      <c r="O47" t="s"/>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>360</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>361</v>
+      </c>
+      <c r="J48" t="s">
+        <v>362</v>
+      </c>
+      <c r="K48" t="s">
+        <v>363</v>
+      </c>
+      <c r="L48" t="s">
+        <v>364</v>
+      </c>
+      <c r="M48" t="n">
+        <v>2</v>
+      </c>
+      <c r="N48" t="s">
+        <v>365</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>366</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>367</v>
+      </c>
+      <c r="J49" t="s">
+        <v>368</v>
+      </c>
+      <c r="K49" t="s">
+        <v>369</v>
+      </c>
+      <c r="L49" t="s">
+        <v>370</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>365</v>
+      </c>
+      <c r="O49" t="s">
+        <v>85</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>4</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>372</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>373</v>
+      </c>
+      <c r="J50" t="s">
+        <v>374</v>
+      </c>
+      <c r="K50" t="s">
+        <v>328</v>
+      </c>
+      <c r="L50" t="s">
+        <v>375</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>376</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>377</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>378</v>
+      </c>
+      <c r="J51" t="s">
+        <v>379</v>
+      </c>
+      <c r="K51" t="s">
+        <v>380</v>
+      </c>
+      <c r="L51" t="s">
+        <v>381</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" t="s">
+        <v>376</v>
+      </c>
+      <c r="O51" t="s">
+        <v>78</v>
+      </c>
+      <c r="P51" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>3</v>
+      </c>
+      <c r="R51" t="n">
+        <v>3</v>
+      </c>
+      <c r="S51" t="n">
+        <v>3</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>1</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>382</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>383</v>
+      </c>
+      <c r="J52" t="s">
+        <v>384</v>
+      </c>
+      <c r="K52" t="s">
+        <v>385</v>
+      </c>
+      <c r="L52" t="s">
+        <v>386</v>
+      </c>
+      <c r="M52" t="n">
+        <v>2</v>
+      </c>
+      <c r="N52" t="s">
+        <v>387</v>
+      </c>
+      <c r="O52" t="s">
+        <v>78</v>
+      </c>
+      <c r="P52" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>2</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="n">
+        <v>3</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>2</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>388</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>389</v>
+      </c>
+      <c r="J53" t="s">
+        <v>390</v>
+      </c>
+      <c r="K53" t="s">
+        <v>391</v>
+      </c>
+      <c r="L53" t="s">
+        <v>392</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s">
+        <v>393</v>
+      </c>
+      <c r="O53" t="s">
+        <v>114</v>
+      </c>
+      <c r="P53" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>3</v>
+      </c>
+      <c r="R53" t="n">
+        <v>2</v>
+      </c>
+      <c r="S53" t="n">
+        <v>3</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>3</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>394</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>395</v>
+      </c>
+      <c r="J54" t="s">
+        <v>390</v>
+      </c>
+      <c r="K54" t="s">
+        <v>396</v>
+      </c>
+      <c r="L54" t="s">
+        <v>397</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" t="s">
+        <v>393</v>
+      </c>
+      <c r="O54" t="s">
+        <v>78</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>3</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>398</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>399</v>
+      </c>
+      <c r="J55" t="s">
+        <v>400</v>
+      </c>
+      <c r="K55" t="s">
+        <v>401</v>
+      </c>
+      <c r="L55" t="s">
+        <v>402</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3</v>
+      </c>
+      <c r="N55" t="s">
+        <v>393</v>
+      </c>
+      <c r="O55" t="s">
+        <v>114</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>404</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>405</v>
+      </c>
+      <c r="J56" t="s">
+        <v>406</v>
+      </c>
+      <c r="K56" t="s">
+        <v>407</v>
+      </c>
+      <c r="L56" t="s">
+        <v>408</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>409</v>
+      </c>
+      <c r="O56" t="s">
+        <v>85</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>410</v>
+      </c>
+      <c r="X56" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>413</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>414</v>
+      </c>
+      <c r="J57" t="s">
+        <v>415</v>
+      </c>
+      <c r="K57" t="s">
+        <v>416</v>
+      </c>
+      <c r="L57" t="s">
+        <v>417</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>418</v>
+      </c>
+      <c r="O57" t="s">
+        <v>114</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>3</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>3</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>420</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>421</v>
+      </c>
+      <c r="J58" t="s">
+        <v>415</v>
+      </c>
+      <c r="K58" t="s">
+        <v>422</v>
+      </c>
+      <c r="L58" t="s">
+        <v>423</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>424</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>425</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>426</v>
+      </c>
+      <c r="J59" t="s">
+        <v>427</v>
+      </c>
+      <c r="K59" t="s">
+        <v>428</v>
+      </c>
+      <c r="L59" t="s">
+        <v>429</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>418</v>
+      </c>
+      <c r="O59" t="s">
+        <v>85</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>3</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>430</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>431</v>
+      </c>
+      <c r="J60" t="s">
+        <v>432</v>
+      </c>
+      <c r="K60" t="s">
+        <v>433</v>
+      </c>
+      <c r="L60" t="s">
+        <v>434</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s"/>
+      <c r="O60" t="s"/>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>435</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>436</v>
+      </c>
+      <c r="J61" t="s">
+        <v>437</v>
+      </c>
+      <c r="K61" t="s">
+        <v>438</v>
+      </c>
+      <c r="L61" t="s">
+        <v>439</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>440</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>3</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>442</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>443</v>
+      </c>
+      <c r="J62" t="s">
+        <v>444</v>
+      </c>
+      <c r="K62" t="s">
+        <v>445</v>
+      </c>
+      <c r="L62" t="s">
+        <v>446</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3</v>
+      </c>
+      <c r="N62" t="s">
+        <v>440</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>3</v>
+      </c>
+      <c r="R62" t="n">
+        <v>3</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>448</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>449</v>
+      </c>
+      <c r="J63" t="s">
+        <v>444</v>
+      </c>
+      <c r="K63" t="s">
+        <v>450</v>
+      </c>
+      <c r="L63" t="s">
+        <v>451</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>440</v>
+      </c>
+      <c r="O63" t="s">
+        <v>85</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>453</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>454</v>
+      </c>
+      <c r="J64" t="s">
+        <v>455</v>
+      </c>
+      <c r="K64" t="s">
+        <v>456</v>
+      </c>
+      <c r="L64" t="s">
+        <v>457</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s"/>
+      <c r="O64" t="s"/>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>4</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>4</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>458</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>459</v>
+      </c>
+      <c r="J65" t="s">
+        <v>460</v>
+      </c>
+      <c r="K65" t="s">
+        <v>461</v>
+      </c>
+      <c r="L65" t="s">
+        <v>462</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>463</v>
+      </c>
+      <c r="O65" t="s">
+        <v>78</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>4</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>3</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>3</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>464</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>465</v>
+      </c>
+      <c r="J66" t="s">
+        <v>460</v>
+      </c>
+      <c r="K66" t="s">
+        <v>466</v>
+      </c>
+      <c r="L66" t="s">
+        <v>467</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>463</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>3</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>468</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>469</v>
+      </c>
+      <c r="J67" t="s">
+        <v>460</v>
+      </c>
+      <c r="K67" t="s">
+        <v>470</v>
+      </c>
+      <c r="L67" t="s">
+        <v>471</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>472</v>
+      </c>
+      <c r="O67" t="s">
+        <v>53</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>474</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>475</v>
+      </c>
+      <c r="J68" t="s">
+        <v>476</v>
+      </c>
+      <c r="K68" t="s">
+        <v>477</v>
+      </c>
+      <c r="L68" t="s">
+        <v>478</v>
+      </c>
+      <c r="M68" t="n">
+        <v>3</v>
+      </c>
+      <c r="N68" t="s">
+        <v>472</v>
+      </c>
+      <c r="O68" t="s">
+        <v>53</v>
+      </c>
+      <c r="P68" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>3</v>
+      </c>
+      <c r="R68" t="n">
+        <v>2</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>3</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>479</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>480</v>
+      </c>
+      <c r="J69" t="s">
+        <v>481</v>
+      </c>
+      <c r="K69" t="s">
+        <v>482</v>
+      </c>
+      <c r="L69" t="s">
+        <v>483</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>472</v>
+      </c>
+      <c r="O69" t="s">
+        <v>53</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>4</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>4</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>484</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>485</v>
+      </c>
+      <c r="J70" t="s">
+        <v>486</v>
+      </c>
+      <c r="K70" t="s">
+        <v>487</v>
+      </c>
+      <c r="L70" t="s">
+        <v>488</v>
+      </c>
+      <c r="M70" t="n">
+        <v>2</v>
+      </c>
+      <c r="N70" t="s">
+        <v>489</v>
+      </c>
+      <c r="O70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P70" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>1</v>
+      </c>
+      <c r="R70" t="n">
+        <v>3</v>
+      </c>
+      <c r="S70" t="n">
+        <v>3</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>3</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>491</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>492</v>
+      </c>
+      <c r="J71" t="s">
+        <v>493</v>
+      </c>
+      <c r="K71" t="s">
+        <v>494</v>
+      </c>
+      <c r="L71" t="s">
+        <v>495</v>
+      </c>
+      <c r="M71" t="n">
+        <v>3</v>
+      </c>
+      <c r="N71" t="s"/>
+      <c r="O71" t="s"/>
+      <c r="P71" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>3</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>3</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>496</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>497</v>
+      </c>
+      <c r="J72" t="s">
+        <v>498</v>
+      </c>
+      <c r="K72" t="s">
+        <v>499</v>
+      </c>
+      <c r="L72" t="s">
+        <v>500</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>501</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>4</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>4</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>4</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>503</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>504</v>
+      </c>
+      <c r="J73" t="s">
+        <v>498</v>
+      </c>
+      <c r="K73" t="s">
+        <v>505</v>
+      </c>
+      <c r="L73" t="s">
+        <v>506</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>507</v>
+      </c>
+      <c r="O73" t="s">
+        <v>114</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>4</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>4</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>508</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>509</v>
+      </c>
+      <c r="J74" t="s">
+        <v>510</v>
+      </c>
+      <c r="K74" t="s">
+        <v>511</v>
+      </c>
+      <c r="L74" t="s">
+        <v>512</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="N74" t="s"/>
+      <c r="O74" t="s"/>
+      <c r="P74" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>1</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>1</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>3</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>513</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>514</v>
+      </c>
+      <c r="J75" t="s">
+        <v>515</v>
+      </c>
+      <c r="K75" t="s">
+        <v>516</v>
+      </c>
+      <c r="L75" t="s">
+        <v>517</v>
+      </c>
+      <c r="M75" t="n">
+        <v>2</v>
+      </c>
+      <c r="N75" t="s">
+        <v>507</v>
+      </c>
+      <c r="O75" t="s">
+        <v>114</v>
+      </c>
+      <c r="P75" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>3</v>
+      </c>
+      <c r="R75" t="n">
+        <v>1</v>
+      </c>
+      <c r="S75" t="n">
+        <v>2</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>1</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>519</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>520</v>
+      </c>
+      <c r="J76" t="s">
+        <v>521</v>
+      </c>
+      <c r="K76" t="s">
+        <v>522</v>
+      </c>
+      <c r="L76" t="s">
+        <v>523</v>
+      </c>
+      <c r="M76" t="n">
+        <v>3</v>
+      </c>
+      <c r="N76" t="s">
+        <v>507</v>
+      </c>
+      <c r="O76" t="s">
+        <v>53</v>
+      </c>
+      <c r="P76" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>2</v>
+      </c>
+      <c r="R76" t="n">
+        <v>3</v>
+      </c>
+      <c r="S76" t="n">
+        <v>4</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>4</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>524</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>525</v>
+      </c>
+      <c r="J77" t="s">
+        <v>526</v>
+      </c>
+      <c r="K77" t="s">
+        <v>527</v>
+      </c>
+      <c r="L77" t="s">
+        <v>528</v>
+      </c>
+      <c r="M77" t="n">
+        <v>3</v>
+      </c>
+      <c r="N77" t="s">
+        <v>501</v>
+      </c>
+      <c r="O77" t="s">
+        <v>63</v>
+      </c>
+      <c r="P77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>3</v>
+      </c>
+      <c r="R77" t="n">
+        <v>4</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>1</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>529</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>530</v>
+      </c>
+      <c r="J78" t="s">
+        <v>531</v>
+      </c>
+      <c r="K78" t="s">
+        <v>532</v>
+      </c>
+      <c r="L78" t="s">
+        <v>533</v>
+      </c>
+      <c r="M78" t="n">
+        <v>3</v>
+      </c>
+      <c r="N78" t="s">
+        <v>534</v>
+      </c>
+      <c r="O78" t="s">
+        <v>53</v>
+      </c>
+      <c r="P78" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>4</v>
+      </c>
+      <c r="R78" t="n">
+        <v>2</v>
+      </c>
+      <c r="S78" t="n">
+        <v>4</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>3</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>535</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>536</v>
+      </c>
+      <c r="J79" t="s">
+        <v>537</v>
+      </c>
+      <c r="K79" t="s">
+        <v>538</v>
+      </c>
+      <c r="L79" t="s">
+        <v>539</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s"/>
+      <c r="O79" t="s"/>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>4</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>540</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>541</v>
+      </c>
+      <c r="J80" t="s">
+        <v>542</v>
+      </c>
+      <c r="K80" t="s">
+        <v>543</v>
+      </c>
+      <c r="L80" t="s">
+        <v>544</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>534</v>
+      </c>
+      <c r="O80" t="s">
+        <v>53</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>4</v>
+      </c>
+      <c r="S80" t="n">
+        <v>4</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>4</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>545</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>546</v>
+      </c>
+      <c r="J81" t="s">
+        <v>547</v>
+      </c>
+      <c r="K81" t="s">
+        <v>548</v>
+      </c>
+      <c r="L81" t="s">
+        <v>549</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s"/>
+      <c r="O81" t="s"/>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>550</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>551</v>
+      </c>
+      <c r="J82" t="s">
+        <v>552</v>
+      </c>
+      <c r="K82" t="s">
+        <v>553</v>
+      </c>
+      <c r="L82" t="s">
+        <v>554</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s"/>
+      <c r="O82" t="s"/>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>2</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>3</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>555</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>556</v>
+      </c>
+      <c r="J83" t="s">
+        <v>557</v>
+      </c>
+      <c r="K83" t="s">
+        <v>558</v>
+      </c>
+      <c r="L83" t="s">
+        <v>559</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>560</v>
+      </c>
+      <c r="O83" t="s">
+        <v>63</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>4</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>4</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>561</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>562</v>
+      </c>
+      <c r="J84" t="s">
+        <v>563</v>
+      </c>
+      <c r="K84" t="s">
+        <v>564</v>
+      </c>
+      <c r="L84" t="s">
+        <v>565</v>
+      </c>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="s">
+        <v>566</v>
+      </c>
+      <c r="O84" t="s">
+        <v>78</v>
+      </c>
+      <c r="P84" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>3</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>3</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>3</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>568</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>569</v>
+      </c>
+      <c r="J85" t="s">
+        <v>570</v>
+      </c>
+      <c r="K85" t="s">
+        <v>571</v>
+      </c>
+      <c r="L85" t="s">
+        <v>572</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>566</v>
+      </c>
+      <c r="O85" t="s">
+        <v>53</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>4</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>3</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>574</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>575</v>
+      </c>
+      <c r="J86" t="s">
+        <v>576</v>
+      </c>
+      <c r="K86" t="s">
+        <v>577</v>
+      </c>
+      <c r="L86" t="s">
+        <v>578</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s"/>
+      <c r="O86" t="s"/>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>579</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>580</v>
+      </c>
+      <c r="J87" t="s">
+        <v>581</v>
+      </c>
+      <c r="K87" t="s">
+        <v>582</v>
+      </c>
+      <c r="L87" t="s">
+        <v>583</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>584</v>
+      </c>
+      <c r="O87" t="s">
+        <v>114</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>4</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>585</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>586</v>
+      </c>
+      <c r="J88" t="s">
+        <v>587</v>
+      </c>
+      <c r="K88" t="s">
+        <v>588</v>
+      </c>
+      <c r="L88" t="s">
+        <v>589</v>
+      </c>
+      <c r="M88" t="n">
+        <v>1</v>
+      </c>
+      <c r="N88" t="s">
+        <v>584</v>
+      </c>
+      <c r="O88" t="s">
+        <v>63</v>
+      </c>
+      <c r="P88" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>3</v>
+      </c>
+      <c r="R88" t="n">
+        <v>3</v>
+      </c>
+      <c r="S88" t="n">
+        <v>3</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>1</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>591</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>592</v>
+      </c>
+      <c r="J89" t="s">
+        <v>593</v>
+      </c>
+      <c r="K89" t="s">
+        <v>594</v>
+      </c>
+      <c r="L89" t="s">
+        <v>595</v>
+      </c>
+      <c r="M89" t="n">
+        <v>4</v>
+      </c>
+      <c r="N89" t="s">
+        <v>596</v>
+      </c>
+      <c r="O89" t="s">
+        <v>53</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>3</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>3</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>598</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>599</v>
+      </c>
+      <c r="J90" t="s">
+        <v>600</v>
+      </c>
+      <c r="K90" t="s">
+        <v>601</v>
+      </c>
+      <c r="L90" t="s">
+        <v>602</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s"/>
+      <c r="O90" t="s"/>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>5</v>
+      </c>
+      <c r="R90" t="n">
+        <v>5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>604</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>605</v>
+      </c>
+      <c r="J91" t="s">
+        <v>606</v>
+      </c>
+      <c r="K91" t="s">
+        <v>607</v>
+      </c>
+      <c r="L91" t="s">
+        <v>608</v>
+      </c>
+      <c r="M91" t="n">
+        <v>3</v>
+      </c>
+      <c r="N91" t="s"/>
+      <c r="O91" t="s"/>
+      <c r="P91" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>3</v>
+      </c>
+      <c r="R91" t="n">
+        <v>4</v>
+      </c>
+      <c r="S91" t="n">
+        <v>3</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>3</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>610</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>611</v>
+      </c>
+      <c r="J92" t="s">
+        <v>612</v>
+      </c>
+      <c r="K92" t="s">
+        <v>613</v>
+      </c>
+      <c r="L92" t="s">
+        <v>614</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>615</v>
+      </c>
+      <c r="O92" t="s">
+        <v>114</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="n">
+        <v>5</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>616</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>617</v>
+      </c>
+      <c r="J93" t="s">
+        <v>618</v>
+      </c>
+      <c r="K93" t="s">
+        <v>619</v>
+      </c>
+      <c r="L93" t="s">
+        <v>620</v>
+      </c>
+      <c r="M93" t="n">
+        <v>4</v>
+      </c>
+      <c r="N93" t="s">
+        <v>615</v>
+      </c>
+      <c r="O93" t="s">
+        <v>63</v>
+      </c>
+      <c r="P93" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>4</v>
+      </c>
+      <c r="R93" t="n">
+        <v>4</v>
+      </c>
+      <c r="S93" t="n">
+        <v>4</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>3</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>622</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>623</v>
+      </c>
+      <c r="J94" t="s">
+        <v>624</v>
+      </c>
+      <c r="K94" t="s">
+        <v>625</v>
+      </c>
+      <c r="L94" t="s">
+        <v>626</v>
+      </c>
+      <c r="M94" t="n">
+        <v>4</v>
+      </c>
+      <c r="N94" t="s"/>
+      <c r="O94" t="s"/>
+      <c r="P94" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>4</v>
+      </c>
+      <c r="R94" t="n">
+        <v>4</v>
+      </c>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>627</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>628</v>
+      </c>
+      <c r="J95" t="s">
+        <v>629</v>
+      </c>
+      <c r="K95" t="s">
+        <v>630</v>
+      </c>
+      <c r="L95" t="s">
+        <v>631</v>
+      </c>
+      <c r="M95" t="n">
+        <v>4</v>
+      </c>
+      <c r="N95" t="s">
+        <v>632</v>
+      </c>
+      <c r="O95" t="s">
+        <v>114</v>
+      </c>
+      <c r="P95" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>4</v>
+      </c>
+      <c r="R95" t="n">
+        <v>4</v>
+      </c>
+      <c r="S95" t="n">
+        <v>4</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>634</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>635</v>
+      </c>
+      <c r="J96" t="s">
+        <v>636</v>
+      </c>
+      <c r="K96" t="s">
+        <v>637</v>
+      </c>
+      <c r="L96" t="s">
+        <v>638</v>
+      </c>
+      <c r="M96" t="n">
+        <v>4</v>
+      </c>
+      <c r="N96" t="s">
+        <v>632</v>
+      </c>
+      <c r="O96" t="s">
+        <v>53</v>
+      </c>
+      <c r="P96" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>4</v>
+      </c>
+      <c r="R96" t="n">
+        <v>2</v>
+      </c>
+      <c r="S96" t="n">
+        <v>4</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>3</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>639</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>640</v>
+      </c>
+      <c r="J97" t="s">
+        <v>641</v>
+      </c>
+      <c r="K97" t="s">
+        <v>642</v>
+      </c>
+      <c r="L97" t="s">
+        <v>643</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s">
+        <v>632</v>
+      </c>
+      <c r="O97" t="s">
+        <v>53</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>5</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>645</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>646</v>
+      </c>
+      <c r="J98" t="s">
+        <v>647</v>
+      </c>
+      <c r="K98" t="s">
+        <v>648</v>
+      </c>
+      <c r="L98" t="s">
+        <v>649</v>
+      </c>
+      <c r="M98" t="n">
+        <v>1</v>
+      </c>
+      <c r="N98" t="s">
+        <v>650</v>
+      </c>
+      <c r="O98" t="s">
+        <v>63</v>
+      </c>
+      <c r="P98" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q98" t="s"/>
+      <c r="R98" t="s"/>
+      <c r="S98" t="n">
+        <v>1</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>2</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>651</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>652</v>
+      </c>
+      <c r="J99" t="s">
+        <v>653</v>
+      </c>
+      <c r="K99" t="s">
+        <v>654</v>
+      </c>
+      <c r="L99" t="s">
+        <v>655</v>
+      </c>
+      <c r="M99" t="n">
+        <v>5</v>
+      </c>
+      <c r="N99" t="s">
+        <v>656</v>
+      </c>
+      <c r="O99" t="s">
+        <v>63</v>
+      </c>
+      <c r="P99" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q99" t="s"/>
+      <c r="R99" t="s"/>
+      <c r="S99" t="n">
+        <v>5</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>657</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>658</v>
+      </c>
+      <c r="J100" t="s">
+        <v>659</v>
+      </c>
+      <c r="K100" t="s">
+        <v>660</v>
+      </c>
+      <c r="L100" t="s">
+        <v>661</v>
+      </c>
+      <c r="M100" t="n">
+        <v>4</v>
+      </c>
+      <c r="N100" t="s">
+        <v>656</v>
+      </c>
+      <c r="O100" t="s">
+        <v>78</v>
+      </c>
+      <c r="P100" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>4</v>
+      </c>
+      <c r="R100" t="n">
+        <v>5</v>
+      </c>
+      <c r="S100" t="n">
+        <v>4</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>4</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>662</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>663</v>
+      </c>
+      <c r="J101" t="s">
+        <v>664</v>
+      </c>
+      <c r="K101" t="s">
+        <v>665</v>
+      </c>
+      <c r="L101" t="s">
+        <v>666</v>
+      </c>
+      <c r="M101" t="n">
+        <v>5</v>
+      </c>
+      <c r="N101" t="s">
+        <v>667</v>
+      </c>
+      <c r="O101" t="s">
+        <v>53</v>
+      </c>
+      <c r="P101" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>5</v>
+      </c>
+      <c r="R101" t="n">
+        <v>4</v>
+      </c>
+      <c r="S101" t="n">
+        <v>5</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>4</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>668</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>669</v>
+      </c>
+      <c r="J102" t="s">
+        <v>670</v>
+      </c>
+      <c r="K102" t="s">
+        <v>671</v>
+      </c>
+      <c r="L102" t="s">
+        <v>672</v>
+      </c>
+      <c r="M102" t="n">
+        <v>4</v>
+      </c>
+      <c r="N102" t="s">
+        <v>667</v>
+      </c>
+      <c r="O102" t="s">
+        <v>53</v>
+      </c>
+      <c r="P102" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>5</v>
+      </c>
+      <c r="R102" t="n">
+        <v>3</v>
+      </c>
+      <c r="S102" t="n">
+        <v>5</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>3</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s"/>
+      <c r="X102" t="s"/>
+      <c r="Y102" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>673</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>674</v>
+      </c>
+      <c r="J103" t="s">
+        <v>675</v>
+      </c>
+      <c r="K103" t="s">
+        <v>676</v>
+      </c>
+      <c r="L103" t="s">
+        <v>677</v>
+      </c>
+      <c r="M103" t="n">
+        <v>5</v>
+      </c>
+      <c r="N103" t="s">
+        <v>667</v>
+      </c>
+      <c r="O103" t="s">
+        <v>78</v>
+      </c>
+      <c r="P103" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>5</v>
+      </c>
+      <c r="R103" t="n">
+        <v>5</v>
+      </c>
+      <c r="S103" t="n">
+        <v>5</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>5</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s"/>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>679</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>680</v>
+      </c>
+      <c r="J104" t="s">
+        <v>681</v>
+      </c>
+      <c r="K104" t="s">
+        <v>682</v>
+      </c>
+      <c r="L104" t="s">
+        <v>683</v>
+      </c>
+      <c r="M104" t="n">
+        <v>4</v>
+      </c>
+      <c r="N104" t="s">
+        <v>684</v>
+      </c>
+      <c r="O104" t="s">
+        <v>114</v>
+      </c>
+      <c r="P104" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>4</v>
+      </c>
+      <c r="R104" t="n">
+        <v>3</v>
+      </c>
+      <c r="S104" t="n">
+        <v>4</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>4</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>685</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>686</v>
+      </c>
+      <c r="J105" t="s">
+        <v>687</v>
+      </c>
+      <c r="K105" t="s">
+        <v>688</v>
+      </c>
+      <c r="L105" t="s">
+        <v>689</v>
+      </c>
+      <c r="M105" t="n">
+        <v>5</v>
+      </c>
+      <c r="N105" t="s">
+        <v>684</v>
+      </c>
+      <c r="O105" t="s">
+        <v>78</v>
+      </c>
+      <c r="P105" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>5</v>
+      </c>
+      <c r="R105" t="n">
+        <v>5</v>
+      </c>
+      <c r="S105" t="n">
+        <v>5</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>5</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s"/>
+      <c r="X105" t="s"/>
+      <c r="Y105" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>690</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>691</v>
+      </c>
+      <c r="J106" t="s">
+        <v>692</v>
+      </c>
+      <c r="K106" t="s">
+        <v>693</v>
+      </c>
+      <c r="L106" t="s">
+        <v>694</v>
+      </c>
+      <c r="M106" t="n">
+        <v>4</v>
+      </c>
+      <c r="N106" t="s">
+        <v>684</v>
+      </c>
+      <c r="O106" t="s">
+        <v>85</v>
+      </c>
+      <c r="P106" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>5</v>
+      </c>
+      <c r="R106" t="n">
+        <v>4</v>
+      </c>
+      <c r="S106" t="n">
+        <v>5</v>
+      </c>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>3</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s"/>
+      <c r="X106" t="s"/>
+      <c r="Y106" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>695</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" t="s">
+        <v>696</v>
+      </c>
+      <c r="J107" t="s">
+        <v>697</v>
+      </c>
+      <c r="K107" t="s">
+        <v>698</v>
+      </c>
+      <c r="L107" t="s">
+        <v>699</v>
+      </c>
+      <c r="M107" t="n">
+        <v>4</v>
+      </c>
+      <c r="N107" t="s">
+        <v>700</v>
+      </c>
+      <c r="O107" t="s">
+        <v>53</v>
+      </c>
+      <c r="P107" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>3</v>
+      </c>
+      <c r="R107" t="n">
+        <v>5</v>
+      </c>
+      <c r="S107" t="n">
+        <v>4</v>
+      </c>
+      <c r="T107" t="s"/>
+      <c r="U107" t="n">
+        <v>3</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s"/>
+      <c r="X107" t="s"/>
+      <c r="Y107" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" t="s">
+        <v>701</v>
+      </c>
+      <c r="G108" t="s">
+        <v>46</v>
+      </c>
+      <c r="H108" t="s">
+        <v>47</v>
+      </c>
+      <c r="I108" t="s">
+        <v>702</v>
+      </c>
+      <c r="J108" t="s">
+        <v>703</v>
+      </c>
+      <c r="K108" t="s">
+        <v>704</v>
+      </c>
+      <c r="L108" t="s">
+        <v>705</v>
+      </c>
+      <c r="M108" t="n">
+        <v>5</v>
+      </c>
+      <c r="N108" t="s">
+        <v>700</v>
+      </c>
+      <c r="O108" t="s">
+        <v>63</v>
+      </c>
+      <c r="P108" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>5</v>
+      </c>
+      <c r="R108" t="n">
+        <v>5</v>
+      </c>
+      <c r="S108" t="n">
+        <v>5</v>
+      </c>
+      <c r="T108" t="s"/>
+      <c r="U108" t="n">
+        <v>5</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s"/>
+      <c r="X108" t="s"/>
+      <c r="Y108" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>44</v>
+      </c>
+      <c r="F109" t="s">
+        <v>706</v>
+      </c>
+      <c r="G109" t="s">
+        <v>46</v>
+      </c>
+      <c r="H109" t="s">
+        <v>47</v>
+      </c>
+      <c r="I109" t="s">
+        <v>707</v>
+      </c>
+      <c r="J109" t="s">
+        <v>708</v>
+      </c>
+      <c r="K109" t="s">
+        <v>709</v>
+      </c>
+      <c r="L109" t="s">
+        <v>710</v>
+      </c>
+      <c r="M109" t="n">
+        <v>4</v>
+      </c>
+      <c r="N109" t="s">
+        <v>711</v>
+      </c>
+      <c r="O109" t="s">
+        <v>114</v>
+      </c>
+      <c r="P109" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>4</v>
+      </c>
+      <c r="R109" t="n">
+        <v>2</v>
+      </c>
+      <c r="S109" t="n">
+        <v>5</v>
+      </c>
+      <c r="T109" t="s"/>
+      <c r="U109" t="n">
+        <v>5</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s"/>
+      <c r="X109" t="s"/>
+      <c r="Y109" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B110" t="s"/>
+      <c r="C110" t="s"/>
+      <c r="D110" t="n">
+        <v>109</v>
+      </c>
+      <c r="E110" t="s">
+        <v>44</v>
+      </c>
+      <c r="F110" t="s">
+        <v>713</v>
+      </c>
+      <c r="G110" t="s">
+        <v>46</v>
+      </c>
+      <c r="H110" t="s">
+        <v>47</v>
+      </c>
+      <c r="I110" t="s">
+        <v>714</v>
+      </c>
+      <c r="J110" t="s">
+        <v>715</v>
+      </c>
+      <c r="K110" t="s">
+        <v>716</v>
+      </c>
+      <c r="L110" t="s">
+        <v>717</v>
+      </c>
+      <c r="M110" t="n">
+        <v>3</v>
+      </c>
+      <c r="N110" t="s">
+        <v>718</v>
+      </c>
+      <c r="O110" t="s">
+        <v>78</v>
+      </c>
+      <c r="P110" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>3</v>
+      </c>
+      <c r="R110" t="n">
+        <v>4</v>
+      </c>
+      <c r="S110" t="n">
+        <v>5</v>
+      </c>
+      <c r="T110" t="s"/>
+      <c r="U110" t="n">
+        <v>3</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="s"/>
+      <c r="X110" t="s"/>
+      <c r="Y110" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B111" t="s"/>
+      <c r="C111" t="s"/>
+      <c r="D111" t="n">
+        <v>110</v>
+      </c>
+      <c r="E111" t="s">
+        <v>44</v>
+      </c>
+      <c r="F111" t="s">
+        <v>720</v>
+      </c>
+      <c r="G111" t="s">
+        <v>46</v>
+      </c>
+      <c r="H111" t="s">
+        <v>47</v>
+      </c>
+      <c r="I111" t="s">
+        <v>721</v>
+      </c>
+      <c r="J111" t="s">
+        <v>722</v>
+      </c>
+      <c r="K111" t="s">
+        <v>723</v>
+      </c>
+      <c r="L111" t="s">
+        <v>724</v>
+      </c>
+      <c r="M111" t="n">
+        <v>3</v>
+      </c>
+      <c r="N111" t="s">
+        <v>725</v>
+      </c>
+      <c r="O111" t="s">
+        <v>85</v>
+      </c>
+      <c r="P111" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>4</v>
+      </c>
+      <c r="R111" t="n">
+        <v>3</v>
+      </c>
+      <c r="S111" t="n">
+        <v>3</v>
+      </c>
+      <c r="T111" t="s"/>
+      <c r="U111" t="n">
+        <v>3</v>
+      </c>
+      <c r="V111" t="n">
+        <v>0</v>
+      </c>
+      <c r="W111" t="s"/>
+      <c r="X111" t="s"/>
+      <c r="Y111" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B112" t="s"/>
+      <c r="C112" t="s"/>
+      <c r="D112" t="n">
+        <v>111</v>
+      </c>
+      <c r="E112" t="s">
+        <v>44</v>
+      </c>
+      <c r="F112" t="s">
+        <v>726</v>
+      </c>
+      <c r="G112" t="s">
+        <v>46</v>
+      </c>
+      <c r="H112" t="s">
+        <v>47</v>
+      </c>
+      <c r="I112" t="s">
+        <v>727</v>
+      </c>
+      <c r="J112" t="s">
+        <v>728</v>
+      </c>
+      <c r="K112" t="s">
+        <v>729</v>
+      </c>
+      <c r="L112" t="s">
+        <v>730</v>
+      </c>
+      <c r="M112" t="n">
+        <v>4</v>
+      </c>
+      <c r="N112" t="s">
+        <v>731</v>
+      </c>
+      <c r="O112" t="s">
+        <v>63</v>
+      </c>
+      <c r="P112" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>5</v>
+      </c>
+      <c r="R112" t="n">
+        <v>5</v>
+      </c>
+      <c r="S112" t="n">
+        <v>4</v>
+      </c>
+      <c r="T112" t="s"/>
+      <c r="U112" t="n">
+        <v>5</v>
+      </c>
+      <c r="V112" t="n">
+        <v>0</v>
+      </c>
+      <c r="W112" t="s"/>
+      <c r="X112" t="s"/>
+      <c r="Y112" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>17493</v>
+      </c>
+      <c r="B113" t="s"/>
+      <c r="C113" t="s"/>
+      <c r="D113" t="n">
+        <v>112</v>
+      </c>
+      <c r="E113" t="s">
+        <v>44</v>
+      </c>
+      <c r="F113" t="s">
+        <v>733</v>
+      </c>
+      <c r="G113" t="s">
+        <v>46</v>
+      </c>
+      <c r="H113" t="s">
+        <v>47</v>
+      </c>
+      <c r="I113" t="s">
+        <v>734</v>
+      </c>
+      <c r="J113" t="s">
+        <v>735</v>
+      </c>
+      <c r="K113" t="s">
+        <v>736</v>
+      </c>
+      <c r="L113" t="s">
+        <v>737</v>
+      </c>
+      <c r="M113" t="n">
+        <v>3</v>
+      </c>
+      <c r="N113" t="s">
+        <v>738</v>
+      </c>
+      <c r="O113" t="s">
+        <v>53</v>
+      </c>
+      <c r="P113" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>4</v>
+      </c>
+      <c r="R113" t="n">
+        <v>5</v>
+      </c>
+      <c r="S113" t="n">
+        <v>4</v>
+      </c>
+      <c r="T113" t="s"/>
+      <c r="U113" t="n">
+        <v>3</v>
+      </c>
+      <c r="V113" t="n">
+        <v>0</v>
+      </c>
+      <c r="W113" t="s"/>
+      <c r="X113" t="s"/>
+      <c r="Y113" t="s">
+        <v>739</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_555.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_555.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="740">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="851">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>xcski37</t>
+  </si>
+  <si>
     <t>07/07/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>Our room had been recently renovated and was in great shape. Platform king bed with a firm mattress. Everything worked. Good free wifi (not free at some Motel 6s). Room at the back of the complex was very quiet even though the motel is right by the freeway. Some airplane noise from nearby John Wayne Airport. Ten minute drive to the beach.More</t>
   </si>
   <si>
+    <t>Dee S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r576944471-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -219,6 +225,9 @@
     <t>As soon  as we opened the door it smelled moldy. The linoleum on the floor was warped horribly like maybe the room had flooded at some point. The bedspreads had multiple burn holes from cigarettes and numerous sewn patches. The check in staff was friendly.  I'm giving it 2 stars for being close to beach and catching the fairy to Catalina Island but I won't be back. More</t>
   </si>
   <si>
+    <t>fionatheprincess</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r575463880-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -234,6 +243,9 @@
     <t xml:space="preserve">Nicely located right off the freeway and a quick 10 minute drive to the beach and shopping is 5 minutes away. Rooms are reasonably priced and sized. We just needed a place to lay our heads not hang out and relax by the pool and this was it. </t>
   </si>
   <si>
+    <t>SLGTRIPS</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r528509988-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -255,6 +267,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>WineTourFan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r513918157-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -285,6 +300,9 @@
     <t>The two men at the desk were very accommodating.  The online reservation (made weeks in advance) was honored just as it was requested - first floor, handicap access, two beds.  No luxury here.  Just a basic, clean room that looked to be renovated not long before.  About a 30" TV, refrigerator, and microwave were in the room.  Pool is on the premises.  The a/c worked just fine.  Bed linens could have been much softer - maybe I'm super-sensitive but the scratchy sheets kept me awake!  This is an ok place for a short stay.More</t>
   </si>
   <si>
+    <t>1horselover</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r506575716-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -303,6 +321,9 @@
     <t>July 2017</t>
   </si>
   <si>
+    <t>Jane P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r473603275-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -324,6 +345,9 @@
     <t>Chose to stay here after a long day on the road. It wouldn't usually be our first choice, but we were pleasantly surprised (I also checked out the Ali Baba Motel next door first, that place was a dump!). We asked for a room on the top floor to avoid any upstairs neighbour noise. I was a little concerned that the noise from the freeway would be loud, but the clerk gave us a room right at the back of the hotel, and with the air conditioning on we couldn't hear the freeway at all. Others have complained about noisy air con, ours was fine. The room was clean and the beds and pillows comfortable. Oh, and it's right next door to a great pizza joint - Napa Valley Pizza.More</t>
   </si>
   <si>
+    <t>bernadette52659</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r468997995-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -342,6 +366,9 @@
     <t>March 2017</t>
   </si>
   <si>
+    <t>kma715</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r461991062-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -372,6 +399,9 @@
     <t>First night was fine.  2nd night roof leaked and they moved me to ground floor.   At 1AM the SMOKE ALARM went off and the fire bell just outside my door(no fire).   Continued off and on for one hour.  FINALLY GOT TO SLEEP ABOUT 3AM after calling front desk.   Desk person said a technician was coming.  Came back 3PM for a nap.....A G A I N the smoke alarm and fire bell!!!!    Went to desk and DEMANDED to be moved, which they did. They acted like.....why do you want to change room??Of course, all I got was sorry about the fire alarm....NO discount or even comp night for 1 night of lost sleep.Will NEVER stay at a Motel 6 again.   This low class treatment will make me MORE than willing to spend $125 as opposed to $82.......$82 should have been $49.95!!More</t>
   </si>
   <si>
+    <t>Queennie S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r437644664-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -390,6 +420,9 @@
     <t>We had a terrible spending our night in this motel. We complained about the loud sound of their aircon once we turned it on. The sound can be heard in the entrance, that 's how loud it was!!! The manager was nice to check on it but he was not able to fix it and he said he will send the maintenance. The maintenance came in but he said he cannot do anything about it. We have to put it in fan mode so it will not sound too loud.  And they cannot transfer us to another room because he said they're fully booked. So we're not able to get a good rest!More</t>
   </si>
   <si>
+    <t>Buhrdy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r426528640-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -417,6 +450,9 @@
     <t>We needed a spot to crash for one night near Huntington Beach. The hotel had availability and accepted the AAA discount so we went with it. However, the room smelled weird...like stale and cheap cleaning products. I would avoid staying here again if I could. More</t>
   </si>
   <si>
+    <t>Connie19492013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r420346335-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -435,6 +471,9 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>tracerbmx1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r411467316-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -453,6 +492,9 @@
     <t>August 2016</t>
   </si>
   <si>
+    <t>Naomi N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r404100276-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -471,6 +513,9 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>Ayesha S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r401587615-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -486,6 +531,9 @@
     <t xml:space="preserve">This hotel is very nice and clean. The staff were very friendly. It is a prime location to easily get to Huntington Beach as well as many great eateries. Room has been renovated and very nice, elegant touch to it. Rey glad I Picked here. If you are on the fence to stay here or not, just do it!!! You will NOT be disappointed. </t>
   </si>
   <si>
+    <t>rocco11221</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r385312180-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -504,6 +552,9 @@
     <t>June 2016</t>
   </si>
   <si>
+    <t>homesbuydonna</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r372088285-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -522,6 +573,9 @@
     <t>Beware booking online here. They are a straight out thiefs. I had reserved 1 room online and had 1 confirmation # for 1 guestWhen I checked in I was told I made 2 reservations. I explained to the clerk I only reserved 1 room an only needed 1 room for 1 person reservation.They charged for 1 room at 3pm when I checked in.They charged for the second room at 10pm said it was a no call no show fee.I reported to credit card company this fraud.This motel 6 fought this claim 3 times with my credit card company an won.I dont know how you can sleep at night stealing from people. I would not recommend staying here. You could be charged for additional rooms and charged as a NO SHOW?BUYER BEWARE online FRAUD.More</t>
   </si>
   <si>
+    <t>Dionysus38</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r358173086-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -549,6 +603,9 @@
     <t>Yeah, when I think of Motel 6, images of those Breaking Bad roadside hotels come to mind.  This was not it, to our pleasant surprise. The accommodations were mostly new.  It seems that they probably remodeled the place not long ago.  The sleep was comfy, and it's fairly quiet. The only negative is with the towels, which appeared to be somewhat unclean. Otherwise I would give it a 5, given it's good value for being one of the cheapest hotels in the area.More</t>
   </si>
   <si>
+    <t>Jeremy B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r351355345-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -576,6 +633,9 @@
     <t>Very simple, but everything you need to crash while spending a few days in the area. The room was clean and check in was a quick and pleasant experience. The motel is close to Starbucks and a variety of places to eat, not to mention close proximity to the beach. I would stay here again.More</t>
   </si>
   <si>
+    <t>aprilmay48</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r350779717-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -597,6 +657,9 @@
     <t>I watched at the office that the manager was very rude to minority people! The employee treated the minority people no respect at all!!! Room was cleaned but smelly and room was not securely locked afterwards, which was a little concerning.  The night went on the next door and the hallway got louder and VERY much louder and went on well into the early hours of the morning.More</t>
   </si>
   <si>
+    <t>Tennisfamily808</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r350755720-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -612,6 +675,9 @@
     <t>If you're looking for a quick hotel that's clean in Costamesa /Newport area this is good.  The staff was very nice and helpful Fixing my reservation for me which had the wrong bed size.  The parking is free and convenient, free wifi, pool, laundry facility's Convenient location. Would stay here again More</t>
   </si>
   <si>
+    <t>Creeds_gem</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r345911897-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -636,6 +702,9 @@
     <t>We always use mitel 6 no matter where we go. I love the ease of reserving online and if we have to change dates customer service is always friendly and empathic. We are going to ventura in a week and I have no worrys because motel 6 is known well for clean and comfortable rooms.More</t>
   </si>
   <si>
+    <t>Kristian A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r341788238-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -660,6 +729,9 @@
     <t>Oh my goodness, this hotel would be a 4 star hotel if it had a restaurant which is outstanding star rating according to AAA. I have been in the hotel business for over 25 years. I've consulted for marketing for 2 to 5 star hotels to get them the most business for the money people pay. This hotel is right up there with the quality I expect of my hotels. I do the black light test everywhere I stay. I was very impressed, not one mark except for the TV remote and the phone. To management, just have housekeeping wipe that with their cleaning towel every time they clean the room and that will do the trick. The outside is what you would expect at any motor lodge classic/vintage properties. The upkeep is outstanding, new landscaping, very clean paint job throughout. The room, the design is outstanding, presentation is very upscale and modern looking no short cuts on the upgrade here, to the vanities to the bathrooms, the closet (wow an actual closet in a motel 6). Bathroom was tub/shower combo, with the curved shower curtain, even quality inn hotels don't do that. Great job. Tilton at check in was great and everything has been great.More</t>
   </si>
   <si>
+    <t>Michele M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r337736346-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -687,6 +759,9 @@
     <t>I was very busy moving out of my home less than a week prior to Christmas in order to have my wood floors refinished. I needed something close to home and that allowed pets. I booked this hotel sight unseen based upon photos and high favorable reviews on both tripadvisor and Expedia.com. Upon check-in the desk personnel were initially very dismissive/unresponsive. The maid was still in the room, it smelled of bug spray, but was clean aside from the hairs I saw on the mattress cover underneath the fitted sheet. The room was barely bigger than the full size bed. There were sketchy people both in the parking structure and in front of the hotel. My 3rd night there I was awakened by the smell of marijuana smoke. When I reported it to the desk clerk, I was told I could check out right then, or could have a free upgrade the next day. As it was after 11pm at the time, I promptly checked out the next morning. Never, ever, again!More</t>
   </si>
   <si>
+    <t>Louise H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r331997289-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -711,6 +786,9 @@
     <t>Room was clean, quite basic and does not feel homely but was perfect for what we were looking for. If you are looking for luxury then this is not suitable. Secure free parking facilities, we did not use the pool so cannot comment on that aspect. Well placed for exploring costa mesa and newport beach area.More</t>
   </si>
   <si>
+    <t>Martin Z</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r315615241-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -726,6 +804,9 @@
     <t>Like most Motel 6 properties, this one has been remodeled and is very neat, clean and sporty, if certainly spartan and simple.  Everything was in great working order, the pool area was nice and, like all Motel 6 properties, they allow pets for free.  It's in a pretty good location, not far from key area attractions.</t>
   </si>
   <si>
+    <t>Ashley V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r311833365-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -753,6 +834,9 @@
     <t>Terrible! I paid over $189 plus $25 key which they didnt return at check out! The room was dirty had bugs in the room found bugs in the bed, the office staff was rude and wouldnt change the room after a complaint the night manager didnt stop people from knock on my door at strange hours, i was bugged for drugs 3 times and i had my kids with me. i thought i heard gun fire 6 times. we were going to stay for a week but decided to leave and go somewheres else this is the worst motel 6 ever i will never come here again!!More</t>
   </si>
   <si>
+    <t>Aerovergalineas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r299251236-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -771,6 +855,9 @@
     <t>August 2015</t>
   </si>
   <si>
+    <t>Lynn Williams P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r298140715-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -795,6 +882,9 @@
     <t>The rooms are,such more spacious than other Motel 6 hotels - updated, good beds, etc. However, if you have any special needs make sure you call several times before and ask them to tell YOU what they have reserved for you.  I had confirmed a wheelchair accessible room, gone 2 days ahead to preview it, was told it was all ready for us AND guess what?  Upon arrival to move into my prepaid w/chair accessible room, they had given it away!  The other rooms had no access for a wh/chair and they didn't even have a shower chair to put in the tub.  The bathrooms were too small for a wheelchair to fit into, and although they put an plastic poolside chair in the  tub, there was no way to transfer into it.  MAKE SURE YOU CONSTANTLY MONITOR YOUR SPECIAL RESERVATION.  Also, I had made this reservation months ago and luckily had the original email on my iPhone because they wanted to charge me $29 more than my confirmed reservation.  Once I showed it to them and had them call central reservations who verified my price quote, did I get my contracted price.  Buyer beware...More</t>
   </si>
   <si>
+    <t>Esther C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r295471393-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -810,6 +900,9 @@
     <t>Rooms were clean, smelled good. Large tub. Clean parking area. They had doggie poop bags available for people that had brought their dogs. Silent air conditioner. Comfortable king size bed. WII and TV worked great..</t>
   </si>
   <si>
+    <t>Sammy S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r281955114-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -825,6 +918,9 @@
     <t>The parking is to small the attention on the Custumers is too poor and the location on this hotel is noisy a lot. The personal client the room sometime left the room not completely clean. In term the security is complete non onlyOn night and sometime are see.</t>
   </si>
   <si>
+    <t>Veloris M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r277368609-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -846,6 +942,9 @@
     <t>Guess I haven't been to a Motel 6 in a while or this one just wowed me based on past, very past experiences.  I booked this hotel for one night in order not to drive home after an all day concert in Newport Beach.  I called before heading to the concert and was assured my room would be waiting for me whenever I got there - and it was.  The location is great in terms of shopping, hotels and restaurants. Our room was on the third floor (over the underground garage).  While the furnishings were minimalistic, there was slight Miami Beach feel due to the art deco touches.  To my surprise the carpet was gone (thank you J****) and replaced with wood-like laminate.  A king bed with two side tables (no dresser), a central table with 2 chairs and a television mounted on the wall completed the decor.  There was a small refrigerator with a separate freezer and a microwave.  The room was large.  The bathroom had a shower/tub with art deco on the wall in bright yellow that held the towels.  The sink was a modern, top-mounted, bowl.  While I would't want to stay in a dorm-like situation for too many days, for a night or 2 this was doable.  I commented to the clerk, upon leaving, that I had obviously been away too long.  I hope this is the trend in most Motel 6's but, have a feeling...Guess I haven't been to a Motel 6 in a while or this one just wowed me based on past, very past experiences.  I booked this hotel for one night in order not to drive home after an all day concert in Newport Beach.  I called before heading to the concert and was assured my room would be waiting for me whenever I got there - and it was.  The location is great in terms of shopping, hotels and restaurants. Our room was on the third floor (over the underground garage).  While the furnishings were minimalistic, there was slight Miami Beach feel due to the art deco touches.  To my surprise the carpet was gone (thank you J****) and replaced with wood-like laminate.  A king bed with two side tables (no dresser), a central table with 2 chairs and a television mounted on the wall completed the decor.  There was a small refrigerator with a separate freezer and a microwave.  The room was large.  The bathroom had a shower/tub with art deco on the wall in bright yellow that held the towels.  The sink was a modern, top-mounted, bowl.  While I would't want to stay in a dorm-like situation for too many days, for a night or 2 this was doable.  I commented to the clerk, upon leaving, that I had obviously been away too long.  I hope this is the trend in most Motel 6's but, have a feeling this was the Orange County (OC) version - trendy.More</t>
   </si>
   <si>
+    <t>JHKAtlanta</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r276560912-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -861,6 +960,9 @@
     <t>Decent location and price.  Room was nice size and clean.  Fridge and nice flat screen with decent selection.  Great laundry room facilities.  Mattress was on the hard side and was a bit uncomfortable.  Also, water coming out of the tap was foul smelling and tasting-bring your own bottled water.   Only coffee service in the AM.  Wall are not sound proof so expect not to sleep before midnight.Overall, the clean room and the price made up for the shortfalls.</t>
   </si>
   <si>
+    <t>jdpasadenatraveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r255980288-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -888,6 +990,9 @@
     <t>I booked a non smoking room but due to a snafu with my credit card (not Motel 6 fault) the card could not be charged. I called ahead to let them know I would pay with another card upon arrival ASAP.When I arrived they told me they had cancelled the reservation but they found me another room (for which I was grateful). However, upon entering the room, I gagged at the overwhelming stink of stale cigarette smoke. My parents were smokers so I grew up in a heavy smoke environment. I was in Vegas recently (perhaps the last place where public indoor smoking is accepted) and this room was much worse than even the smokiest casinos. I turned on the A/C, opened the door and windows and tried to air the room out but it didn't help much.I had no choice but to sleep in the room (I was on a business trip and I needed to get some rest for a very busy day) but it was a most unpleasant stay. Being woken up at 5 am by loud guests talking and laughing outside my door was another problem but paled in comparison to the cigarette smoke.More than 24 hours after check out my clothes still reek of cigarette smoke.More</t>
   </si>
   <si>
+    <t>Cara L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r248307862-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -906,6 +1011,9 @@
     <t>July 2014</t>
   </si>
   <si>
+    <t>ArcadeEnthusiast</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r247483254-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -924,6 +1032,9 @@
     <t>October 2014</t>
   </si>
   <si>
+    <t>AddictiveX</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r239578076-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -943,6 +1054,9 @@
   </si>
   <si>
     <t>We arrived at motel six thinking we'd get a room a shower, some cockroaches and a parking space and that'd be it... We were very wrong.. We got the friendliest staff we could ask for, a huge room with a king sized bed and a large bathroom and a parking space. The hotel (better than motel style rooms) was in walking distance of two 'dive bars' which is where the locals go and an excellent pizzeria, a little bit further walking and you can get to triangle square (strange oxymoron I know) where there are a lot of sports bars and restaurants (more pricey than the dive bars and pizzeria) these were nice and we spent a while there during our stay. This motel was an excellent base the only minor issue was having to stay on one side of the room for the wifi to work but that was no big deal as we were quite some distance from the repeater.More</t>
+  </si>
+  <si>
+    <t>Jessica S</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r239575852-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
@@ -966,6 +1080,9 @@
 We would definitely stay here again. We didn't experience any problems at all and really enjoyed our stay. We stayed in 6 hotels during our West Coast road trip and this was one of the best (I would say the...My boyfriend and I stayed here in November and on arrival, we were upgraded to a king size room free of charge. The room was big, clean and had a fridge/freezer, microwave, flat screen tv &amp; plenty of sockets to plug in electrical devices. The car park was free and there were always plenty of spaces to choose from. There was also a small pool and seating area around it. The room was cleaned every day &amp; in the 5 nights we stayed there, it was spotless. The staff were extremely helpful and accommodating. They lent us an iron free of charge, gave us plenty of information about the area and also called the Hollywood Motel 6 on our behalf to reserve a parking space, as we were travelling there a few days later. They also gave us their business card and the name of the Hollywood Motel 6's manager incase we experienced any problems. The Motel is situated just off the freeway and is in an area with plenty of other hotels. There is a big supermarket a short walk away and a place called 'Triangle Square' about a mile away that has bars, restaurants, a cinema and shops. We would definitely stay here again. We didn't experience any problems at all and really enjoyed our stay. We stayed in 6 hotels during our West Coast road trip and this was one of the best (I would say the hotel room itself was to the same standard as the rooms in The Stratosphere, Las Vegas, where we stayed at the start of our trip). The only glitch was the wifi wasn't reliable in our room, but we stayed in 309, which is right at the back of the motel, so that was to be expected.Overall great experience and fantastic staff - highly recommended - especially for the price! More</t>
   </si>
   <si>
+    <t>Thomas B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r238212450-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -981,6 +1098,9 @@
     <t>We encountered very friendly staff at this motel. Our room was nicely designed, clean and not very noisy. The beds were comfortable and WiFi worked. The price for the night was reasonable. Nothing to complain, I would visit this motel anytime again.</t>
   </si>
   <si>
+    <t>BelleMel17</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r229238436-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -999,6 +1119,9 @@
     <t>June 2014</t>
   </si>
   <si>
+    <t>Edwina N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r229005635-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1017,6 +1140,9 @@
     <t>September 2014</t>
   </si>
   <si>
+    <t>Carla P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r228006849-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1035,6 +1161,9 @@
     <t>We've stayed here twice now for DR appointments. At the end of August &amp; the beginning of September. We had enough clean towels. Sure it can be noisey as the windows are not double paned. It's nice to have coffee &amp; danish in the morning. I did leave a necklace my 2nd visit &amp; they called about it. Hopefully it will still be around when/if we return! Make sure you bring Everything else you need as there are NO extras here.Phone did not work at all &amp; wasn't replaced or repaired by next visit either. Cable guide was outdated by 2nd stay. Pillows were on the small flimsy side. Paper machine outside didn't work properly causing several lost coins. They could have done better about outside upkeep; cig butts, matches &amp; trash.More</t>
   </si>
   <si>
+    <t>Casanova83</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r220425030-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1053,6 +1182,9 @@
     <t>August 2014</t>
   </si>
   <si>
+    <t>mattsarah1995</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r220358593-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1068,6 +1200,9 @@
     <t>I checked in and immediately turned around. This place was a crack house for hookers and low lives. Please do not go to this place,I really was scared. The room looked like a jail cell. Do not believe any other review. I would challenge anyone to disagree with assessment.</t>
   </si>
   <si>
+    <t>CocoMango83</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r211949052-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1086,6 +1221,9 @@
     <t>We needed a place to stay for a friends birthday bash in Newport Beach. The price couldn't be beat for the location and quality of this motel. Close enough the the bars... Our Uber ride was only $12 to get to Baja Sharkeez. The modern bright decor and "wood" floors is a nice change from the usual drab, icky, gag-inducing comforters and carpet of most motels. I had no idea that the rooms had a mini fridge with a microwave (plus a snack machine around the way). What a nice surprise! They only have enough parking space for 1 car per room (especially when fully booked) but additional cars can park literally around the corner. No parking restrictions. The staff was very pleasant upon check-in and also kind when they had to tell us to quiet down at 3:00 am (so sorry!). This place is great if you're looking for a decent place to stay in the Newport/Costa Mesa area. Just be aware that this may be a popular place for a crash pad for partiers like me and my friends. When I pulled up I saw another group pre-gaming in their room as well. Like other reviewers said, ask for a "quiet room." ;)More</t>
   </si>
   <si>
+    <t>Jennifer C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r206901880-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1104,6 +1242,9 @@
     <t>We stayed for 3 nights and was satisfied with our room for the price we paid. Easy access right next to freeway which sound wise was not a problem for us at all. The hallway could have been cleaned a little better but the room was clean. Daughter was a little concerned about "sketchy" area but once in room was comfortable. The front desk was very nice and when we requested an extra pillow gave us one immediately. Did not use the pool because by time we returned from our activities it was closed. Front desk informed me on check in it closed at 9:30. They do not have any breakfast items but I'm ok about that for price. Plenty of places in area to eat. Could have used a couple more towels but not a deal breaker. For only $60 this was a deal with such a close proximity to the beach areas.More</t>
   </si>
   <si>
+    <t>Pagey84</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r205304222-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1120,6 +1261,9 @@
   </si>
   <si>
     <t>May 2014</t>
+  </si>
+  <si>
+    <t>Susan T</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r204585064-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
@@ -1142,6 +1286,9 @@
 Overall: it was a good deal for the price paid, especially if you aren't really spending much time in the room.  I was impressed by the decent size of the room and the size of the fridge.  Housekeeping did a good job and cleaning the room during our stay.  The neighborhood looks a little sketchy but had no problems, especially walking over to the 24 donut shop in the middle of the night!   I would return to this Motel 6 in the future....A friend &amp; I stayed in room 120 from 4/30-5/6/14 at a cost of $421.  Pros: Clean spacious rooms with 2 double beds, good closet size, good size fridge, no noise, no nasty carpets as it has wood floors, felt safe at this location, close to freeway, 24 donut shop next door.. Cons:  there are no dressers to put your clothes in,  the SHARP TV was horrible as all shows looked like bad bootleg movies, towels were limited and were VERY small and rough to the skin, toilet didnt flush so good, Wifi was not very consistent. rooms do not have hair dryers but the front desk will loan you one if you bring it right back (we kept ours all week), parking can be challenging if you get in late, you will have to park further away and walk to room, the printer in the lobby was not working during the entire wee of our visit.Overall: it was a good deal for the price paid, especially if you aren't really spending much time in the room.  I was impressed by the decent size of the room and the size of the fridge.  Housekeeping did a good job and cleaning the room during our stay.  The neighborhood looks a little sketchy but had no problems, especially walking over to the 24 donut shop in the middle of the night!   I would return to this Motel 6 in the future. Good deal and worth the price!More</t>
   </si>
   <si>
+    <t>Teri R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r201578873-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1157,6 +1304,9 @@
     <t>April 2014</t>
   </si>
   <si>
+    <t>Ilan K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r200421834-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1172,6 +1322,9 @@
     <t>The rooms are nice but the staff is absolutely terrible.  They treat you like you are an inmate and will act like they are owed something for letting you stay there.  Too bad the rooms got upgraded but the staff was not.  I will never ever stay there again.</t>
   </si>
   <si>
+    <t>johntrak</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r196705167-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1190,6 +1343,9 @@
     <t>March 2014</t>
   </si>
   <si>
+    <t>Jnfly84</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r193124389-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1208,6 +1364,9 @@
     <t>January 2014</t>
   </si>
   <si>
+    <t>rtln</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r193076474-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1220,6 +1379,9 @@
     <t>Room 403 is tiny but surprisingly quiet, considering it is directly above the office and right out on the main street.  I could hear people knocking on the door of the adjacent rooms early in the morning, but I was awake already.  Didn't use the WiFi.  I would say this property is about in the 40th percentile of Motel 6's.  Accor runs a decent hotel chain.</t>
   </si>
   <si>
+    <t>ckleetx</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r190999141-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1238,6 +1400,9 @@
     <t>It's what you would expect from a Motel 6...not too much. A very basic motel. Bring your own shampoo and hair dryer as the only thing they provide is bar soap and towels. There wasn't even any tissues. According to the other reviews, the back rooms are quieter. I wouldn't know. I had a room up front, and you can definitely hear the traffic going by. The walls are thin and the area looked rather suspect, but nobody broke into my car or anything. The wi-fi was annoying because you had to reconnect to it about every 5 minutes. The bed was extremely uncomfortable. Good place to stay if you're just looking for some place cheap.More</t>
   </si>
   <si>
+    <t>Rgkattan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r182606260-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1263,6 +1428,9 @@
   </si>
   <si>
     <t>Very well ocated, this remodelled Hotel 6 is very good. The ambiance is very modern and by changing the carpets to solid floors, they have given a good step towards cleaner, healthier hotel rooms. The beds are very confortable, wi-fi works great, service was amiable. Very good hotel indeed.More</t>
+  </si>
+  <si>
+    <t>Lesley S</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r178984130-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
@@ -1294,6 +1462,9 @@
 What you need to...And that's because I took the time to really read everyone's reviews and it is just that - a nice, basic hotel.  Down in the area for an extended 8 day trip - trying to save some money for this unexpected trip.  I travel for work and am in hotels 3-5 nights a month so I knew this was going to be an experience because of the price.  I was staying alone for this period of time too so safety was a concern.  Please read if you want a real objective truth.Check In - Mack was so friendly and helped me get an even cheaper rate than I booked on-line. He let me go look at the room before I signed on the dotted line to ensure I felt safe. Room TIP: If you want the quietest rooms, ask for the rooms above the underground parking lot that's inside the buildings.  The doors to these few rooms don't expose you to the outside parking lot that you see in most the pictures.Room: No nonsense bare bones kind of room.  The hard wood floors were nice, it was clean, there were towels for two, mini fridge with little freezer, microwave, two full size beds that were actually comfortable, a table, free wi-fi that wasn't the fastest but it worked.  The TV was a nice flat screen with two HBO channels that helped me kill time.What you need to bring: Additional towels, soap, hair dryer.Room downside: The mini fridge was a tad loud and the air conditioning wall unit I had to rig sometimes to not shake.  Again - not bad at all - just a heads up.Another thought: I brought my own pillows and towels for this stay.  Unfortunately, I wasn't smart enough to bring colored towels or pillowcase so my pillow case and one towel was swapped out because it was off white colored and matched what was already in the room.  It wasn't their fault how could they know - just a tip to think about.Food: There's vending machines and ice and laundry.  A cute pizza place literally next door with a nice bar and good food.  Location:This location is 10 minutes to get to the pier and park to enjoy the beach all day.  Easy on and off the freeway, it doesn't look like it's in the best neighborhood from the front. However, I had plenty of down time to drive around and quite frankly the neighborhood is real cute and nice all behind the row of hotels where this hotel is located.Would I go back? Absolutely yes.  The price is unbeatable for the area.  It's a clean hotel, very nice helpful customer service, I had no issues being solo for 8 days.  I'm writing the review to share my really positive experience.  I even got a thank you back from Motel 6 from Mack when I filled out a survey after my stay - I liked that touch.More</t>
   </si>
   <si>
+    <t>razzygirl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r178958867-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1309,6 +1480,9 @@
     <t>July 2013</t>
   </si>
   <si>
+    <t>mx_dude</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r176352859-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1324,6 +1498,9 @@
     <t>Stopped here when travelling with a friend past newport beach/huntington beach area. The motel was very good! Rooms were clean and very modern, beds actually fairly comfortable (for motels!). Staff were very helpful, we used the laundry machines whilst there too and also worked and cleaned fine. There is lots of space and pool was quite nice too, although slightly dirty in places this didn't really bother us. Overall this place is great value for a motel! Would definitely recommend.</t>
   </si>
   <si>
+    <t>chefsPGBrowns</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r174541120-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1339,6 +1516,9 @@
     <t xml:space="preserve">We were in town for a funeral and it was near the church and the family home, with a little work on my part, like taking a hot pot so we could make coffee, plus our own cups and soft drinks. I must say the bed was very comfortable, and the AC was quiet , sleeping was great! </t>
   </si>
   <si>
+    <t>Evi55</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r170917153-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1360,6 +1540,9 @@
     <t>We wanted a clean, comfortable, affordable place to stay in Costa Mesa for a couple of nights and this place fit the bill exactly!Rooms are minimalistic but big, beds are comfortable and the bathroom spacious and practical. There is only a simple coat rack to hang some clothes; I would have liked a chest with drawers to put some things away. Now, I kept most of my things in the suitcase on the floor, which was just OK.We asked for a room at the 3rd floor in the back, so we had no noise from the highway. But indeed the walls are paper thin. Our neighbor came to ask if we could turn the TV down a bit, because they had to get up early in the morning. So, be mindful of your neighbors with noise!Parking was convenient; because of the subterranean garage, our car was always cool. There is a laundry room, but the two machines were most of the time occupied and there is no machine for change. The receptionist is not very eager to give you change, so come prepared with quarters if you need to do some laundry.Location was good, with a supermarket and some small restaurants within walking distance.And last but not least: at reception there is a coffee machine, where you can get your daily dose!All in all, this place is good value for money!More</t>
   </si>
   <si>
+    <t>nini0</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r163839943-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1378,6 +1561,9 @@
     <t>the room wasn't a typical motel 6, it was very modern looking, clean good service. i was very surprised on how clean  the rooms were. However we ran into a couple problems. 1. We encountered many extremely slow internet connections during our 3 day stay. 2. Our room key did not work a total of two times and that means we had to walk all the way to the front office (which was quite a ways from our room) 3. the walls are paper thin and can hear people outside. If motel 6 fixes their internet problems and making sure room key works i will come back but i won't be coming back for a while.More</t>
   </si>
   <si>
+    <t>Kathleen L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r163826973-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1393,6 +1579,9 @@
     <t>First of all, remember this is a Motel 6, so do not judge it or expect it to be something it isn't. No amenities - but good price :)  This particular Motel 6 is very clean, very comfortable, newly remodeled.  The person (I believe may be the manager) who helped me a couple of times pre-trip and was also there to check us in the afternoon of arrival, was extremely helpful and pleasant on the phone and was very friendly when we checked in.  Immediately offered anything we might need in the way of extra towels etc. We did not find any needs and our requests were all met pre-arrival.  It is also nice that this Motel 6 has fridge and microwave. The TV screen was good size and the beds were very comfortable. The traveler pics on this site look very true to life. The floor is not carpeted, but a material that looks a bit like hard wood floors. I like this very much because it is easier to expect a very clean floor surface upon arrival, and I traveled with my cat, and it is easy for me to sweep up any tracked litter before I left, so the room is left in good condition.  Our trip was a overnight mini-vacation and the property was very convenient to Newport Pier/Beach were we wanted to go, as well as to dining. It is also a very easy exit...First of all, remember this is a Motel 6, so do not judge it or expect it to be something it isn't. No amenities - but good price :)  This particular Motel 6 is very clean, very comfortable, newly remodeled.  The person (I believe may be the manager) who helped me a couple of times pre-trip and was also there to check us in the afternoon of arrival, was extremely helpful and pleasant on the phone and was very friendly when we checked in.  Immediately offered anything we might need in the way of extra towels etc. We did not find any needs and our requests were all met pre-arrival.  It is also nice that this Motel 6 has fridge and microwave. The TV screen was good size and the beds were very comfortable. The traveler pics on this site look very true to life. The floor is not carpeted, but a material that looks a bit like hard wood floors. I like this very much because it is easier to expect a very clean floor surface upon arrival, and I traveled with my cat, and it is easy for me to sweep up any tracked litter before I left, so the room is left in good condition.  Our trip was a overnight mini-vacation and the property was very convenient to Newport Pier/Beach were we wanted to go, as well as to dining. It is also a very easy exit off of Hwy 55. We decided to check out South Coast Plaza and the property sat equal distance between the Mall and the Beach so this was also a pleasant surprise.  All in all, I would recommend this Motel 6 to others desiring a similar visit to the Costa Mesa/Newport area. On additional pleasant surprise was the parking on site was very good and the property looked well maintained.More</t>
   </si>
   <si>
+    <t>kateasmith</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r161927363-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1408,6 +1597,9 @@
     <t xml:space="preserve">Newly refurbed motel, about $10 dollar taxi ride into Newport beach area. Had to ask for more pillows. The fixtures and fitting are above standard for motel 6, overall a good base. For a great dinner try the blue water grill in Newport. </t>
   </si>
   <si>
+    <t>Hellsumz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r158997163-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1426,6 +1618,9 @@
     <t>April 2013</t>
   </si>
   <si>
+    <t>1123410</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r158993612-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1438,6 +1633,9 @@
     <t>Great price! This was a super short hotel stay for me - arrived in the middle of the night and left around 11am. The bed was super comfortable. The room was neat and tidy. The shower was average - was one of those tiny shower heads which shoots into your body not above your head. Free WIFI and space to park.  So close to the airport which was the reason for our stay. I'd stay here again.</t>
   </si>
   <si>
+    <t>tut4u2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r158987414-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1456,6 +1654,9 @@
     <t>Didn't really know to expect when I booked this motel when I arrived I pleasantly surprised. Checking in went smoothly and we were upgraded to one of their newer 'European' style rooms which was clean and well maintained.The front desk manager Moe was very friendly and called in to check on us after we settled in to make sure that the room was up to far and that we didn't need anything else.I had booked 4 days, but I had to cut my trip short and leave early. Moe was extremely helpful and told me that he would refund me the unused days and within a couple of mins everything was taken care of.Great service from my personal experience, clean rooms, and close to 405 so you have easy access to the freeways.More</t>
   </si>
   <si>
+    <t>IdaKatarina</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r146435813-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1471,6 +1672,9 @@
     <t>Clean, big rooms. Budget-friendly. Helpful staff at the reception. Bad location, next to the freeway (noisy) and far away from everything, okay for 1- 2 nights. Extremely slow wifi, annoying when you're on vacation and want to check sights and restaurants.</t>
   </si>
   <si>
+    <t>Christopher P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r144687299-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1486,6 +1690,9 @@
     <t>We stayed two nights across a weekend, in two separate rooms, and we were very pleasantly surprised!  The rooms were better than we expected for the cost, and having WiFi, pool, and access to a laundry room thrown in was also nice.  We got there right at check-in time, so our room wasn't ready, but a cleaning lady was quick to clean it up very well.  Staff was helpful and cheerful, and for a 'roadside motel' kind of place, it was very nice.  Definitely worth the low price!</t>
   </si>
   <si>
+    <t>pno2ner</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r143252266-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1507,6 +1714,9 @@
     <t>My wife and I stayed there for two nights and were disappointed.  Our reservations were waiting and check-in was no problem.  However the first thing that greeted us in our room was no carpet on the floor.  The place was reasonably clean, but bare bones.  The big problem was a HORRIBLE smell from the bathroom.  It permeated the room and we had to close the bathroom door to escape it.  Really BAD.  It looked clean, but must have been plumbing like a bad seal between the toilet and the floor.  We complained and should have changed rooms, but it was late and we didn't.  We also had trouble with our room keys not working the second night.  I have to say the linens were clean and the beds were comfortable, but should have gone to the Ali Baba motel next door.More</t>
   </si>
   <si>
+    <t>edz34</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r142131939-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1522,6 +1732,9 @@
     <t xml:space="preserve">This is the best motel 6 that I have seen! Very clean. It is in a quiet neighborhood. It is near the airport. It is very updated. Nice tv and bathroom. Linens were very nice. Front desk guy was patient when I had a problem with the key. The bad:Internet didn't work. Nothing is very close.  If the Internet worked I would highly recommend this place. </t>
   </si>
   <si>
+    <t>surfzen</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r142103458-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1543,6 +1756,9 @@
     <t>We drove up from Carlsbad for a Friday night family get together and rather than driving back that night we decided to stay close to Balboa/Newport/Lido Isle to take a walk down memory lane when we were kids vacationing on Balboa.  This Motel 6 is one of the refurbed in the way of European efficiency units at Paris CDG.  They have done a good job and the rooms are above average in size.  We found a French bistro just down the road in Newport and had brunch on the water overlooking Lido Isle back of Villa Nova on Sunday morning.  Pool, Jacuzzi, flat panel tv and wifi..walking distance to the Orange County Fairgrounds too.More</t>
   </si>
   <si>
+    <t>Lina005</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r142074130-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1558,6 +1774,9 @@
     <t>September 2012</t>
   </si>
   <si>
+    <t>ganogirl79</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r140891511-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1573,6 +1792,9 @@
     <t>Nicely decorated but it had a septic smell and the floor we coming up I'm sure from pet pee...it smelled like urine!! Was close to beach for price, and maybe it was just that certain room I got but it was horribly stinky!! Wifi is slow and hdmi didn't work, no shampoo or conditioner but did have mini fridge and microwave! Would not stay here again, I will pay $30 more for better hotel...but hey, this is the Motel 6 not the 4 seasons!!</t>
   </si>
   <si>
+    <t>Kay-Dee-Did</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r139897267-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1591,6 +1813,9 @@
     <t>Though I thought the rooms were nice and clean, the pool was a mess and it seems like no one picks up after their dogs because the grounds had dog poo all over.No shampoo or conditioner as they said in earlier posts.  The real problem that I have is that when I got home, I realized I had left a bag of things that included my prescription glasses, a nice bracelet, and an unopened game for my DS.  When I called the hotel, the cleaning staff had not turned it in which is the same thing as stealing in my mind.  I'd watch your stuff closely because the next progression may be stealing out of your room while you're there.More</t>
   </si>
   <si>
+    <t>PhilPorterRanch</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r139306511-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1606,6 +1831,9 @@
     <t>We stayed here one night and left labor Day. No amenities - shampoo, coffemaker, dresser?. Wife felt she was in a prison cell. I though it was ok, bed was comfortable, flat screen tv. Would rather spend $20.00 more and get a dresser, coffee maker, and maybe a small breakfast.</t>
   </si>
   <si>
+    <t>Mac J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r136324132-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1621,6 +1849,9 @@
     <t>This was a good place to stay for the price, very clean and looks newly renovated. For a Motel 6 I was very surprised. It also has easy acess to Newport and Huntington Beach. I woud've rate it higher but the customer service was bad. Had some issues regarding the room and couldn't get anyone on the phone and when I did was blown off by the by front desk staff. The WYFY was terrible too.  Couldn't get online at all.</t>
   </si>
   <si>
+    <t>Sami T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r136014715-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1639,6 +1870,9 @@
     <t>July 2012</t>
   </si>
   <si>
+    <t>Emilly1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r135851881-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1654,6 +1888,9 @@
     <t xml:space="preserve">Wonderful stay, all staff were extremely helpful and friendly. Really good value compared to local hotels, and good location, only 10 mins from all local beaches and shops. Rooms were modern and clean with good facilities, microwave and fridge, air conditioning and free wifi, which has been invaluable. </t>
   </si>
   <si>
+    <t>Amanda C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r134587995-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1669,6 +1906,9 @@
     <t>We stayed during the week so we didnt experience the loud noise that some revewers did. They have free wifi and cable with more than 5 channels, unlike big chain hotels. The room was very clean, the staff was very friendly and the location good. I like the modern look these rooms have.</t>
   </si>
   <si>
+    <t>floracupcake</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r134487979-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1684,6 +1924,9 @@
     <t>Staff was very friendly! The rooms look awesome!!  The decor and the hardwood floors look great. Plus it was CLEAN!! I have stayed at a Motel 6 before and by far this is the best one. I usually do not like to stay at Motel 6 just because the ones I have stayed in before were not clean and comfortable. But I will definitely stay here again on my next visit.</t>
   </si>
   <si>
+    <t>Clairesnd</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r133142081-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1699,6 +1942,9 @@
     <t>Pleasently suprised with rooms. Buses were frequent enough if u planned ahead. Staff werent overly helpful but great price</t>
   </si>
   <si>
+    <t>acquirer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r129962634-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1717,6 +1963,9 @@
     <t>May 2012</t>
   </si>
   <si>
+    <t>houstontosandiego</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r128586384-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1738,6 +1987,9 @@
     <t>Rooms seemed somehow cleaner because of the laminate floors in my room, and the decor was rather Euro-hotel, which is fine, since the room was extremely small, although with an effective use of the space. So, leave your bar bells or yoga mat in the trunk.  My own 6'5" frame realized that there is not a lot of room to stretch out.The sole minor complaint that I have is the crazy maze to my car from the 2 story room, which required me to walk around the lobby through a small garden and then up 2 flights of stairs, although I could actually see my car from my room's window directly below.  Great location; there's a smaller Stater Brothers grocery store nearby, and Beach Blvd with all of the shopping and restaurants is a few streets over.  Irvine biz center very close as is the John Wayne airport.More</t>
   </si>
   <si>
+    <t>jay045</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r128361956-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1756,6 +2008,9 @@
     <t>We almost drove past this when we saw that it was located next to a cheesy hotel (Alibaba) that conjures up images of cheap, party motel. But the rooms where, as stated here, un-Motel 6 like: hip, with stylish fixtures, laminate floors and nice lighting. The staff were friendly enough, and we were happy to find a place where our dogs could stay without an exorbitant pet fee. The location is decent and convenient enough: I walked a few blocks to pick up some Thai food one night, and there's a sub/pizza place right next door. Bring your own shampoo and breakfast (I had to chuckle at one of the only negative reviews that harped on this!).More</t>
   </si>
   <si>
+    <t>missrach_walk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r125009166-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1771,6 +2026,9 @@
     <t xml:space="preserve">Only stayed here for 2 nights. We had our own hire car so the location was fine for us. It's not really close to anything walking distance but if you have a car it's great. The receptionist was so nice to us and really helpful, he gave us a 10% discount for being foreigners! The room was really spacious, massive comfy bed, TV with cable, little fridge, freezer and microwave which was handy. Laundry to use at the hotel aswell oh and a nice pool area (not that we used it). There were smoking and non smoking rooms. No negatives about this hotel. Great for the price. </t>
   </si>
   <si>
+    <t>Andre M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r124908089-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1789,6 +2047,9 @@
     <t>February 2012</t>
   </si>
   <si>
+    <t>t r</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r124561864-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1807,6 +2068,9 @@
     <t>We have stayed at about 30 different motel six's and the staff at the Newport Blvd hotel was rude as hell. Our puppy had an accident and we requested new bedding, was just wanting bedding to make the bed myself. The staff member ranted and raved about us training our puppy and came back and forth to the room several times, then the manger called the room and then came back to the room to yell at me, and hand me a copy of the pet policy and told me that he was going to charge me for the bedding, it was a pug puppy so not as if it was a huge mess. We left early. Nice pool and hot tub, but was locked. Noisy at night was woken up at 3 am to porno noises in the next room. Family friendly???? Pet friendly???More</t>
   </si>
   <si>
+    <t>ms883</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r122123162-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1828,6 +2092,9 @@
     <t>As I noted in my first review of this motel, laminate flooring makes this Motel 6 a cut above. You can tell it is clean. We use hand towels as "bed mats" to insure our feet are clean getting into bed.  At our last visit, we paid $55.00 for Christmas eve/day.  This is not a resort.  You are 2-3 miles from the beach.  The motel itself is clean (hallways, elevators, etc.).  Remember, this is a Motel 6 and some things are "quirky."  Room numbers are not traditional, we were in room 30x and it was on the 2nd floor, not 3rd.  We were upgraded to a king room with frige and micro wave (no additional charge).  Free parking. Well lit. Once again, we will return, although beds should be replaced!More</t>
   </si>
   <si>
+    <t>Cha1Cha55</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r121996823-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1846,6 +2113,9 @@
     <t>Omg! Motel 6's anywhere else are so run down and dirty. In California it was sooooo nice! For the price it was a steal-we just needed a quick 2 day stay so it was perfect. Hard wood floors-loved it. Our own fridge--perfect we had cokes and food with us, Flat screen tv-great! Big mirror with vanity lights-wish I had that at my home! Plus the room was big and I liked how the sink was detached from the shower and toilet room. Other places have them together and while my fiancé showered I could put on my makeup. Only concern-no drawers?? Just a closet with a few hangers. But it was ok with us.bMore</t>
   </si>
   <si>
+    <t>artistkay92101</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r121871931-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1864,6 +2134,9 @@
     <t>While looking for a more reasonable place to spend a night in OC, I saw the reviews for this Costa Mesa Motel 6.  The location was good and the reviews were encouraging. For the price, I had no problem with the decor of the room.  And actually, it was almost identical to the rooms in the Ibis chain in France.  The mattress was very good.  However there were no niceties, no extra blanket (in fact, no blanket at all!), and we could hear the showers and TVs in rooms next door and one floor above.  The outside temps were cool and we had to turn on the heater, then get up during the night and turn it off, then on again, etc.  While the room was clean, the exterior walkways were not, with many cigarette butts and over filled trash receptacles.  The garage and walkways need a major pressure washing.  So, as I reread the 4 star reviews, I have to wonder if they are legitimate reviews!  More</t>
   </si>
   <si>
+    <t>StevenGoneTraveln</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r121149546-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1882,6 +2155,9 @@
     <t>November 2011</t>
   </si>
   <si>
+    <t>cabowithkids</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r121104805-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1900,6 +2176,9 @@
     <t>Our family of 4 (2 parents, 8 and 11 year old children) stayed here over Thanksgiving while visiting extended family. Positives: The spiffy room decor was a welcome relief from that of some other places we've stayed at. Room was clean. We all really appreciated the hard surface flooring instead of carpeting. Also appreciated the fridge and microwave. Nice flat screen TV. Efficient heater, not too loud, as some can be. Convenient, safe location. We were able to park close to our room.Needs improvement: Bathrm toilet seat was not fully connected to toilet - should've been noticed by housekeeping and fixed by maintenance before offering rm. Evening front desk staff had a slight attitude when I called and asked about more bath towels - there were 4 of us in the room and only 2 bath towels. Strong cigarette smoke odor outside our rm even though our rm was non-smoking. Also, it'd be nice if the rooms had clock radios with alarms - hard to know what time it was. Mattresses were a tad bit on the hard side. Black out curtain didn't fully black out all the exterior nighttime light. I'd stay there again if we could get the same rate (under $60/night for 2 double beds, 2 adults, 2 children), unless we could find a place with an indoor heated pool. (This property's pool was outdoors.)More</t>
   </si>
   <si>
+    <t>Huffysworld</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r120760578-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1915,6 +2194,9 @@
     <t>The location of this hotel was great - close to Newport Beach, close to the freeways and close to food and stores. The value was excellent: the room was clean and stylishly remodeled and the manager on duty during my check-in was one of the nicest hotel managers I've encountered. He made us feel like we were checking in to a Hilton.</t>
   </si>
   <si>
+    <t>hobojojo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r119593017-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1936,6 +2218,9 @@
     <t>Motel 6 in Costa Mesa is definitely one of the cheapest places to stay for what you get (I did my research!), and what you get is impressive. First off the owner and reception were most welcoming and upgraded me for $18 a week extra to a larger room at the back with King size bed (I'd originally booked the cheapest room available). They phoned up shortly after I'd settled to check everything was ok. The bed was huge and quite comfy, there is free wi-fi (which doesn't lose connection like some other hotels had that I'd stayed at). Fitments are modern and sleek with fridge, microwave, flatscreen TV and room under the bed to put your bags out of the way. I would have like a little more storage space for clothes as I was staying for long than a few days, however this is a small quibble and also the choice of channels on the TV was only about 30 cable channels and image quality not that great. Everything was clean and I love the bamboo floors rather than typical hotel carpeting. The motel had more than enough car parking space with underground parking towards the back (where I also safely chained by bike for a few days). An added unexpected bonus was the outdoor hot tub which was lovely and warm and small pool/sunbathing area. This a useful motel to stay at if you have a car...Motel 6 in Costa Mesa is definitely one of the cheapest places to stay for what you get (I did my research!), and what you get is impressive. First off the owner and reception were most welcoming and upgraded me for $18 a week extra to a larger room at the back with King size bed (I'd originally booked the cheapest room available). They phoned up shortly after I'd settled to check everything was ok. The bed was huge and quite comfy, there is free wi-fi (which doesn't lose connection like some other hotels had that I'd stayed at). Fitments are modern and sleek with fridge, microwave, flatscreen TV and room under the bed to put your bags out of the way. I would have like a little more storage space for clothes as I was staying for long than a few days, however this is a small quibble and also the choice of channels on the TV was only about 30 cable channels and image quality not that great. Everything was clean and I love the bamboo floors rather than typical hotel carpeting. The motel had more than enough car parking space with underground parking towards the back (where I also safely chained by bike for a few days). An added unexpected bonus was the outdoor hot tub which was lovely and warm and small pool/sunbathing area. This a useful motel to stay at if you have a car as it's just a 10-15 min drive to Newport beach, about 10 mins to Sears going north and pretty close to many other shopping stores such as K-Mart, TJ Maxx and Albertsons. I'm also into fitness walking and found a great trail going along upper Newport Harbour (2 mins drive up the road). All in all this is great value for money and I would definitely recommend it.More</t>
   </si>
   <si>
+    <t>Roberto R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r119313202-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1951,6 +2236,9 @@
     <t>Place is really really good. It's been remodeled recently so everything is new and clean. Room are good designed, comfortable and of course clean. The only flaw with the room is some burns on the sheets and blankets, but I think the main fault is on the rudeness of the guests!! I wish all the motels would be like this one! The price is absolutely worth it for these standards (70$).</t>
   </si>
   <si>
+    <t>dizystarrs</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r119001059-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1969,6 +2257,9 @@
     <t>We stayed here during a weekend trip to visit friends in the area. We had stayed at a different Motel 6 recently so knew what to expect. The motel was very clean and everything had been recently remodeled. The rooms are very modern and sleek looking. The staff was very friendly and check in/out was a breeze. When we checked in they upgraded us to a King Room for free (which was nice because this gave us a nice view of the sunrise over the mountains from the room!) The beds are super comfortable and we slept so well while we were there (I dont ever remember hearing noise from surrounding rooms either) There was a microwave and mini fridge in the room but we didnt use these. They dont have hairdryers in the room which was a bit of an inconvenience. For the price of the motel it was a very comfortable, clean and quiet place to spend the weekend.More</t>
   </si>
   <si>
+    <t>goofyname</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r116060800-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -1987,6 +2278,9 @@
     <t>July 2011</t>
   </si>
   <si>
+    <t>scotland1932</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r113531342-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -2005,6 +2299,9 @@
     <t>June 2011</t>
   </si>
   <si>
+    <t>motel6guest</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r112722665-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -2020,6 +2317,9 @@
     <t>If you are looking for a place to overnight, and do not want to pay much, this is it. In a convenient location, with wireless internet and friendly receptionists.</t>
   </si>
   <si>
+    <t>sunnydays007</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r105161058-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -2038,6 +2338,9 @@
     <t>April 2011</t>
   </si>
   <si>
+    <t>sswksq</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r104855767-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -2053,6 +2356,9 @@
     <t>I read other reviews of this Motel 6 and decided to try it...It is very nice indeed!  The   remodeled rooms are very modern/chic looking and I loved the "bamboo look" floors...so much nicer than carpeting. Check in was fine. The area is not the greatest but it is easy to get to the Orange Co. airport and Newport Beach from there.  It was a great value for the area.</t>
   </si>
   <si>
+    <t>Chicagomom5</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r103789402-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -2071,6 +2377,9 @@
     <t>I picked this room because of the great reviews on Tripadvisor, and I was on a tight budget, but I was still a little wary because I had never stayed at a Motel 6 before.  It exceeded my expectations!  First of all, I loved the IKEA-like room with simple, sleek, clean-lined furniture.  The bed was super comfortable and the bedspread was a nice clean cotton coverlet.  Appreciated the cleanliness of the vinyl floors, as well as the micro/fridge combo.  Pool was next to parking lot but looked super clear and clean.  Felt safe there as a single traveler, although I did not walk around the neighborhood.  Only things I would mention if you book there: bring shampoo, a hairdryer, and definitely an alarm clock, since none of those is in the room.  Also, since pets are allowed, I occasionally heard a dog howling or barking.  But, all in all, I would highly recommend this hotel if you need to stay in the area.  It was about a 10 minute drive to the beach and close to a grocery store and other shopping.  Highly recommend!More</t>
   </si>
   <si>
+    <t>menlokaren</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r98453145-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -2089,6 +2398,9 @@
     <t>February 2011</t>
   </si>
   <si>
+    <t>bunk999</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r96547050-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -2104,6 +2416,9 @@
     <t>the value, cleanliness, friendliness and location were all 5 star! Mack made sure we were happy with the room by phoning up shortly after we checked in. the rooms were GREAT! Ikea furnished, nice big LCD TV, and the beds were ideal. Firm, slightly military in style but i slept like a rock. No carpet in the rooms just woodgrained tile floors, more motels ought to get that clue. this motel ought to be the flagship for Motel 6, its was immaculate..</t>
   </si>
   <si>
+    <t>DEMatthias</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r96389074-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -2137,6 +2452,9 @@
     <t>November 2010</t>
   </si>
   <si>
+    <t>90725</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r86698259-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -2150,6 +2468,9 @@
   </si>
   <si>
     <t>I thought being a Motel 6 this would not be an awesome choice but as we were on a budget it was the logical choice.I love the fact that it is near the freeway and a 15 minute drive from Disney Land!!! It was perfect for our needs. The beach is only 5 blocks away and shopping in this area is Awesome!!!The rooms were so fresh and clean and the hotel area is very safe!!!The staff were great people so friendly.I would say that the next time I go to California I will be staying here.</t>
+  </si>
+  <si>
+    <t>miz_pepla</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r73945986-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
@@ -2175,6 +2496,9 @@
 As far as location goes, it's a mixed bag. It's probably not ideal for most travelers (although it was perfect for me.) It's on the frontage road of the 55 Freeway, and it wasn't a quiet...I chose this motel for my five-night stay due to the price and because it is within walking distance of a family member's house. I wasn't expecting much, but I was pleasantly surprised to find a clean and simple room, newly remodeled in a modern style, with a big-screen t.v. Don't expect lots of "amenities" -- this is a comfortable place to sleep at a budget price in a very pricey area. However, there was a fridge/microwave in the room, which I didn't expect. The floors are not carpeted, I'm happy to say - hard floors, maybe Pergo type. (Motel carpeting is something I try not to think about. Ick.) I saw underground parking towards the back of the motel, but I didn't use it or ask about it. The young desk employee who checked me in was casual but friendly. For the rest of my stay the owner was in the office, and he was a sweet and kind man who made me feel like every customer is important to him. The only bad thing I can say about the service is that the morning coffee was dreadful -- not a huge surprise. (Never fear, espresso drinkers, Starbucks are in abundance in Newport.)As far as location goes, it's a mixed bag. It's probably not ideal for most travelers (although it was perfect for me.) It's on the frontage road of the 55 Freeway, and it wasn't a quiet place to stay. (I just turn on the fan of the heat/cool unit for white noise.) The immediate neighborhood along the freeway is far from fancy, and as a solo female traveler I didn't feel comfortable walking around at night. A small grocery store is just a block away, but no restaurant nearby, so there isn't much reason to walk around at night. The motel itself and the parking area were fine and felt safe. There is nothing pretty to look at here - no view, no gardens, etc. This is not the place to stay if you're looking for a beach vacation or resort area.On the other hand, if you don't mind driving you are within about five minutes of plenty of restaurants, shopping, etc. And you can be down at Newport Beach nearly that fast, with all kinds of food and fun. Ten minutes away is the Fashion Island center, if one is interested in more upscale food and retail, or movie theaters. Behind the motel is a pretty residential area, fine for a walk or a run, and a little further is the Newport Back Bay which has a few trails and a visitor's center for the nature reserve. (If you are traveling with kids who need a distraction, the visitor's center has nature activities and walks just for kids.) The Santa Ana/Orange County airport is maybe 15 min. away if you are flying.More</t>
   </si>
   <si>
+    <t>Awarely</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r62145051-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -2196,6 +2520,9 @@
     <t>This Motel 6 is modern and convenient with many fine shopping and eating options within driving distance.  I appreciated the digital, flat screen tv and the large King sized bed. However, I prefer carpeting on the floor and interior corridor facing rooms. I saw nothing unsafe about the neighborhood or the facility, as suggested by someone else, and the clerk was very friendly and helpful.  The free WiFi was very good and the room had a fridge.  However, you have to ask for more than minimum towells and the only toiletries were two small soap bars--not a problem for me and the owner has to scrimp somewhere to offer a low price.  Room layout did not permit sitting at built-in table while watching tv.  Hotwire gave me this for $10 off the $60 normal cost.More</t>
   </si>
   <si>
+    <t>SDNX</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r61997953-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -2214,6 +2541,9 @@
     <t>February 2010</t>
   </si>
   <si>
+    <t>s777hamm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r59033369-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
   </si>
   <si>
@@ -2233,6 +2563,9 @@
   </si>
   <si>
     <t>This motel  used to be a hole in the wall for yearsHowever since becoming a motel 6 and being completely redone it is the nicest motel 6 by far. You dont get many extras but the rooms are clean new nice with bigscreen tv free internet  hbo and the parking is great and the location is great. I think it is family owned  The owner is very friendly and kool.The next night i stayed at the crowne plaza in irvine and I found myself wishing i had stayed at this motel 6 againthis motel will do very well as a motel 6 very smart owner and the rooms are designed very very wisely and maximize space with plenty of electrical outlets which most hotels are missing. this was designed with the understanding that people are going to travel with a laptop blue tooth and cell phone that are all going to require an outlet to charge.it beats crawling around on the floor at most motels and unplugging lamps to use the outlet.  speaking of lamps they have wall fixtures and this is so smart because all a lamp ever does in a motel is take up the space on the nightstands and its just silly.this is the best value in the area and is surprisingly comfy and enjoyableMore</t>
+  </si>
+  <si>
+    <t>tambo26</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32253-d1474313-r40508344-Motel_6_Newport_Beach-Costa_Mesa_California.html</t>
@@ -2758,43 +3091,47 @@
       <c r="A2" t="n">
         <v>17493</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2812,56 +3149,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>17493</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2873,56 +3214,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="X3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Y3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>17493</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2936,50 +3281,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>17493</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="L5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="O5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P5" t="n">
         <v>4</v>
@@ -2997,50 +3346,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>17493</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>83</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="L6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="O6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="P6" t="n">
         <v>3</v>
@@ -3058,56 +3411,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="X6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="Y6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>17493</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>94</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="J7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="K7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="L7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="O7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P7" t="n">
         <v>4</v>
@@ -3125,50 +3482,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>17493</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>101</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="J8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="K8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="L8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="O8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -3182,50 +3543,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>17493</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>109</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="J9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="K9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="L9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="O9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -3239,50 +3604,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>17493</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>116</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="J10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="K10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="L10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="O10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -3298,47 +3667,51 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="X10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="Y10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>17493</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>127</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="J11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="L11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
@@ -3357,50 +3730,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>17493</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>134</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="J12" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="K12" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="L12" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="O12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3412,56 +3789,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="X12" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="Y12" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>17493</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>144</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="J13" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="K13" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="L13" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="O13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -3475,50 +3856,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>17493</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>151</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="J14" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="K14" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="L14" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -3532,50 +3917,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>17493</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>158</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="J15" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="K15" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="L15" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="M15" t="n">
         <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="O15" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -3589,50 +3978,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>17493</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>165</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="J16" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="K16" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="L16" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="O16" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3646,50 +4039,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>17493</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>171</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="J17" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="K17" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="L17" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="O17" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
@@ -3709,41 +4106,45 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>17493</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>178</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="J18" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="K18" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="L18" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
@@ -3762,50 +4163,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>17493</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>185</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="J19" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="K19" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="L19" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3821,56 +4226,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="X19" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="Y19" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>17493</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>195</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="J20" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="K20" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="L20" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="O20" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3886,56 +4295,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="X20" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="Y20" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>17493</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>205</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="J21" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="K21" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="L21" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="O21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3951,56 +4364,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="X21" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="Y21" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>17493</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>213</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="J22" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="K22" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="L22" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="O22" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -4012,56 +4429,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="X22" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="Y22" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>17493</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>219</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="J23" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="K23" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="L23" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -4073,56 +4494,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="X23" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="Y23" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>17493</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>228</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="J24" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="K24" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="L24" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="O24" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -4138,56 +4563,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="X24" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="Y24" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>17493</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>237</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="J25" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="K25" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="L25" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="O25" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="n">
@@ -4203,56 +4632,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="X25" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="Y25" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>17493</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>247</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="J26" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="K26" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="L26" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -4268,56 +4701,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="X26" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="Y26" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>17493</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>256</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="J27" t="s">
-        <v>233</v>
+        <v>259</v>
       </c>
       <c r="K27" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="L27" t="s">
-        <v>235</v>
+        <v>261</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="O27" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -4337,50 +4774,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>235</v>
+        <v>261</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>17493</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>262</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="J28" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="K28" t="s">
-        <v>239</v>
+        <v>266</v>
       </c>
       <c r="L28" t="s">
-        <v>240</v>
+        <v>267</v>
       </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="O28" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -4396,56 +4837,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="X28" t="s">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="Y28" t="s">
-        <v>244</v>
+        <v>271</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>17493</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>272</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>246</v>
+        <v>274</v>
       </c>
       <c r="J29" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="K29" t="s">
-        <v>248</v>
+        <v>276</v>
       </c>
       <c r="L29" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="O29" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="P29" t="n">
         <v>3</v>
@@ -4465,50 +4910,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>17493</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>279</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>251</v>
+        <v>280</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>252</v>
+        <v>281</v>
       </c>
       <c r="J30" t="s">
-        <v>253</v>
+        <v>282</v>
       </c>
       <c r="K30" t="s">
-        <v>254</v>
+        <v>283</v>
       </c>
       <c r="L30" t="s">
-        <v>255</v>
+        <v>284</v>
       </c>
       <c r="M30" t="n">
         <v>2</v>
       </c>
       <c r="N30" t="s">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="n">
@@ -4526,56 +4975,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>256</v>
+        <v>285</v>
       </c>
       <c r="X30" t="s">
-        <v>257</v>
+        <v>286</v>
       </c>
       <c r="Y30" t="s">
-        <v>258</v>
+        <v>287</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>17493</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>288</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="J31" t="s">
-        <v>261</v>
+        <v>291</v>
       </c>
       <c r="K31" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="L31" t="s">
-        <v>263</v>
+        <v>293</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="n">
         <v>4</v>
@@ -4595,41 +5048,45 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>263</v>
+        <v>293</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>17493</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>294</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="J32" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="K32" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c r="L32" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="M32" t="n">
         <v>2</v>
@@ -4648,50 +5105,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>17493</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>300</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>269</v>
+        <v>301</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
       <c r="J33" t="s">
-        <v>271</v>
+        <v>303</v>
       </c>
       <c r="K33" t="s">
-        <v>272</v>
+        <v>304</v>
       </c>
       <c r="L33" t="s">
-        <v>273</v>
+        <v>305</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>274</v>
+        <v>306</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="n">
@@ -4709,50 +5170,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>275</v>
+        <v>307</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>17493</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>308</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>276</v>
+        <v>309</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>277</v>
+        <v>310</v>
       </c>
       <c r="J34" t="s">
-        <v>278</v>
+        <v>311</v>
       </c>
       <c r="K34" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="L34" t="s">
-        <v>280</v>
+        <v>313</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>274</v>
+        <v>306</v>
       </c>
       <c r="O34" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="n">
@@ -4772,50 +5237,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>280</v>
+        <v>313</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>17493</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>314</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>281</v>
+        <v>315</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>282</v>
+        <v>316</v>
       </c>
       <c r="J35" t="s">
-        <v>283</v>
+        <v>317</v>
       </c>
       <c r="K35" t="s">
-        <v>284</v>
+        <v>318</v>
       </c>
       <c r="L35" t="s">
-        <v>285</v>
+        <v>319</v>
       </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>286</v>
+        <v>320</v>
       </c>
       <c r="O35" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -4831,56 +5300,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>287</v>
+        <v>321</v>
       </c>
       <c r="X35" t="s">
-        <v>288</v>
+        <v>322</v>
       </c>
       <c r="Y35" t="s">
-        <v>289</v>
+        <v>323</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>17493</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>324</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>291</v>
+        <v>326</v>
       </c>
       <c r="J36" t="s">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="K36" t="s">
-        <v>293</v>
+        <v>328</v>
       </c>
       <c r="L36" t="s">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>295</v>
+        <v>330</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -4894,50 +5367,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>294</v>
+        <v>329</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>17493</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>331</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>296</v>
+        <v>332</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>297</v>
+        <v>333</v>
       </c>
       <c r="J37" t="s">
-        <v>298</v>
+        <v>334</v>
       </c>
       <c r="K37" t="s">
-        <v>299</v>
+        <v>335</v>
       </c>
       <c r="L37" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>301</v>
+        <v>337</v>
       </c>
       <c r="O37" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="n">
@@ -4955,50 +5432,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>17493</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>338</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
       <c r="J38" t="s">
-        <v>304</v>
+        <v>341</v>
       </c>
       <c r="K38" t="s">
-        <v>305</v>
+        <v>342</v>
       </c>
       <c r="L38" t="s">
-        <v>306</v>
+        <v>343</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -5012,50 +5493,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>17493</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>346</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>309</v>
+        <v>347</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>310</v>
+        <v>348</v>
       </c>
       <c r="J39" t="s">
-        <v>304</v>
+        <v>341</v>
       </c>
       <c r="K39" t="s">
-        <v>311</v>
+        <v>349</v>
       </c>
       <c r="L39" t="s">
-        <v>312</v>
+        <v>350</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -5069,50 +5554,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>313</v>
+        <v>351</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>17493</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>352</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>314</v>
+        <v>353</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>315</v>
+        <v>354</v>
       </c>
       <c r="J40" t="s">
-        <v>316</v>
+        <v>355</v>
       </c>
       <c r="K40" t="s">
-        <v>317</v>
+        <v>356</v>
       </c>
       <c r="L40" t="s">
-        <v>318</v>
+        <v>357</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="n">
@@ -5130,50 +5619,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>318</v>
+        <v>357</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>17493</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>358</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>320</v>
+        <v>360</v>
       </c>
       <c r="J41" t="s">
-        <v>321</v>
+        <v>361</v>
       </c>
       <c r="K41" t="s">
-        <v>322</v>
+        <v>362</v>
       </c>
       <c r="L41" t="s">
-        <v>323</v>
+        <v>363</v>
       </c>
       <c r="M41" t="n">
         <v>3</v>
       </c>
       <c r="N41" t="s">
-        <v>324</v>
+        <v>364</v>
       </c>
       <c r="O41" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -5191,50 +5684,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>323</v>
+        <v>363</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>17493</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>365</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>325</v>
+        <v>366</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>326</v>
+        <v>367</v>
       </c>
       <c r="J42" t="s">
-        <v>327</v>
+        <v>368</v>
       </c>
       <c r="K42" t="s">
-        <v>328</v>
+        <v>369</v>
       </c>
       <c r="L42" t="s">
-        <v>329</v>
+        <v>370</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>330</v>
+        <v>371</v>
       </c>
       <c r="O42" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -5248,50 +5745,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>329</v>
+        <v>370</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>17493</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>372</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>331</v>
+        <v>373</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>332</v>
+        <v>374</v>
       </c>
       <c r="J43" t="s">
-        <v>333</v>
+        <v>375</v>
       </c>
       <c r="K43" t="s">
-        <v>334</v>
+        <v>376</v>
       </c>
       <c r="L43" t="s">
-        <v>335</v>
+        <v>377</v>
       </c>
       <c r="M43" t="n">
         <v>3</v>
       </c>
       <c r="N43" t="s">
-        <v>330</v>
+        <v>371</v>
       </c>
       <c r="O43" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -5311,50 +5812,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>336</v>
+        <v>378</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>17493</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>379</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>337</v>
+        <v>380</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>338</v>
+        <v>381</v>
       </c>
       <c r="J44" t="s">
-        <v>339</v>
+        <v>382</v>
       </c>
       <c r="K44" t="s">
-        <v>340</v>
+        <v>383</v>
       </c>
       <c r="L44" t="s">
-        <v>341</v>
+        <v>384</v>
       </c>
       <c r="M44" t="n">
         <v>3</v>
       </c>
       <c r="N44" t="s">
-        <v>342</v>
+        <v>385</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -5368,50 +5873,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>341</v>
+        <v>384</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>17493</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>386</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>343</v>
+        <v>387</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>344</v>
+        <v>388</v>
       </c>
       <c r="J45" t="s">
-        <v>345</v>
+        <v>389</v>
       </c>
       <c r="K45" t="s">
-        <v>346</v>
+        <v>390</v>
       </c>
       <c r="L45" t="s">
-        <v>347</v>
+        <v>391</v>
       </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
       <c r="N45" t="s">
-        <v>342</v>
+        <v>385</v>
       </c>
       <c r="O45" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -5425,50 +5934,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>347</v>
+        <v>391</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>17493</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>392</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>348</v>
+        <v>393</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>349</v>
+        <v>394</v>
       </c>
       <c r="J46" t="s">
-        <v>350</v>
+        <v>395</v>
       </c>
       <c r="K46" t="s">
-        <v>351</v>
+        <v>396</v>
       </c>
       <c r="L46" t="s">
-        <v>352</v>
+        <v>397</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>324</v>
+        <v>364</v>
       </c>
       <c r="O46" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
@@ -5492,41 +6005,45 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>353</v>
+        <v>398</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>17493</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>399</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>354</v>
+        <v>400</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>355</v>
+        <v>401</v>
       </c>
       <c r="J47" t="s">
-        <v>356</v>
+        <v>402</v>
       </c>
       <c r="K47" t="s">
-        <v>357</v>
+        <v>403</v>
       </c>
       <c r="L47" t="s">
-        <v>358</v>
+        <v>404</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
@@ -5555,50 +6072,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>359</v>
+        <v>405</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>17493</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>406</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>360</v>
+        <v>407</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>361</v>
+        <v>408</v>
       </c>
       <c r="J48" t="s">
-        <v>362</v>
+        <v>409</v>
       </c>
       <c r="K48" t="s">
-        <v>363</v>
+        <v>410</v>
       </c>
       <c r="L48" t="s">
-        <v>364</v>
+        <v>411</v>
       </c>
       <c r="M48" t="n">
         <v>2</v>
       </c>
       <c r="N48" t="s">
-        <v>365</v>
+        <v>412</v>
       </c>
       <c r="O48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
@@ -5612,50 +6133,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>364</v>
+        <v>411</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>17493</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>413</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>366</v>
+        <v>414</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>367</v>
+        <v>415</v>
       </c>
       <c r="J49" t="s">
-        <v>368</v>
+        <v>416</v>
       </c>
       <c r="K49" t="s">
-        <v>369</v>
+        <v>417</v>
       </c>
       <c r="L49" t="s">
-        <v>370</v>
+        <v>418</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>365</v>
+        <v>412</v>
       </c>
       <c r="O49" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -5679,50 +6204,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>371</v>
+        <v>419</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>17493</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>420</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>372</v>
+        <v>421</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>373</v>
+        <v>422</v>
       </c>
       <c r="J50" t="s">
-        <v>374</v>
+        <v>423</v>
       </c>
       <c r="K50" t="s">
-        <v>328</v>
+        <v>369</v>
       </c>
       <c r="L50" t="s">
-        <v>375</v>
+        <v>424</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>376</v>
+        <v>425</v>
       </c>
       <c r="O50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
@@ -5736,50 +6265,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>375</v>
+        <v>424</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>17493</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>426</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>377</v>
+        <v>427</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>378</v>
+        <v>428</v>
       </c>
       <c r="J51" t="s">
-        <v>379</v>
+        <v>429</v>
       </c>
       <c r="K51" t="s">
-        <v>380</v>
+        <v>430</v>
       </c>
       <c r="L51" t="s">
-        <v>381</v>
+        <v>431</v>
       </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
       <c r="N51" t="s">
-        <v>376</v>
+        <v>425</v>
       </c>
       <c r="O51" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P51" t="n">
         <v>1</v>
@@ -5803,50 +6336,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>381</v>
+        <v>431</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>17493</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>432</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>382</v>
+        <v>433</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>383</v>
+        <v>434</v>
       </c>
       <c r="J52" t="s">
-        <v>384</v>
+        <v>435</v>
       </c>
       <c r="K52" t="s">
-        <v>385</v>
+        <v>436</v>
       </c>
       <c r="L52" t="s">
-        <v>386</v>
+        <v>437</v>
       </c>
       <c r="M52" t="n">
         <v>2</v>
       </c>
       <c r="N52" t="s">
-        <v>387</v>
+        <v>438</v>
       </c>
       <c r="O52" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P52" t="n">
         <v>1</v>
@@ -5870,50 +6407,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>386</v>
+        <v>437</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>17493</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>439</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>388</v>
+        <v>440</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>389</v>
+        <v>441</v>
       </c>
       <c r="J53" t="s">
-        <v>390</v>
+        <v>442</v>
       </c>
       <c r="K53" t="s">
-        <v>391</v>
+        <v>443</v>
       </c>
       <c r="L53" t="s">
-        <v>392</v>
+        <v>444</v>
       </c>
       <c r="M53" t="n">
         <v>3</v>
       </c>
       <c r="N53" t="s">
-        <v>393</v>
+        <v>445</v>
       </c>
       <c r="O53" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="P53" t="n">
         <v>3</v>
@@ -5937,50 +6478,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>392</v>
+        <v>444</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>17493</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>446</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>394</v>
+        <v>447</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>395</v>
+        <v>448</v>
       </c>
       <c r="J54" t="s">
-        <v>390</v>
+        <v>442</v>
       </c>
       <c r="K54" t="s">
-        <v>396</v>
+        <v>449</v>
       </c>
       <c r="L54" t="s">
-        <v>397</v>
+        <v>450</v>
       </c>
       <c r="M54" t="n">
         <v>3</v>
       </c>
       <c r="N54" t="s">
-        <v>393</v>
+        <v>445</v>
       </c>
       <c r="O54" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P54" t="n">
         <v>4</v>
@@ -6004,50 +6549,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>397</v>
+        <v>450</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>17493</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>451</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>398</v>
+        <v>452</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>399</v>
+        <v>453</v>
       </c>
       <c r="J55" t="s">
-        <v>400</v>
+        <v>454</v>
       </c>
       <c r="K55" t="s">
-        <v>401</v>
+        <v>455</v>
       </c>
       <c r="L55" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="M55" t="n">
         <v>3</v>
       </c>
       <c r="N55" t="s">
-        <v>393</v>
+        <v>445</v>
       </c>
       <c r="O55" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
@@ -6061,50 +6610,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>403</v>
+        <v>457</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>17493</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>458</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>404</v>
+        <v>459</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>405</v>
+        <v>460</v>
       </c>
       <c r="J56" t="s">
-        <v>406</v>
+        <v>461</v>
       </c>
       <c r="K56" t="s">
-        <v>407</v>
+        <v>462</v>
       </c>
       <c r="L56" t="s">
-        <v>408</v>
+        <v>463</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>409</v>
+        <v>464</v>
       </c>
       <c r="O56" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="P56" t="n">
         <v>5</v>
@@ -6126,56 +6679,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>410</v>
+        <v>465</v>
       </c>
       <c r="X56" t="s">
-        <v>411</v>
+        <v>466</v>
       </c>
       <c r="Y56" t="s">
-        <v>412</v>
+        <v>467</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>17493</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>468</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>413</v>
+        <v>469</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>414</v>
+        <v>470</v>
       </c>
       <c r="J57" t="s">
-        <v>415</v>
+        <v>471</v>
       </c>
       <c r="K57" t="s">
-        <v>416</v>
+        <v>472</v>
       </c>
       <c r="L57" t="s">
-        <v>417</v>
+        <v>473</v>
       </c>
       <c r="M57" t="n">
         <v>4</v>
       </c>
       <c r="N57" t="s">
-        <v>418</v>
+        <v>474</v>
       </c>
       <c r="O57" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -6199,50 +6756,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>419</v>
+        <v>475</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>17493</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>476</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>420</v>
+        <v>477</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>421</v>
+        <v>478</v>
       </c>
       <c r="J58" t="s">
-        <v>415</v>
+        <v>471</v>
       </c>
       <c r="K58" t="s">
-        <v>422</v>
+        <v>479</v>
       </c>
       <c r="L58" t="s">
-        <v>423</v>
+        <v>480</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>424</v>
+        <v>481</v>
       </c>
       <c r="O58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P58" t="n">
         <v>5</v>
@@ -6266,50 +6827,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>423</v>
+        <v>480</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>17493</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>482</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>425</v>
+        <v>483</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>426</v>
+        <v>484</v>
       </c>
       <c r="J59" t="s">
-        <v>427</v>
+        <v>485</v>
       </c>
       <c r="K59" t="s">
-        <v>428</v>
+        <v>486</v>
       </c>
       <c r="L59" t="s">
-        <v>429</v>
+        <v>487</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>418</v>
+        <v>474</v>
       </c>
       <c r="O59" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -6333,41 +6898,45 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>429</v>
+        <v>487</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>17493</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>488</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>430</v>
+        <v>489</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>431</v>
+        <v>490</v>
       </c>
       <c r="J60" t="s">
-        <v>432</v>
+        <v>491</v>
       </c>
       <c r="K60" t="s">
-        <v>433</v>
+        <v>492</v>
       </c>
       <c r="L60" t="s">
-        <v>434</v>
+        <v>493</v>
       </c>
       <c r="M60" t="n">
         <v>4</v>
@@ -6396,50 +6965,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>434</v>
+        <v>493</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>17493</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>494</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>435</v>
+        <v>495</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>436</v>
+        <v>496</v>
       </c>
       <c r="J61" t="s">
-        <v>437</v>
+        <v>497</v>
       </c>
       <c r="K61" t="s">
-        <v>438</v>
+        <v>498</v>
       </c>
       <c r="L61" t="s">
-        <v>439</v>
+        <v>499</v>
       </c>
       <c r="M61" t="n">
         <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>440</v>
+        <v>500</v>
       </c>
       <c r="O61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P61" t="n">
         <v>5</v>
@@ -6463,50 +7036,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>441</v>
+        <v>501</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>17493</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>502</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>442</v>
+        <v>503</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>443</v>
+        <v>504</v>
       </c>
       <c r="J62" t="s">
-        <v>444</v>
+        <v>505</v>
       </c>
       <c r="K62" t="s">
-        <v>445</v>
+        <v>506</v>
       </c>
       <c r="L62" t="s">
-        <v>446</v>
+        <v>507</v>
       </c>
       <c r="M62" t="n">
         <v>3</v>
       </c>
       <c r="N62" t="s">
-        <v>440</v>
+        <v>500</v>
       </c>
       <c r="O62" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P62" t="n">
         <v>3</v>
@@ -6530,50 +7107,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>447</v>
+        <v>508</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>17493</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>509</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>448</v>
+        <v>510</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>449</v>
+        <v>511</v>
       </c>
       <c r="J63" t="s">
-        <v>444</v>
+        <v>505</v>
       </c>
       <c r="K63" t="s">
-        <v>450</v>
+        <v>512</v>
       </c>
       <c r="L63" t="s">
-        <v>451</v>
+        <v>513</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>440</v>
+        <v>500</v>
       </c>
       <c r="O63" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -6597,41 +7178,45 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>452</v>
+        <v>514</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>17493</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>515</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>453</v>
+        <v>516</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>454</v>
+        <v>517</v>
       </c>
       <c r="J64" t="s">
-        <v>455</v>
+        <v>518</v>
       </c>
       <c r="K64" t="s">
-        <v>456</v>
+        <v>519</v>
       </c>
       <c r="L64" t="s">
-        <v>457</v>
+        <v>520</v>
       </c>
       <c r="M64" t="n">
         <v>4</v>
@@ -6660,50 +7245,54 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>457</v>
+        <v>520</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>17493</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>521</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>458</v>
+        <v>522</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>459</v>
+        <v>523</v>
       </c>
       <c r="J65" t="s">
-        <v>460</v>
+        <v>524</v>
       </c>
       <c r="K65" t="s">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="L65" t="s">
-        <v>462</v>
+        <v>526</v>
       </c>
       <c r="M65" t="n">
         <v>4</v>
       </c>
       <c r="N65" t="s">
-        <v>463</v>
+        <v>527</v>
       </c>
       <c r="O65" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P65" t="n">
         <v>4</v>
@@ -6727,50 +7316,54 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>462</v>
+        <v>526</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>17493</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>528</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>465</v>
+        <v>530</v>
       </c>
       <c r="J66" t="s">
-        <v>460</v>
+        <v>524</v>
       </c>
       <c r="K66" t="s">
-        <v>466</v>
+        <v>531</v>
       </c>
       <c r="L66" t="s">
-        <v>467</v>
+        <v>532</v>
       </c>
       <c r="M66" t="n">
         <v>4</v>
       </c>
       <c r="N66" t="s">
-        <v>463</v>
+        <v>527</v>
       </c>
       <c r="O66" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P66" t="n">
         <v>4</v>
@@ -6794,50 +7387,54 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>467</v>
+        <v>532</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>17493</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>533</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>468</v>
+        <v>534</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>469</v>
+        <v>535</v>
       </c>
       <c r="J67" t="s">
-        <v>460</v>
+        <v>524</v>
       </c>
       <c r="K67" t="s">
-        <v>470</v>
+        <v>536</v>
       </c>
       <c r="L67" t="s">
-        <v>471</v>
+        <v>537</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>472</v>
+        <v>538</v>
       </c>
       <c r="O67" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P67" t="n">
         <v>5</v>
@@ -6861,50 +7458,54 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>473</v>
+        <v>539</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>17493</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>540</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>474</v>
+        <v>541</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>475</v>
+        <v>542</v>
       </c>
       <c r="J68" t="s">
-        <v>476</v>
+        <v>543</v>
       </c>
       <c r="K68" t="s">
-        <v>477</v>
+        <v>544</v>
       </c>
       <c r="L68" t="s">
-        <v>478</v>
+        <v>545</v>
       </c>
       <c r="M68" t="n">
         <v>3</v>
       </c>
       <c r="N68" t="s">
-        <v>472</v>
+        <v>538</v>
       </c>
       <c r="O68" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P68" t="n">
         <v>4</v>
@@ -6928,50 +7529,54 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>478</v>
+        <v>545</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>17493</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>546</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>479</v>
+        <v>547</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>480</v>
+        <v>548</v>
       </c>
       <c r="J69" t="s">
-        <v>481</v>
+        <v>549</v>
       </c>
       <c r="K69" t="s">
-        <v>482</v>
+        <v>550</v>
       </c>
       <c r="L69" t="s">
-        <v>483</v>
+        <v>551</v>
       </c>
       <c r="M69" t="n">
         <v>4</v>
       </c>
       <c r="N69" t="s">
-        <v>472</v>
+        <v>538</v>
       </c>
       <c r="O69" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P69" t="n">
         <v>5</v>
@@ -6995,50 +7600,54 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>483</v>
+        <v>551</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>17493</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>552</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>484</v>
+        <v>553</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>485</v>
+        <v>554</v>
       </c>
       <c r="J70" t="s">
-        <v>486</v>
+        <v>555</v>
       </c>
       <c r="K70" t="s">
-        <v>487</v>
+        <v>556</v>
       </c>
       <c r="L70" t="s">
-        <v>488</v>
+        <v>557</v>
       </c>
       <c r="M70" t="n">
         <v>2</v>
       </c>
       <c r="N70" t="s">
-        <v>489</v>
+        <v>558</v>
       </c>
       <c r="O70" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P70" t="n">
         <v>3</v>
@@ -7062,41 +7671,45 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>490</v>
+        <v>559</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>17493</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>560</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>491</v>
+        <v>561</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>492</v>
+        <v>562</v>
       </c>
       <c r="J71" t="s">
-        <v>493</v>
+        <v>563</v>
       </c>
       <c r="K71" t="s">
-        <v>494</v>
+        <v>564</v>
       </c>
       <c r="L71" t="s">
-        <v>495</v>
+        <v>565</v>
       </c>
       <c r="M71" t="n">
         <v>3</v>
@@ -7125,50 +7738,54 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>495</v>
+        <v>565</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>17493</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>566</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>496</v>
+        <v>567</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>497</v>
+        <v>568</v>
       </c>
       <c r="J72" t="s">
-        <v>498</v>
+        <v>569</v>
       </c>
       <c r="K72" t="s">
-        <v>499</v>
+        <v>570</v>
       </c>
       <c r="L72" t="s">
-        <v>500</v>
+        <v>571</v>
       </c>
       <c r="M72" t="n">
         <v>4</v>
       </c>
       <c r="N72" t="s">
-        <v>501</v>
+        <v>572</v>
       </c>
       <c r="O72" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P72" t="n">
         <v>5</v>
@@ -7192,50 +7809,54 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>502</v>
+        <v>573</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>17493</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>574</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>503</v>
+        <v>575</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>504</v>
+        <v>576</v>
       </c>
       <c r="J73" t="s">
-        <v>498</v>
+        <v>569</v>
       </c>
       <c r="K73" t="s">
-        <v>505</v>
+        <v>577</v>
       </c>
       <c r="L73" t="s">
-        <v>506</v>
+        <v>578</v>
       </c>
       <c r="M73" t="n">
         <v>4</v>
       </c>
       <c r="N73" t="s">
-        <v>507</v>
+        <v>579</v>
       </c>
       <c r="O73" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="P73" t="n">
         <v>5</v>
@@ -7259,41 +7880,45 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>506</v>
+        <v>578</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>17493</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>580</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>508</v>
+        <v>581</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>509</v>
+        <v>582</v>
       </c>
       <c r="J74" t="s">
-        <v>510</v>
+        <v>583</v>
       </c>
       <c r="K74" t="s">
-        <v>511</v>
+        <v>584</v>
       </c>
       <c r="L74" t="s">
-        <v>512</v>
+        <v>585</v>
       </c>
       <c r="M74" t="n">
         <v>1</v>
@@ -7322,50 +7947,54 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>512</v>
+        <v>585</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>17493</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>586</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>513</v>
+        <v>587</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>514</v>
+        <v>588</v>
       </c>
       <c r="J75" t="s">
-        <v>515</v>
+        <v>589</v>
       </c>
       <c r="K75" t="s">
-        <v>516</v>
+        <v>590</v>
       </c>
       <c r="L75" t="s">
-        <v>517</v>
+        <v>591</v>
       </c>
       <c r="M75" t="n">
         <v>2</v>
       </c>
       <c r="N75" t="s">
-        <v>507</v>
+        <v>579</v>
       </c>
       <c r="O75" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="P75" t="n">
         <v>3</v>
@@ -7389,50 +8018,54 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>518</v>
+        <v>592</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>17493</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>593</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>519</v>
+        <v>594</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>520</v>
+        <v>595</v>
       </c>
       <c r="J76" t="s">
-        <v>521</v>
+        <v>596</v>
       </c>
       <c r="K76" t="s">
-        <v>522</v>
+        <v>597</v>
       </c>
       <c r="L76" t="s">
-        <v>523</v>
+        <v>598</v>
       </c>
       <c r="M76" t="n">
         <v>3</v>
       </c>
       <c r="N76" t="s">
-        <v>507</v>
+        <v>579</v>
       </c>
       <c r="O76" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P76" t="n">
         <v>3</v>
@@ -7456,50 +8089,54 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>523</v>
+        <v>598</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>17493</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>599</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>524</v>
+        <v>600</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>525</v>
+        <v>601</v>
       </c>
       <c r="J77" t="s">
-        <v>526</v>
+        <v>602</v>
       </c>
       <c r="K77" t="s">
-        <v>527</v>
+        <v>603</v>
       </c>
       <c r="L77" t="s">
-        <v>528</v>
+        <v>604</v>
       </c>
       <c r="M77" t="n">
         <v>3</v>
       </c>
       <c r="N77" t="s">
-        <v>501</v>
+        <v>572</v>
       </c>
       <c r="O77" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P77" t="n">
         <v>4</v>
@@ -7523,50 +8160,54 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>528</v>
+        <v>604</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>17493</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>605</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>529</v>
+        <v>606</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>530</v>
+        <v>607</v>
       </c>
       <c r="J78" t="s">
-        <v>531</v>
+        <v>608</v>
       </c>
       <c r="K78" t="s">
-        <v>532</v>
+        <v>609</v>
       </c>
       <c r="L78" t="s">
-        <v>533</v>
+        <v>610</v>
       </c>
       <c r="M78" t="n">
         <v>3</v>
       </c>
       <c r="N78" t="s">
-        <v>534</v>
+        <v>611</v>
       </c>
       <c r="O78" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P78" t="n">
         <v>3</v>
@@ -7590,41 +8231,45 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>533</v>
+        <v>610</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>17493</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>612</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>535</v>
+        <v>613</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>536</v>
+        <v>614</v>
       </c>
       <c r="J79" t="s">
-        <v>537</v>
+        <v>615</v>
       </c>
       <c r="K79" t="s">
-        <v>538</v>
+        <v>616</v>
       </c>
       <c r="L79" t="s">
-        <v>539</v>
+        <v>617</v>
       </c>
       <c r="M79" t="n">
         <v>5</v>
@@ -7653,50 +8298,54 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>539</v>
+        <v>617</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>17493</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>618</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>540</v>
+        <v>619</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>541</v>
+        <v>620</v>
       </c>
       <c r="J80" t="s">
-        <v>542</v>
+        <v>621</v>
       </c>
       <c r="K80" t="s">
-        <v>543</v>
+        <v>622</v>
       </c>
       <c r="L80" t="s">
-        <v>544</v>
+        <v>623</v>
       </c>
       <c r="M80" t="n">
         <v>5</v>
       </c>
       <c r="N80" t="s">
-        <v>534</v>
+        <v>611</v>
       </c>
       <c r="O80" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P80" t="n">
         <v>5</v>
@@ -7720,41 +8369,45 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>544</v>
+        <v>623</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>17493</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>624</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>545</v>
+        <v>625</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>546</v>
+        <v>626</v>
       </c>
       <c r="J81" t="s">
-        <v>547</v>
+        <v>627</v>
       </c>
       <c r="K81" t="s">
-        <v>548</v>
+        <v>628</v>
       </c>
       <c r="L81" t="s">
-        <v>549</v>
+        <v>629</v>
       </c>
       <c r="M81" t="n">
         <v>5</v>
@@ -7783,41 +8436,45 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>549</v>
+        <v>629</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>17493</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>630</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>550</v>
+        <v>631</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>551</v>
+        <v>632</v>
       </c>
       <c r="J82" t="s">
-        <v>552</v>
+        <v>633</v>
       </c>
       <c r="K82" t="s">
-        <v>553</v>
+        <v>634</v>
       </c>
       <c r="L82" t="s">
-        <v>554</v>
+        <v>635</v>
       </c>
       <c r="M82" t="n">
         <v>4</v>
@@ -7846,50 +8503,54 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>554</v>
+        <v>635</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>17493</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C83" t="s">
+        <v>636</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>555</v>
+        <v>637</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>556</v>
+        <v>638</v>
       </c>
       <c r="J83" t="s">
-        <v>557</v>
+        <v>639</v>
       </c>
       <c r="K83" t="s">
-        <v>558</v>
+        <v>640</v>
       </c>
       <c r="L83" t="s">
-        <v>559</v>
+        <v>641</v>
       </c>
       <c r="M83" t="n">
         <v>5</v>
       </c>
       <c r="N83" t="s">
-        <v>560</v>
+        <v>642</v>
       </c>
       <c r="O83" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P83" t="n">
         <v>5</v>
@@ -7913,50 +8574,54 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>559</v>
+        <v>641</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>17493</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>643</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>561</v>
+        <v>644</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>562</v>
+        <v>645</v>
       </c>
       <c r="J84" t="s">
-        <v>563</v>
+        <v>646</v>
       </c>
       <c r="K84" t="s">
-        <v>564</v>
+        <v>647</v>
       </c>
       <c r="L84" t="s">
-        <v>565</v>
+        <v>648</v>
       </c>
       <c r="M84" t="n">
         <v>4</v>
       </c>
       <c r="N84" t="s">
-        <v>566</v>
+        <v>649</v>
       </c>
       <c r="O84" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P84" t="n">
         <v>3</v>
@@ -7980,50 +8645,54 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>567</v>
+        <v>650</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>17493</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>651</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>568</v>
+        <v>652</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>569</v>
+        <v>653</v>
       </c>
       <c r="J85" t="s">
-        <v>570</v>
+        <v>654</v>
       </c>
       <c r="K85" t="s">
-        <v>571</v>
+        <v>655</v>
       </c>
       <c r="L85" t="s">
-        <v>572</v>
+        <v>656</v>
       </c>
       <c r="M85" t="n">
         <v>5</v>
       </c>
       <c r="N85" t="s">
-        <v>566</v>
+        <v>649</v>
       </c>
       <c r="O85" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P85" t="n">
         <v>5</v>
@@ -8047,41 +8716,45 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>573</v>
+        <v>657</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>17493</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>658</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>574</v>
+        <v>659</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>575</v>
+        <v>660</v>
       </c>
       <c r="J86" t="s">
-        <v>576</v>
+        <v>661</v>
       </c>
       <c r="K86" t="s">
-        <v>577</v>
+        <v>662</v>
       </c>
       <c r="L86" t="s">
-        <v>578</v>
+        <v>663</v>
       </c>
       <c r="M86" t="n">
         <v>5</v>
@@ -8110,50 +8783,54 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>578</v>
+        <v>663</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>17493</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C87" t="s">
+        <v>664</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>579</v>
+        <v>665</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>580</v>
+        <v>666</v>
       </c>
       <c r="J87" t="s">
-        <v>581</v>
+        <v>667</v>
       </c>
       <c r="K87" t="s">
-        <v>582</v>
+        <v>668</v>
       </c>
       <c r="L87" t="s">
-        <v>583</v>
+        <v>669</v>
       </c>
       <c r="M87" t="n">
         <v>5</v>
       </c>
       <c r="N87" t="s">
-        <v>584</v>
+        <v>670</v>
       </c>
       <c r="O87" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="P87" t="n">
         <v>5</v>
@@ -8177,50 +8854,54 @@
       <c r="W87" t="s"/>
       <c r="X87" t="s"/>
       <c r="Y87" t="s">
-        <v>583</v>
+        <v>669</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>17493</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C88" t="s">
+        <v>671</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>585</v>
+        <v>672</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>586</v>
+        <v>673</v>
       </c>
       <c r="J88" t="s">
-        <v>587</v>
+        <v>674</v>
       </c>
       <c r="K88" t="s">
-        <v>588</v>
+        <v>675</v>
       </c>
       <c r="L88" t="s">
-        <v>589</v>
+        <v>676</v>
       </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
       <c r="N88" t="s">
-        <v>584</v>
+        <v>670</v>
       </c>
       <c r="O88" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P88" t="n">
         <v>1</v>
@@ -8244,50 +8925,54 @@
       <c r="W88" t="s"/>
       <c r="X88" t="s"/>
       <c r="Y88" t="s">
-        <v>590</v>
+        <v>677</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>17493</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C89" t="s">
+        <v>678</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>591</v>
+        <v>679</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>592</v>
+        <v>680</v>
       </c>
       <c r="J89" t="s">
-        <v>593</v>
+        <v>681</v>
       </c>
       <c r="K89" t="s">
-        <v>594</v>
+        <v>682</v>
       </c>
       <c r="L89" t="s">
-        <v>595</v>
+        <v>683</v>
       </c>
       <c r="M89" t="n">
         <v>4</v>
       </c>
       <c r="N89" t="s">
-        <v>596</v>
+        <v>684</v>
       </c>
       <c r="O89" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P89" t="n">
         <v>5</v>
@@ -8311,41 +8996,45 @@
       <c r="W89" t="s"/>
       <c r="X89" t="s"/>
       <c r="Y89" t="s">
-        <v>597</v>
+        <v>685</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>17493</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>686</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>598</v>
+        <v>687</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>599</v>
+        <v>688</v>
       </c>
       <c r="J90" t="s">
-        <v>600</v>
+        <v>689</v>
       </c>
       <c r="K90" t="s">
-        <v>601</v>
+        <v>690</v>
       </c>
       <c r="L90" t="s">
-        <v>602</v>
+        <v>691</v>
       </c>
       <c r="M90" t="n">
         <v>5</v>
@@ -8374,41 +9063,45 @@
       <c r="W90" t="s"/>
       <c r="X90" t="s"/>
       <c r="Y90" t="s">
-        <v>603</v>
+        <v>692</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>17493</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>693</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>604</v>
+        <v>694</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>605</v>
+        <v>695</v>
       </c>
       <c r="J91" t="s">
-        <v>606</v>
+        <v>696</v>
       </c>
       <c r="K91" t="s">
-        <v>607</v>
+        <v>697</v>
       </c>
       <c r="L91" t="s">
-        <v>608</v>
+        <v>698</v>
       </c>
       <c r="M91" t="n">
         <v>3</v>
@@ -8437,50 +9130,54 @@
       <c r="W91" t="s"/>
       <c r="X91" t="s"/>
       <c r="Y91" t="s">
-        <v>609</v>
+        <v>699</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>17493</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C92" t="s">
+        <v>700</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>610</v>
+        <v>701</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>611</v>
+        <v>702</v>
       </c>
       <c r="J92" t="s">
-        <v>612</v>
+        <v>703</v>
       </c>
       <c r="K92" t="s">
-        <v>613</v>
+        <v>704</v>
       </c>
       <c r="L92" t="s">
-        <v>614</v>
+        <v>705</v>
       </c>
       <c r="M92" t="n">
         <v>5</v>
       </c>
       <c r="N92" t="s">
-        <v>615</v>
+        <v>706</v>
       </c>
       <c r="O92" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="P92" t="n">
         <v>5</v>
@@ -8504,50 +9201,54 @@
       <c r="W92" t="s"/>
       <c r="X92" t="s"/>
       <c r="Y92" t="s">
-        <v>614</v>
+        <v>705</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>17493</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C93" t="s">
+        <v>707</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>616</v>
+        <v>708</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>617</v>
+        <v>709</v>
       </c>
       <c r="J93" t="s">
-        <v>618</v>
+        <v>710</v>
       </c>
       <c r="K93" t="s">
-        <v>619</v>
+        <v>711</v>
       </c>
       <c r="L93" t="s">
-        <v>620</v>
+        <v>712</v>
       </c>
       <c r="M93" t="n">
         <v>4</v>
       </c>
       <c r="N93" t="s">
-        <v>615</v>
+        <v>706</v>
       </c>
       <c r="O93" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P93" t="n">
         <v>4</v>
@@ -8571,41 +9272,45 @@
       <c r="W93" t="s"/>
       <c r="X93" t="s"/>
       <c r="Y93" t="s">
-        <v>621</v>
+        <v>713</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>17493</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C94" t="s">
+        <v>714</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>622</v>
+        <v>715</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>623</v>
+        <v>716</v>
       </c>
       <c r="J94" t="s">
-        <v>624</v>
+        <v>717</v>
       </c>
       <c r="K94" t="s">
-        <v>625</v>
+        <v>718</v>
       </c>
       <c r="L94" t="s">
-        <v>626</v>
+        <v>719</v>
       </c>
       <c r="M94" t="n">
         <v>4</v>
@@ -8634,50 +9339,54 @@
       <c r="W94" t="s"/>
       <c r="X94" t="s"/>
       <c r="Y94" t="s">
-        <v>626</v>
+        <v>719</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>17493</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C95" t="s">
+        <v>720</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>627</v>
+        <v>721</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>628</v>
+        <v>722</v>
       </c>
       <c r="J95" t="s">
-        <v>629</v>
+        <v>723</v>
       </c>
       <c r="K95" t="s">
-        <v>630</v>
+        <v>724</v>
       </c>
       <c r="L95" t="s">
-        <v>631</v>
+        <v>725</v>
       </c>
       <c r="M95" t="n">
         <v>4</v>
       </c>
       <c r="N95" t="s">
-        <v>632</v>
+        <v>726</v>
       </c>
       <c r="O95" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="P95" t="n">
         <v>5</v>
@@ -8701,50 +9410,54 @@
       <c r="W95" t="s"/>
       <c r="X95" t="s"/>
       <c r="Y95" t="s">
-        <v>633</v>
+        <v>727</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>17493</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C96" t="s">
+        <v>728</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>634</v>
+        <v>729</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>635</v>
+        <v>730</v>
       </c>
       <c r="J96" t="s">
-        <v>636</v>
+        <v>731</v>
       </c>
       <c r="K96" t="s">
-        <v>637</v>
+        <v>732</v>
       </c>
       <c r="L96" t="s">
-        <v>638</v>
+        <v>733</v>
       </c>
       <c r="M96" t="n">
         <v>4</v>
       </c>
       <c r="N96" t="s">
-        <v>632</v>
+        <v>726</v>
       </c>
       <c r="O96" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P96" t="n">
         <v>4</v>
@@ -8768,50 +9481,54 @@
       <c r="W96" t="s"/>
       <c r="X96" t="s"/>
       <c r="Y96" t="s">
-        <v>638</v>
+        <v>733</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>17493</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C97" t="s">
+        <v>734</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>639</v>
+        <v>735</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>640</v>
+        <v>736</v>
       </c>
       <c r="J97" t="s">
-        <v>641</v>
+        <v>737</v>
       </c>
       <c r="K97" t="s">
-        <v>642</v>
+        <v>738</v>
       </c>
       <c r="L97" t="s">
-        <v>643</v>
+        <v>739</v>
       </c>
       <c r="M97" t="n">
         <v>5</v>
       </c>
       <c r="N97" t="s">
-        <v>632</v>
+        <v>726</v>
       </c>
       <c r="O97" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P97" t="n">
         <v>5</v>
@@ -8835,50 +9552,54 @@
       <c r="W97" t="s"/>
       <c r="X97" t="s"/>
       <c r="Y97" t="s">
-        <v>644</v>
+        <v>740</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>17493</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C98" t="s">
+        <v>741</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>645</v>
+        <v>742</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>646</v>
+        <v>743</v>
       </c>
       <c r="J98" t="s">
-        <v>647</v>
+        <v>744</v>
       </c>
       <c r="K98" t="s">
-        <v>648</v>
+        <v>745</v>
       </c>
       <c r="L98" t="s">
-        <v>649</v>
+        <v>746</v>
       </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
       <c r="N98" t="s">
-        <v>650</v>
+        <v>747</v>
       </c>
       <c r="O98" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P98" t="n">
         <v>1</v>
@@ -8898,50 +9619,54 @@
       <c r="W98" t="s"/>
       <c r="X98" t="s"/>
       <c r="Y98" t="s">
-        <v>649</v>
+        <v>746</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>17493</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C99" t="s">
+        <v>748</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>651</v>
+        <v>749</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>652</v>
+        <v>750</v>
       </c>
       <c r="J99" t="s">
-        <v>653</v>
+        <v>751</v>
       </c>
       <c r="K99" t="s">
-        <v>654</v>
+        <v>752</v>
       </c>
       <c r="L99" t="s">
-        <v>655</v>
+        <v>753</v>
       </c>
       <c r="M99" t="n">
         <v>5</v>
       </c>
       <c r="N99" t="s">
-        <v>656</v>
+        <v>754</v>
       </c>
       <c r="O99" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P99" t="n">
         <v>5</v>
@@ -8961,50 +9686,54 @@
       <c r="W99" t="s"/>
       <c r="X99" t="s"/>
       <c r="Y99" t="s">
-        <v>655</v>
+        <v>753</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>17493</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C100" t="s">
+        <v>755</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>657</v>
+        <v>756</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I100" t="s">
-        <v>658</v>
+        <v>757</v>
       </c>
       <c r="J100" t="s">
-        <v>659</v>
+        <v>758</v>
       </c>
       <c r="K100" t="s">
-        <v>660</v>
+        <v>759</v>
       </c>
       <c r="L100" t="s">
-        <v>661</v>
+        <v>760</v>
       </c>
       <c r="M100" t="n">
         <v>4</v>
       </c>
       <c r="N100" t="s">
-        <v>656</v>
+        <v>754</v>
       </c>
       <c r="O100" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P100" t="n">
         <v>4</v>
@@ -9028,50 +9757,54 @@
       <c r="W100" t="s"/>
       <c r="X100" t="s"/>
       <c r="Y100" t="s">
-        <v>661</v>
+        <v>760</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>17493</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C101" t="s">
+        <v>761</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>662</v>
+        <v>762</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I101" t="s">
-        <v>663</v>
+        <v>763</v>
       </c>
       <c r="J101" t="s">
-        <v>664</v>
+        <v>764</v>
       </c>
       <c r="K101" t="s">
-        <v>665</v>
+        <v>765</v>
       </c>
       <c r="L101" t="s">
-        <v>666</v>
+        <v>766</v>
       </c>
       <c r="M101" t="n">
         <v>5</v>
       </c>
       <c r="N101" t="s">
-        <v>667</v>
+        <v>767</v>
       </c>
       <c r="O101" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P101" t="n">
         <v>5</v>
@@ -9095,50 +9828,54 @@
       <c r="W101" t="s"/>
       <c r="X101" t="s"/>
       <c r="Y101" t="s">
-        <v>666</v>
+        <v>766</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>17493</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C102" t="s">
+        <v>768</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F102" t="s">
-        <v>668</v>
+        <v>769</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I102" t="s">
-        <v>669</v>
+        <v>770</v>
       </c>
       <c r="J102" t="s">
-        <v>670</v>
+        <v>771</v>
       </c>
       <c r="K102" t="s">
-        <v>671</v>
+        <v>772</v>
       </c>
       <c r="L102" t="s">
-        <v>672</v>
+        <v>773</v>
       </c>
       <c r="M102" t="n">
         <v>4</v>
       </c>
       <c r="N102" t="s">
-        <v>667</v>
+        <v>767</v>
       </c>
       <c r="O102" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P102" t="n">
         <v>5</v>
@@ -9162,50 +9899,54 @@
       <c r="W102" t="s"/>
       <c r="X102" t="s"/>
       <c r="Y102" t="s">
-        <v>672</v>
+        <v>773</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>17493</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C103" t="s">
+        <v>774</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F103" t="s">
-        <v>673</v>
+        <v>775</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I103" t="s">
-        <v>674</v>
+        <v>776</v>
       </c>
       <c r="J103" t="s">
-        <v>675</v>
+        <v>777</v>
       </c>
       <c r="K103" t="s">
-        <v>676</v>
+        <v>778</v>
       </c>
       <c r="L103" t="s">
-        <v>677</v>
+        <v>779</v>
       </c>
       <c r="M103" t="n">
         <v>5</v>
       </c>
       <c r="N103" t="s">
-        <v>667</v>
+        <v>767</v>
       </c>
       <c r="O103" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P103" t="n">
         <v>5</v>
@@ -9229,50 +9970,54 @@
       <c r="W103" t="s"/>
       <c r="X103" t="s"/>
       <c r="Y103" t="s">
-        <v>678</v>
+        <v>780</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>17493</v>
       </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
+      <c r="B104" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C104" t="s">
+        <v>781</v>
+      </c>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F104" t="s">
-        <v>679</v>
+        <v>782</v>
       </c>
       <c r="G104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I104" t="s">
-        <v>680</v>
+        <v>783</v>
       </c>
       <c r="J104" t="s">
-        <v>681</v>
+        <v>784</v>
       </c>
       <c r="K104" t="s">
-        <v>682</v>
+        <v>785</v>
       </c>
       <c r="L104" t="s">
-        <v>683</v>
+        <v>786</v>
       </c>
       <c r="M104" t="n">
         <v>4</v>
       </c>
       <c r="N104" t="s">
-        <v>684</v>
+        <v>787</v>
       </c>
       <c r="O104" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="P104" t="n">
         <v>5</v>
@@ -9296,50 +10041,54 @@
       <c r="W104" t="s"/>
       <c r="X104" t="s"/>
       <c r="Y104" t="s">
-        <v>683</v>
+        <v>786</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>17493</v>
       </c>
-      <c r="B105" t="s"/>
-      <c r="C105" t="s"/>
+      <c r="B105" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C105" t="s">
+        <v>788</v>
+      </c>
       <c r="D105" t="n">
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F105" t="s">
-        <v>685</v>
+        <v>789</v>
       </c>
       <c r="G105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I105" t="s">
-        <v>686</v>
+        <v>790</v>
       </c>
       <c r="J105" t="s">
-        <v>687</v>
+        <v>791</v>
       </c>
       <c r="K105" t="s">
-        <v>688</v>
+        <v>792</v>
       </c>
       <c r="L105" t="s">
-        <v>689</v>
+        <v>793</v>
       </c>
       <c r="M105" t="n">
         <v>5</v>
       </c>
       <c r="N105" t="s">
-        <v>684</v>
+        <v>787</v>
       </c>
       <c r="O105" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P105" t="n">
         <v>5</v>
@@ -9363,50 +10112,54 @@
       <c r="W105" t="s"/>
       <c r="X105" t="s"/>
       <c r="Y105" t="s">
-        <v>689</v>
+        <v>793</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>17493</v>
       </c>
-      <c r="B106" t="s"/>
-      <c r="C106" t="s"/>
+      <c r="B106" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C106" t="s">
+        <v>794</v>
+      </c>
       <c r="D106" t="n">
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F106" t="s">
-        <v>690</v>
+        <v>795</v>
       </c>
       <c r="G106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I106" t="s">
-        <v>691</v>
+        <v>796</v>
       </c>
       <c r="J106" t="s">
-        <v>692</v>
+        <v>797</v>
       </c>
       <c r="K106" t="s">
-        <v>693</v>
+        <v>798</v>
       </c>
       <c r="L106" t="s">
-        <v>694</v>
+        <v>799</v>
       </c>
       <c r="M106" t="n">
         <v>4</v>
       </c>
       <c r="N106" t="s">
-        <v>684</v>
+        <v>787</v>
       </c>
       <c r="O106" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="P106" t="n">
         <v>5</v>
@@ -9430,50 +10183,54 @@
       <c r="W106" t="s"/>
       <c r="X106" t="s"/>
       <c r="Y106" t="s">
-        <v>694</v>
+        <v>799</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>17493</v>
       </c>
-      <c r="B107" t="s"/>
-      <c r="C107" t="s"/>
+      <c r="B107" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C107" t="s">
+        <v>678</v>
+      </c>
       <c r="D107" t="n">
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F107" t="s">
-        <v>695</v>
+        <v>800</v>
       </c>
       <c r="G107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I107" t="s">
-        <v>696</v>
+        <v>801</v>
       </c>
       <c r="J107" t="s">
-        <v>697</v>
+        <v>802</v>
       </c>
       <c r="K107" t="s">
-        <v>698</v>
+        <v>803</v>
       </c>
       <c r="L107" t="s">
-        <v>699</v>
+        <v>804</v>
       </c>
       <c r="M107" t="n">
         <v>4</v>
       </c>
       <c r="N107" t="s">
-        <v>700</v>
+        <v>805</v>
       </c>
       <c r="O107" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P107" t="n">
         <v>5</v>
@@ -9497,50 +10254,54 @@
       <c r="W107" t="s"/>
       <c r="X107" t="s"/>
       <c r="Y107" t="s">
-        <v>699</v>
+        <v>804</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>17493</v>
       </c>
-      <c r="B108" t="s"/>
-      <c r="C108" t="s"/>
+      <c r="B108" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C108" t="s">
+        <v>806</v>
+      </c>
       <c r="D108" t="n">
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F108" t="s">
-        <v>701</v>
+        <v>807</v>
       </c>
       <c r="G108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I108" t="s">
-        <v>702</v>
+        <v>808</v>
       </c>
       <c r="J108" t="s">
-        <v>703</v>
+        <v>809</v>
       </c>
       <c r="K108" t="s">
-        <v>704</v>
+        <v>810</v>
       </c>
       <c r="L108" t="s">
-        <v>705</v>
+        <v>811</v>
       </c>
       <c r="M108" t="n">
         <v>5</v>
       </c>
       <c r="N108" t="s">
-        <v>700</v>
+        <v>805</v>
       </c>
       <c r="O108" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P108" t="n">
         <v>5</v>
@@ -9564,50 +10325,54 @@
       <c r="W108" t="s"/>
       <c r="X108" t="s"/>
       <c r="Y108" t="s">
-        <v>705</v>
+        <v>811</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
         <v>17493</v>
       </c>
-      <c r="B109" t="s"/>
-      <c r="C109" t="s"/>
+      <c r="B109" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C109" t="s">
+        <v>812</v>
+      </c>
       <c r="D109" t="n">
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F109" t="s">
-        <v>706</v>
+        <v>813</v>
       </c>
       <c r="G109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I109" t="s">
-        <v>707</v>
+        <v>814</v>
       </c>
       <c r="J109" t="s">
-        <v>708</v>
+        <v>815</v>
       </c>
       <c r="K109" t="s">
-        <v>709</v>
+        <v>816</v>
       </c>
       <c r="L109" t="s">
-        <v>710</v>
+        <v>817</v>
       </c>
       <c r="M109" t="n">
         <v>4</v>
       </c>
       <c r="N109" t="s">
-        <v>711</v>
+        <v>818</v>
       </c>
       <c r="O109" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="P109" t="n">
         <v>5</v>
@@ -9631,50 +10396,54 @@
       <c r="W109" t="s"/>
       <c r="X109" t="s"/>
       <c r="Y109" t="s">
-        <v>712</v>
+        <v>819</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
         <v>17493</v>
       </c>
-      <c r="B110" t="s"/>
-      <c r="C110" t="s"/>
+      <c r="B110" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C110" t="s">
+        <v>820</v>
+      </c>
       <c r="D110" t="n">
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F110" t="s">
-        <v>713</v>
+        <v>821</v>
       </c>
       <c r="G110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H110" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I110" t="s">
-        <v>714</v>
+        <v>822</v>
       </c>
       <c r="J110" t="s">
-        <v>715</v>
+        <v>823</v>
       </c>
       <c r="K110" t="s">
-        <v>716</v>
+        <v>824</v>
       </c>
       <c r="L110" t="s">
-        <v>717</v>
+        <v>825</v>
       </c>
       <c r="M110" t="n">
         <v>3</v>
       </c>
       <c r="N110" t="s">
-        <v>718</v>
+        <v>826</v>
       </c>
       <c r="O110" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P110" t="n">
         <v>4</v>
@@ -9698,50 +10467,54 @@
       <c r="W110" t="s"/>
       <c r="X110" t="s"/>
       <c r="Y110" t="s">
-        <v>719</v>
+        <v>827</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
         <v>17493</v>
       </c>
-      <c r="B111" t="s"/>
-      <c r="C111" t="s"/>
+      <c r="B111" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C111" t="s">
+        <v>828</v>
+      </c>
       <c r="D111" t="n">
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F111" t="s">
-        <v>720</v>
+        <v>829</v>
       </c>
       <c r="G111" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H111" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I111" t="s">
-        <v>721</v>
+        <v>830</v>
       </c>
       <c r="J111" t="s">
-        <v>722</v>
+        <v>831</v>
       </c>
       <c r="K111" t="s">
-        <v>723</v>
+        <v>832</v>
       </c>
       <c r="L111" t="s">
-        <v>724</v>
+        <v>833</v>
       </c>
       <c r="M111" t="n">
         <v>3</v>
       </c>
       <c r="N111" t="s">
-        <v>725</v>
+        <v>834</v>
       </c>
       <c r="O111" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="P111" t="n">
         <v>2</v>
@@ -9765,50 +10538,54 @@
       <c r="W111" t="s"/>
       <c r="X111" t="s"/>
       <c r="Y111" t="s">
-        <v>724</v>
+        <v>833</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
         <v>17493</v>
       </c>
-      <c r="B112" t="s"/>
-      <c r="C112" t="s"/>
+      <c r="B112" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C112" t="s">
+        <v>835</v>
+      </c>
       <c r="D112" t="n">
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F112" t="s">
-        <v>726</v>
+        <v>836</v>
       </c>
       <c r="G112" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H112" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I112" t="s">
-        <v>727</v>
+        <v>837</v>
       </c>
       <c r="J112" t="s">
-        <v>728</v>
+        <v>838</v>
       </c>
       <c r="K112" t="s">
-        <v>729</v>
+        <v>839</v>
       </c>
       <c r="L112" t="s">
-        <v>730</v>
+        <v>840</v>
       </c>
       <c r="M112" t="n">
         <v>4</v>
       </c>
       <c r="N112" t="s">
-        <v>731</v>
+        <v>841</v>
       </c>
       <c r="O112" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P112" t="n">
         <v>4</v>
@@ -9832,50 +10609,54 @@
       <c r="W112" t="s"/>
       <c r="X112" t="s"/>
       <c r="Y112" t="s">
-        <v>732</v>
+        <v>842</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
         <v>17493</v>
       </c>
-      <c r="B113" t="s"/>
-      <c r="C113" t="s"/>
+      <c r="B113" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C113" t="s">
+        <v>843</v>
+      </c>
       <c r="D113" t="n">
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F113" t="s">
-        <v>733</v>
+        <v>844</v>
       </c>
       <c r="G113" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H113" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I113" t="s">
-        <v>734</v>
+        <v>845</v>
       </c>
       <c r="J113" t="s">
-        <v>735</v>
+        <v>846</v>
       </c>
       <c r="K113" t="s">
-        <v>736</v>
+        <v>847</v>
       </c>
       <c r="L113" t="s">
-        <v>737</v>
+        <v>848</v>
       </c>
       <c r="M113" t="n">
         <v>3</v>
       </c>
       <c r="N113" t="s">
-        <v>738</v>
+        <v>849</v>
       </c>
       <c r="O113" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P113" t="n">
         <v>4</v>
@@ -9899,7 +10680,7 @@
       <c r="W113" t="s"/>
       <c r="X113" t="s"/>
       <c r="Y113" t="s">
-        <v>739</v>
+        <v>850</v>
       </c>
     </row>
   </sheetData>
